--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7220E603-67D1-4280-B126-B74CAB0A4FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4CD841-3634-462E-BDE6-5BF2F620DB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
@@ -34,12 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>url</t>
   </si>
   <si>
     <t>http://fenixservices.fao.org/faostat/static/bulkdownloads/Production_Crops_E_All_Data.zip</t>
+  </si>
+  <si>
+    <t>http://fenixservices.fao.org/faostat/static/bulkdownloads/Trade_Crops_Livestock_E_All_Data.zip</t>
+  </si>
+  <si>
+    <t>http://fenixservices.fao.org/faostat/static/bulkdownloads/FoodSupply_Crops_E_All_Data.zip</t>
+  </si>
+  <si>
+    <t>http://fenixservices.fao.org/faostat/static/bulkdownloads/Population_E_All_Data.zip</t>
+  </si>
+  <si>
+    <t>http://fenixservices.fao.org/faostat/static/bulkdownloads/Value_of_Production_E_All_Data.zip</t>
+  </si>
+  <si>
+    <t>http://fenixservices.fao.org/faostat/static/bulkdownloads/FoodBalanceSheets_E_All_Data.zip</t>
   </si>
 </sst>
 </file>
@@ -391,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545B1D71-383F-4032-899B-A73C19D2F750}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,6 +427,31 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A957CB3-9552-4CA7-9F2A-D13EF65EE73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401A5688-A105-4355-A0D2-E1EB4050D443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
+    <workbookView xWindow="3192" yWindow="2640" windowWidth="19272" windowHeight="8916" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
   <sheets>
-    <sheet name="downloads" sheetId="1" r:id="rId1"/>
-    <sheet name="metrics" sheetId="2" r:id="rId2"/>
+    <sheet name="general" sheetId="3" r:id="rId1"/>
+    <sheet name="downloads" sheetId="1" r:id="rId2"/>
+    <sheet name="metrics" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="227">
   <si>
     <t>url</t>
   </si>
@@ -707,6 +708,15 @@
   </si>
   <si>
     <t>fao</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>fao_encoding</t>
+  </si>
+  <si>
+    <t>ISO-8859-1</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1067,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811487A-6E7B-4C2E-9752-10E8FCDC87C8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545B1D71-383F-4032-899B-A73C19D2F750}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
@@ -1130,7 +1175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5999D9A-B887-407B-9ED8-3246786298CD}">
   <dimension ref="A1:O161"/>
   <sheetViews>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401A5688-A105-4355-A0D2-E1EB4050D443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC5E13A-8D26-486F-BC74-E57D0BBEFE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3192" yWindow="2640" windowWidth="19272" windowHeight="8916" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="228">
   <si>
     <t>url</t>
   </si>
@@ -47,9 +47,6 @@
     <t>http://fenixservices.fao.org/faostat/static/bulkdownloads/Trade_Crops_Livestock_E_All_Data.zip</t>
   </si>
   <si>
-    <t>http://fenixservices.fao.org/faostat/static/bulkdownloads/FoodSupply_Crops_E_All_Data.zip</t>
-  </si>
-  <si>
     <t>http://fenixservices.fao.org/faostat/static/bulkdownloads/Population_E_All_Data.zip</t>
   </si>
   <si>
@@ -717,16 +714,30 @@
   </si>
   <si>
     <t>ISO-8859-1</t>
+  </si>
+  <si>
+    <t>fao_production</t>
+  </si>
+  <si>
+    <t>Production_Crops_E_All_Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -749,13 +760,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1068,31 +1082,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811487A-6E7B-4C2E-9752-10E8FCDC87C8}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
         <v>225</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1103,15 +1126,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545B1D71-383F-4032-899B-A73C19D2F750}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="82.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1119,15 +1142,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1135,42 +1158,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{32A2E337-6EA4-449D-83DC-DE6E5AF2911A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1203,49 +1221,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>217</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1253,43 +1271,43 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1300,29 +1318,29 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
       <c r="J3">
         <v>1</v>
       </c>
@@ -1333,10 +1351,10 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
         <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -1347,43 +1365,43 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
         <v>21</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -1394,43 +1412,43 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>21</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>22</v>
-      </c>
-      <c r="N5" t="s">
-        <v>23</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -1441,29 +1459,29 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
       <c r="J6">
         <v>1</v>
       </c>
@@ -1474,10 +1492,10 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
         <v>22</v>
-      </c>
-      <c r="N6" t="s">
-        <v>23</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1488,29 +1506,29 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
       <c r="J7">
         <v>1</v>
       </c>
@@ -1521,10 +1539,10 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
         <v>22</v>
-      </c>
-      <c r="N7" t="s">
-        <v>23</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -1535,29 +1553,29 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
         <v>33</v>
       </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
       <c r="J8">
         <v>1</v>
       </c>
@@ -1568,10 +1586,10 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
         <v>22</v>
-      </c>
-      <c r="N8" t="s">
-        <v>23</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1582,28 +1600,28 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1615,10 +1633,10 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
         <v>22</v>
-      </c>
-      <c r="N9" t="s">
-        <v>23</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1629,29 +1647,29 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
         <v>37</v>
       </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
       <c r="J10">
         <v>1</v>
       </c>
@@ -1662,10 +1680,10 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
         <v>22</v>
-      </c>
-      <c r="N10" t="s">
-        <v>23</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -1676,28 +1694,28 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1709,10 +1727,10 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
         <v>22</v>
-      </c>
-      <c r="N11" t="s">
-        <v>23</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1723,28 +1741,28 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1756,10 +1774,10 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" t="s">
         <v>22</v>
-      </c>
-      <c r="N12" t="s">
-        <v>23</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1770,43 +1788,43 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
         <v>42</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>43</v>
-      </c>
       <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
         <v>22</v>
-      </c>
-      <c r="N13" t="s">
-        <v>23</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1817,43 +1835,43 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
         <v>42</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>43</v>
-      </c>
       <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
         <v>22</v>
-      </c>
-      <c r="N14" t="s">
-        <v>23</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1864,43 +1882,43 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
         <v>41</v>
       </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
         <v>42</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
-        <v>43</v>
-      </c>
       <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" t="s">
         <v>22</v>
-      </c>
-      <c r="N15" t="s">
-        <v>23</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1911,43 +1929,43 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
         <v>42</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>43</v>
-      </c>
       <c r="M16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" t="s">
         <v>22</v>
-      </c>
-      <c r="N16" t="s">
-        <v>23</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1958,43 +1976,43 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
         <v>41</v>
       </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
         <v>42</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>43</v>
-      </c>
       <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
         <v>22</v>
-      </c>
-      <c r="N17" t="s">
-        <v>23</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -2005,43 +2023,43 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
         <v>41</v>
       </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
         <v>42</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>43</v>
-      </c>
       <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
         <v>22</v>
-      </c>
-      <c r="N18" t="s">
-        <v>23</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -2052,43 +2070,43 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
         <v>41</v>
       </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
         <v>42</v>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>43</v>
-      </c>
       <c r="M19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" t="s">
         <v>22</v>
-      </c>
-      <c r="N19" t="s">
-        <v>23</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -2099,43 +2117,43 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
         <v>41</v>
       </c>
-      <c r="E20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
         <v>42</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>43</v>
-      </c>
       <c r="M20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" t="s">
         <v>22</v>
-      </c>
-      <c r="N20" t="s">
-        <v>23</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -2146,43 +2164,43 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
         <v>41</v>
       </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
         <v>42</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>43</v>
-      </c>
       <c r="M21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" t="s">
         <v>22</v>
-      </c>
-      <c r="N21" t="s">
-        <v>23</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2193,43 +2211,43 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s">
         <v>41</v>
       </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
         <v>42</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>43</v>
-      </c>
       <c r="M22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" t="s">
         <v>22</v>
-      </c>
-      <c r="N22" t="s">
-        <v>23</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2240,43 +2258,43 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s">
         <v>41</v>
       </c>
-      <c r="E23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
         <v>42</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>43</v>
-      </c>
       <c r="M23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
         <v>22</v>
-      </c>
-      <c r="N23" t="s">
-        <v>23</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -2287,29 +2305,29 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
         <v>44</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>45</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>46</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
         <v>47</v>
       </c>
-      <c r="H24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
       <c r="J24">
         <v>1</v>
       </c>
@@ -2317,13 +2335,13 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" t="s">
         <v>22</v>
-      </c>
-      <c r="N24" t="s">
-        <v>23</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -2334,29 +2352,29 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
         <v>44</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>45</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>46</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s">
         <v>47</v>
       </c>
-      <c r="H25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
       <c r="J25">
         <v>1</v>
       </c>
@@ -2364,13 +2382,13 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" t="s">
         <v>22</v>
-      </c>
-      <c r="N25" t="s">
-        <v>23</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -2381,29 +2399,29 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
         <v>44</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>45</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>46</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
       <c r="J26">
         <v>1</v>
       </c>
@@ -2411,13 +2429,13 @@
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" t="s">
         <v>22</v>
-      </c>
-      <c r="N26" t="s">
-        <v>23</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -2428,29 +2446,29 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
         <v>44</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>45</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>46</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s">
         <v>47</v>
       </c>
-      <c r="H27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" t="s">
-        <v>48</v>
-      </c>
       <c r="J27">
         <v>1</v>
       </c>
@@ -2458,13 +2476,13 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" t="s">
         <v>22</v>
-      </c>
-      <c r="N27" t="s">
-        <v>23</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -2475,28 +2493,28 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
         <v>44</v>
       </c>
-      <c r="E28" t="s">
-        <v>45</v>
-      </c>
       <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
         <v>49</v>
       </c>
-      <c r="G28" t="s">
-        <v>50</v>
-      </c>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2505,13 +2523,13 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" t="s">
         <v>22</v>
-      </c>
-      <c r="N28" t="s">
-        <v>23</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -2522,28 +2540,28 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
         <v>44</v>
       </c>
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
       <c r="F29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" t="s">
         <v>49</v>
       </c>
-      <c r="G29" t="s">
-        <v>50</v>
-      </c>
       <c r="H29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2552,13 +2570,13 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" t="s">
         <v>22</v>
-      </c>
-      <c r="N29" t="s">
-        <v>23</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -2569,28 +2587,28 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
         <v>44</v>
       </c>
-      <c r="E30" t="s">
-        <v>45</v>
-      </c>
       <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
         <v>49</v>
       </c>
-      <c r="G30" t="s">
-        <v>50</v>
-      </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2599,13 +2617,13 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" t="s">
         <v>22</v>
-      </c>
-      <c r="N30" t="s">
-        <v>23</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -2616,28 +2634,28 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
         <v>44</v>
       </c>
-      <c r="E31" t="s">
-        <v>45</v>
-      </c>
       <c r="F31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
         <v>51</v>
       </c>
-      <c r="G31" t="s">
-        <v>52</v>
-      </c>
       <c r="H31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2646,13 +2664,13 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" t="s">
         <v>22</v>
-      </c>
-      <c r="N31" t="s">
-        <v>23</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -2663,28 +2681,28 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
         <v>44</v>
       </c>
-      <c r="E32" t="s">
-        <v>45</v>
-      </c>
       <c r="F32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
         <v>51</v>
       </c>
-      <c r="G32" t="s">
-        <v>52</v>
-      </c>
       <c r="H32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2693,13 +2711,13 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" t="s">
         <v>22</v>
-      </c>
-      <c r="N32" t="s">
-        <v>23</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -2710,28 +2728,28 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
         <v>44</v>
       </c>
-      <c r="E33" t="s">
-        <v>45</v>
-      </c>
       <c r="F33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
         <v>51</v>
       </c>
-      <c r="G33" t="s">
-        <v>52</v>
-      </c>
       <c r="H33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2740,13 +2758,13 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" t="s">
         <v>22</v>
-      </c>
-      <c r="N33" t="s">
-        <v>23</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -2757,28 +2775,28 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
         <v>44</v>
       </c>
-      <c r="E34" t="s">
-        <v>45</v>
-      </c>
       <c r="F34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
         <v>51</v>
       </c>
-      <c r="G34" t="s">
-        <v>52</v>
-      </c>
       <c r="H34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2787,13 +2805,13 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" t="s">
         <v>22</v>
-      </c>
-      <c r="N34" t="s">
-        <v>23</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -2804,43 +2822,43 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" t="s">
         <v>53</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>53</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
         <v>54</v>
       </c>
-      <c r="G35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s">
-        <v>48</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>55</v>
-      </c>
-      <c r="N35" t="s">
-        <v>56</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -2851,28 +2869,28 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
       <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
         <v>53</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>53</v>
       </c>
-      <c r="F36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" t="s">
-        <v>54</v>
-      </c>
       <c r="H36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2884,10 +2902,10 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -2898,28 +2916,28 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
       <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" t="s">
         <v>53</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>53</v>
       </c>
-      <c r="F37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" t="s">
-        <v>54</v>
-      </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2931,10 +2949,10 @@
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -2945,28 +2963,28 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
       <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" t="s">
         <v>53</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>53</v>
       </c>
-      <c r="F38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" t="s">
-        <v>54</v>
-      </c>
       <c r="H38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2978,10 +2996,10 @@
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -2992,43 +3010,43 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
         <v>60</v>
       </c>
-      <c r="G39" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I39" t="s">
-        <v>48</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39" t="s">
-        <v>61</v>
-      </c>
       <c r="N39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -3039,28 +3057,28 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3072,10 +3090,10 @@
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -3086,28 +3104,28 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -3119,10 +3137,10 @@
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -3133,43 +3151,43 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
         <v>64</v>
       </c>
-      <c r="G42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" t="s">
-        <v>36</v>
-      </c>
-      <c r="I42" t="s">
-        <v>48</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42" t="s">
-        <v>65</v>
-      </c>
       <c r="N42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -3180,28 +3198,28 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -3213,10 +3231,10 @@
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -3227,28 +3245,28 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -3260,10 +3278,10 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -3274,28 +3292,28 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -3307,10 +3325,10 @@
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -3321,28 +3339,28 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46">
         <v>5</v>
       </c>
       <c r="D46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" t="s">
         <v>69</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>69</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
         <v>70</v>
       </c>
-      <c r="G46" t="s">
-        <v>70</v>
-      </c>
-      <c r="H46" t="s">
-        <v>71</v>
-      </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -3351,13 +3369,13 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -3368,28 +3386,28 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
       <c r="D47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" t="s">
         <v>69</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>69</v>
       </c>
-      <c r="F47" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" t="s">
-        <v>70</v>
-      </c>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3398,13 +3416,13 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -3415,28 +3433,28 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48">
         <v>5</v>
       </c>
       <c r="D48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" t="s">
         <v>69</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>69</v>
       </c>
-      <c r="F48" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" t="s">
-        <v>70</v>
-      </c>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3445,13 +3463,13 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -3462,28 +3480,28 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49">
         <v>6</v>
       </c>
       <c r="D49" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" t="s">
         <v>74</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>74</v>
       </c>
-      <c r="F49" t="s">
-        <v>75</v>
-      </c>
-      <c r="G49" t="s">
-        <v>75</v>
-      </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3492,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -3509,28 +3527,28 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50">
         <v>6</v>
       </c>
       <c r="D50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" t="s">
         <v>74</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>74</v>
       </c>
-      <c r="F50" t="s">
-        <v>75</v>
-      </c>
-      <c r="G50" t="s">
-        <v>75</v>
-      </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3539,13 +3557,13 @@
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M50" t="s">
+        <v>54</v>
+      </c>
+      <c r="N50" t="s">
         <v>55</v>
-      </c>
-      <c r="N50" t="s">
-        <v>56</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -3556,28 +3574,28 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51">
         <v>6</v>
       </c>
       <c r="D51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" t="s">
         <v>74</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>74</v>
       </c>
-      <c r="F51" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" t="s">
-        <v>75</v>
-      </c>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -3586,13 +3604,13 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -3603,29 +3621,29 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="s">
         <v>76</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>77</v>
       </c>
-      <c r="I52" t="s">
-        <v>78</v>
-      </c>
       <c r="J52">
         <v>1</v>
       </c>
@@ -3633,13 +3651,13 @@
         <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M52" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" t="s">
         <v>22</v>
-      </c>
-      <c r="N52" t="s">
-        <v>23</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -3650,28 +3668,28 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
         <v>18</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
         <v>18</v>
       </c>
-      <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -3680,13 +3698,13 @@
         <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M53" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" t="s">
         <v>22</v>
-      </c>
-      <c r="N53" t="s">
-        <v>23</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3697,28 +3715,28 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
         <v>18</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>18</v>
       </c>
-      <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -3727,13 +3745,13 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M54" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" t="s">
         <v>22</v>
-      </c>
-      <c r="N54" t="s">
-        <v>23</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -3744,28 +3762,28 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s">
         <v>18</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>18</v>
       </c>
-      <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -3774,13 +3792,13 @@
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M55" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" t="s">
         <v>22</v>
-      </c>
-      <c r="N55" t="s">
-        <v>23</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -3791,28 +3809,28 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -3821,13 +3839,13 @@
         <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M56" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" t="s">
         <v>22</v>
-      </c>
-      <c r="N56" t="s">
-        <v>23</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3838,28 +3856,28 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -3868,13 +3886,13 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M57" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" t="s">
         <v>22</v>
-      </c>
-      <c r="N57" t="s">
-        <v>23</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -3885,28 +3903,28 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -3915,13 +3933,13 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M58" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" t="s">
         <v>22</v>
-      </c>
-      <c r="N58" t="s">
-        <v>23</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -3932,28 +3950,28 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -3962,13 +3980,13 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M59" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" t="s">
         <v>22</v>
-      </c>
-      <c r="N59" t="s">
-        <v>23</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -3979,28 +3997,28 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -4009,13 +4027,13 @@
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M60" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" t="s">
         <v>22</v>
-      </c>
-      <c r="N60" t="s">
-        <v>23</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -4026,28 +4044,28 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -4056,13 +4074,13 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M61" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" t="s">
         <v>22</v>
-      </c>
-      <c r="N61" t="s">
-        <v>23</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -4073,28 +4091,28 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -4103,13 +4121,13 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M62" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" t="s">
         <v>22</v>
-      </c>
-      <c r="N62" t="s">
-        <v>23</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -4120,28 +4138,28 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" t="s">
         <v>76</v>
       </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s">
-        <v>53</v>
-      </c>
-      <c r="E63" t="s">
-        <v>53</v>
-      </c>
-      <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
       <c r="I63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -4150,13 +4168,13 @@
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N63" t="s">
         <v>55</v>
-      </c>
-      <c r="N63" t="s">
-        <v>56</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -4167,28 +4185,28 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -4197,13 +4215,13 @@
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -4214,28 +4232,28 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -4244,13 +4262,13 @@
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -4261,28 +4279,28 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -4291,13 +4309,13 @@
         <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -4308,28 +4326,28 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -4338,13 +4356,13 @@
         <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -4355,28 +4373,28 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -4385,13 +4403,13 @@
         <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -4402,28 +4420,28 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -4432,13 +4450,13 @@
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -4449,28 +4467,28 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -4479,13 +4497,13 @@
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -4496,28 +4514,28 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -4526,13 +4544,13 @@
         <v>1</v>
       </c>
       <c r="L71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -4543,28 +4561,28 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -4573,13 +4591,13 @@
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -4590,28 +4608,28 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -4620,13 +4638,13 @@
         <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -4637,28 +4655,28 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
         <v>89</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" t="s">
         <v>90</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G74" t="s">
         <v>90</v>
       </c>
-      <c r="F74" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" t="s">
-        <v>91</v>
-      </c>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -4670,10 +4688,10 @@
         <v>1</v>
       </c>
       <c r="M74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -4684,28 +4702,28 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
         <v>89</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>90</v>
-      </c>
       <c r="E75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F75" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" t="s">
         <v>92</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>93</v>
       </c>
-      <c r="H75" t="s">
-        <v>94</v>
-      </c>
       <c r="I75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -4717,10 +4735,10 @@
         <v>1</v>
       </c>
       <c r="M75" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" t="s">
         <v>22</v>
-      </c>
-      <c r="N75" t="s">
-        <v>23</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -4731,28 +4749,28 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76" t="s">
         <v>95</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G76" t="s">
         <v>95</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>96</v>
       </c>
-      <c r="G76" t="s">
-        <v>96</v>
-      </c>
-      <c r="H76" t="s">
-        <v>97</v>
-      </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -4761,13 +4779,13 @@
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M76" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" t="s">
         <v>22</v>
-      </c>
-      <c r="N76" t="s">
-        <v>23</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -4778,28 +4796,28 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C77">
         <v>3</v>
       </c>
       <c r="D77" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" t="s">
+        <v>97</v>
+      </c>
+      <c r="F77" t="s">
         <v>98</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G77" t="s">
         <v>98</v>
       </c>
-      <c r="F77" t="s">
-        <v>99</v>
-      </c>
-      <c r="G77" t="s">
-        <v>99</v>
-      </c>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -4811,10 +4829,10 @@
         <v>1</v>
       </c>
       <c r="M77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -4825,28 +4843,28 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78">
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F78" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78" t="s">
         <v>100</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>101</v>
       </c>
-      <c r="H78" t="s">
-        <v>102</v>
-      </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -4858,10 +4876,10 @@
         <v>1</v>
       </c>
       <c r="M78" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" t="s">
         <v>22</v>
-      </c>
-      <c r="N78" t="s">
-        <v>23</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -4872,43 +4890,43 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79">
         <v>5</v>
       </c>
       <c r="D79" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79" t="s">
+        <v>102</v>
+      </c>
+      <c r="F79" t="s">
+        <v>102</v>
+      </c>
+      <c r="G79" t="s">
+        <v>102</v>
+      </c>
+      <c r="H79" t="s">
+        <v>102</v>
+      </c>
+      <c r="I79" t="s">
+        <v>47</v>
+      </c>
+      <c r="J79" t="s">
         <v>103</v>
       </c>
-      <c r="E79" t="s">
-        <v>103</v>
-      </c>
-      <c r="F79" t="s">
-        <v>103</v>
-      </c>
-      <c r="G79" t="s">
-        <v>103</v>
-      </c>
-      <c r="H79" t="s">
-        <v>103</v>
-      </c>
-      <c r="I79" t="s">
-        <v>48</v>
-      </c>
-      <c r="J79" t="s">
-        <v>104</v>
-      </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="L79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M79" t="s">
+        <v>54</v>
+      </c>
+      <c r="N79" t="s">
         <v>55</v>
-      </c>
-      <c r="N79" t="s">
-        <v>56</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -4919,29 +4937,29 @@
         <v>4</v>
       </c>
       <c r="B80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
         <v>105</v>
       </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" t="s">
         <v>106</v>
       </c>
-      <c r="E80" t="s">
+      <c r="G80" t="s">
         <v>106</v>
       </c>
-      <c r="F80" t="s">
+      <c r="H80" t="s">
         <v>107</v>
       </c>
-      <c r="G80" t="s">
-        <v>107</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>108</v>
       </c>
-      <c r="I80" t="s">
-        <v>109</v>
-      </c>
       <c r="J80">
         <v>1</v>
       </c>
@@ -4952,10 +4970,10 @@
         <v>1</v>
       </c>
       <c r="M80" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" t="s">
         <v>22</v>
-      </c>
-      <c r="N80" t="s">
-        <v>23</v>
       </c>
       <c r="O80">
         <v>1</v>
@@ -4966,28 +4984,28 @@
         <v>4</v>
       </c>
       <c r="B81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
         <v>105</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
+        <v>105</v>
+      </c>
+      <c r="F81" t="s">
         <v>106</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>106</v>
       </c>
-      <c r="F81" t="s">
-        <v>107</v>
-      </c>
-      <c r="G81" t="s">
-        <v>107</v>
-      </c>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -4999,10 +5017,10 @@
         <v>1</v>
       </c>
       <c r="M81" t="s">
+        <v>21</v>
+      </c>
+      <c r="N81" t="s">
         <v>22</v>
-      </c>
-      <c r="N81" t="s">
-        <v>23</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -5013,28 +5031,28 @@
         <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" t="s">
         <v>111</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>112</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>113</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>114</v>
       </c>
-      <c r="H82" t="s">
-        <v>115</v>
-      </c>
       <c r="I82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -5046,10 +5064,10 @@
         <v>1</v>
       </c>
       <c r="M82" t="s">
+        <v>21</v>
+      </c>
+      <c r="N82" t="s">
         <v>22</v>
-      </c>
-      <c r="N82" t="s">
-        <v>23</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -5060,28 +5078,28 @@
         <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E83" t="s">
         <v>111</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>112</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>113</v>
       </c>
-      <c r="G83" t="s">
-        <v>114</v>
-      </c>
       <c r="H83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -5093,10 +5111,10 @@
         <v>1</v>
       </c>
       <c r="M83" t="s">
+        <v>21</v>
+      </c>
+      <c r="N83" t="s">
         <v>22</v>
-      </c>
-      <c r="N83" t="s">
-        <v>23</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -5107,28 +5125,28 @@
         <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84" t="s">
         <v>111</v>
       </c>
-      <c r="E84" t="s">
-        <v>112</v>
-      </c>
       <c r="F84" t="s">
+        <v>116</v>
+      </c>
+      <c r="G84" t="s">
         <v>117</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>118</v>
       </c>
-      <c r="H84" t="s">
-        <v>119</v>
-      </c>
       <c r="I84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -5140,10 +5158,10 @@
         <v>1</v>
       </c>
       <c r="M84" t="s">
+        <v>21</v>
+      </c>
+      <c r="N84" t="s">
         <v>22</v>
-      </c>
-      <c r="N84" t="s">
-        <v>23</v>
       </c>
       <c r="O84">
         <v>1</v>
@@ -5154,28 +5172,28 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
       <c r="D85" t="s">
+        <v>110</v>
+      </c>
+      <c r="E85" t="s">
         <v>111</v>
       </c>
-      <c r="E85" t="s">
-        <v>112</v>
-      </c>
       <c r="F85" t="s">
+        <v>116</v>
+      </c>
+      <c r="G85" t="s">
         <v>117</v>
       </c>
-      <c r="G85" t="s">
-        <v>118</v>
-      </c>
       <c r="H85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -5187,10 +5205,10 @@
         <v>1</v>
       </c>
       <c r="M85" t="s">
+        <v>21</v>
+      </c>
+      <c r="N85" t="s">
         <v>22</v>
-      </c>
-      <c r="N85" t="s">
-        <v>23</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -5201,29 +5219,29 @@
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
       <c r="D86" t="s">
+        <v>120</v>
+      </c>
+      <c r="E86" t="s">
+        <v>120</v>
+      </c>
+      <c r="F86" t="s">
         <v>121</v>
       </c>
-      <c r="E86" t="s">
+      <c r="G86" t="s">
         <v>121</v>
       </c>
-      <c r="F86" t="s">
+      <c r="H86" t="s">
         <v>122</v>
       </c>
-      <c r="G86" t="s">
-        <v>122</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>123</v>
       </c>
-      <c r="I86" t="s">
-        <v>124</v>
-      </c>
       <c r="J86">
         <v>1</v>
       </c>
@@ -5231,13 +5249,13 @@
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O86">
         <v>1</v>
@@ -5248,28 +5266,28 @@
         <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C87">
         <v>3</v>
       </c>
       <c r="D87" t="s">
+        <v>120</v>
+      </c>
+      <c r="E87" t="s">
+        <v>120</v>
+      </c>
+      <c r="F87" t="s">
         <v>121</v>
       </c>
-      <c r="E87" t="s">
+      <c r="G87" t="s">
         <v>121</v>
       </c>
-      <c r="F87" t="s">
-        <v>122</v>
-      </c>
-      <c r="G87" t="s">
-        <v>122</v>
-      </c>
       <c r="H87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -5278,13 +5296,13 @@
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O87">
         <v>1</v>
@@ -5295,28 +5313,28 @@
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C88">
         <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -5325,13 +5343,13 @@
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M88" t="s">
+        <v>54</v>
+      </c>
+      <c r="N88" t="s">
         <v>55</v>
-      </c>
-      <c r="N88" t="s">
-        <v>56</v>
       </c>
       <c r="O88">
         <v>1</v>
@@ -5342,28 +5360,28 @@
         <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C89">
         <v>5</v>
       </c>
       <c r="D89" t="s">
+        <v>126</v>
+      </c>
+      <c r="E89" t="s">
+        <v>126</v>
+      </c>
+      <c r="F89" t="s">
+        <v>126</v>
+      </c>
+      <c r="G89" t="s">
+        <v>126</v>
+      </c>
+      <c r="H89" t="s">
         <v>127</v>
       </c>
-      <c r="E89" t="s">
-        <v>127</v>
-      </c>
-      <c r="F89" t="s">
-        <v>127</v>
-      </c>
-      <c r="G89" t="s">
-        <v>127</v>
-      </c>
-      <c r="H89" t="s">
-        <v>128</v>
-      </c>
       <c r="I89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -5372,13 +5390,13 @@
         <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O89">
         <v>1</v>
@@ -5389,28 +5407,28 @@
         <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C90">
         <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -5419,13 +5437,13 @@
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O90">
         <v>1</v>
@@ -5436,28 +5454,28 @@
         <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C91">
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -5466,13 +5484,13 @@
         <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M91" t="s">
+        <v>54</v>
+      </c>
+      <c r="N91" t="s">
         <v>55</v>
-      </c>
-      <c r="N91" t="s">
-        <v>56</v>
       </c>
       <c r="O91">
         <v>1</v>
@@ -5483,28 +5501,28 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
         <v>131</v>
       </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
+        <v>131</v>
+      </c>
+      <c r="F92" t="s">
+        <v>131</v>
+      </c>
+      <c r="G92" t="s">
+        <v>131</v>
+      </c>
+      <c r="H92" t="s">
         <v>132</v>
       </c>
-      <c r="E92" t="s">
-        <v>132</v>
-      </c>
-      <c r="F92" t="s">
-        <v>132</v>
-      </c>
-      <c r="G92" t="s">
-        <v>132</v>
-      </c>
-      <c r="H92" t="s">
-        <v>133</v>
-      </c>
       <c r="I92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -5516,10 +5534,10 @@
         <v>1</v>
       </c>
       <c r="M92" t="s">
+        <v>21</v>
+      </c>
+      <c r="N92" t="s">
         <v>22</v>
-      </c>
-      <c r="N92" t="s">
-        <v>23</v>
       </c>
       <c r="O92">
         <v>1</v>
@@ -5530,28 +5548,28 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
         <v>131</v>
       </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93" t="s">
-        <v>132</v>
-      </c>
       <c r="E93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -5563,10 +5581,10 @@
         <v>1</v>
       </c>
       <c r="M93" t="s">
+        <v>21</v>
+      </c>
+      <c r="N93" t="s">
         <v>22</v>
-      </c>
-      <c r="N93" t="s">
-        <v>23</v>
       </c>
       <c r="O93">
         <v>1</v>
@@ -5577,40 +5595,40 @@
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s">
         <v>18</v>
       </c>
-      <c r="E94" t="s">
+      <c r="G94" t="s">
         <v>18</v>
       </c>
-      <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
       <c r="H94" t="s">
+        <v>134</v>
+      </c>
+      <c r="I94" t="s">
         <v>135</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
         <v>136</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94">
-        <v>1</v>
-      </c>
-      <c r="N94" t="s">
-        <v>137</v>
       </c>
       <c r="O94">
         <v>2</v>
@@ -5621,28 +5639,28 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" t="s">
         <v>18</v>
       </c>
-      <c r="E95" t="s">
+      <c r="G95" t="s">
         <v>18</v>
       </c>
-      <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s">
-        <v>19</v>
-      </c>
       <c r="H95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -5654,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O95">
         <v>2</v>
@@ -5665,28 +5683,28 @@
         <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -5698,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="N96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O96">
         <v>2</v>
@@ -5709,29 +5727,29 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H97" t="s">
+        <v>139</v>
+      </c>
+      <c r="I97" t="s">
         <v>140</v>
       </c>
-      <c r="I97" t="s">
-        <v>141</v>
-      </c>
       <c r="J97">
         <v>0</v>
       </c>
@@ -5742,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="N97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O97">
         <v>2</v>
@@ -5753,29 +5771,29 @@
         <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H98" t="s">
+        <v>141</v>
+      </c>
+      <c r="I98" t="s">
         <v>142</v>
       </c>
-      <c r="I98" t="s">
-        <v>143</v>
-      </c>
       <c r="J98">
         <v>0</v>
       </c>
@@ -5786,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O98">
         <v>2</v>
@@ -5797,29 +5815,29 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H99" t="s">
+        <v>143</v>
+      </c>
+      <c r="I99" t="s">
         <v>144</v>
       </c>
-      <c r="I99" t="s">
-        <v>145</v>
-      </c>
       <c r="J99">
         <v>0</v>
       </c>
@@ -5830,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O99">
         <v>2</v>
@@ -5841,28 +5859,28 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5874,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="N100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O100">
         <v>2</v>
@@ -5885,28 +5903,28 @@
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -5918,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="N101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O101">
         <v>2</v>
@@ -5929,28 +5947,28 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -5962,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="N102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O102">
         <v>2</v>
@@ -5973,28 +5991,28 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" t="s">
         <v>18</v>
       </c>
-      <c r="E103" t="s">
+      <c r="G103" t="s">
         <v>18</v>
       </c>
-      <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
       <c r="H103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -6006,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O103">
         <v>2</v>
@@ -6017,28 +6035,28 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" t="s">
         <v>18</v>
       </c>
-      <c r="E104" t="s">
+      <c r="G104" t="s">
         <v>18</v>
       </c>
-      <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s">
-        <v>19</v>
-      </c>
       <c r="H104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -6050,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O104">
         <v>2</v>
@@ -6061,28 +6079,28 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" t="s">
         <v>18</v>
       </c>
-      <c r="E105" t="s">
+      <c r="G105" t="s">
         <v>18</v>
       </c>
-      <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s">
-        <v>19</v>
-      </c>
       <c r="H105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -6094,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O105">
         <v>2</v>
@@ -6105,28 +6123,28 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" t="s">
         <v>18</v>
       </c>
-      <c r="E106" t="s">
+      <c r="G106" t="s">
         <v>18</v>
       </c>
-      <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s">
-        <v>19</v>
-      </c>
       <c r="H106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -6138,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O106">
         <v>2</v>
@@ -6149,28 +6167,28 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" t="s">
         <v>18</v>
       </c>
-      <c r="E107" t="s">
+      <c r="G107" t="s">
         <v>18</v>
       </c>
-      <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s">
-        <v>19</v>
-      </c>
       <c r="H107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -6182,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O107">
         <v>2</v>
@@ -6193,28 +6211,28 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" t="s">
         <v>18</v>
       </c>
-      <c r="E108" t="s">
+      <c r="G108" t="s">
         <v>18</v>
       </c>
-      <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s">
-        <v>19</v>
-      </c>
       <c r="H108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -6226,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O108">
         <v>2</v>
@@ -6237,28 +6255,28 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" t="s">
         <v>18</v>
       </c>
-      <c r="E109" t="s">
+      <c r="G109" t="s">
         <v>18</v>
       </c>
-      <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s">
-        <v>19</v>
-      </c>
       <c r="H109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -6270,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O109">
         <v>2</v>
@@ -6281,28 +6299,28 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" t="s">
+        <v>17</v>
+      </c>
+      <c r="F110" t="s">
         <v>18</v>
       </c>
-      <c r="E110" t="s">
+      <c r="G110" t="s">
         <v>18</v>
       </c>
-      <c r="F110" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" t="s">
-        <v>19</v>
-      </c>
       <c r="H110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -6314,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="N110" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O110">
         <v>2</v>
@@ -6325,28 +6343,28 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" t="s">
         <v>18</v>
       </c>
-      <c r="E111" t="s">
+      <c r="G111" t="s">
         <v>18</v>
       </c>
-      <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s">
-        <v>19</v>
-      </c>
       <c r="H111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I111" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -6358,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="N111" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O111">
         <v>2</v>
@@ -6369,28 +6387,28 @@
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" t="s">
         <v>18</v>
       </c>
-      <c r="E112" t="s">
+      <c r="G112" t="s">
         <v>18</v>
       </c>
-      <c r="F112" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" t="s">
-        <v>19</v>
-      </c>
       <c r="H112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -6402,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O112">
         <v>2</v>
@@ -6413,28 +6431,28 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" t="s">
         <v>18</v>
       </c>
-      <c r="E113" t="s">
+      <c r="G113" t="s">
         <v>18</v>
       </c>
-      <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>19</v>
-      </c>
       <c r="H113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -6446,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O113">
         <v>2</v>
@@ -6457,28 +6475,28 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" t="s">
         <v>18</v>
       </c>
-      <c r="E114" t="s">
+      <c r="G114" t="s">
         <v>18</v>
       </c>
-      <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s">
-        <v>19</v>
-      </c>
       <c r="H114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -6490,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O114">
         <v>2</v>
@@ -6501,28 +6519,28 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" t="s">
         <v>18</v>
       </c>
-      <c r="E115" t="s">
+      <c r="G115" t="s">
         <v>18</v>
       </c>
-      <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s">
-        <v>19</v>
-      </c>
       <c r="H115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -6534,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O115">
         <v>2</v>
@@ -6545,28 +6563,28 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" t="s">
         <v>18</v>
       </c>
-      <c r="E116" t="s">
+      <c r="G116" t="s">
         <v>18</v>
       </c>
-      <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="s">
-        <v>19</v>
-      </c>
       <c r="H116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -6578,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O116">
         <v>2</v>
@@ -6589,28 +6607,28 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" t="s">
         <v>18</v>
       </c>
-      <c r="E117" t="s">
+      <c r="G117" t="s">
         <v>18</v>
       </c>
-      <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s">
-        <v>19</v>
-      </c>
       <c r="H117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -6622,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O117">
         <v>2</v>
@@ -6633,28 +6651,28 @@
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" t="s">
         <v>18</v>
       </c>
-      <c r="E118" t="s">
+      <c r="G118" t="s">
         <v>18</v>
       </c>
-      <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
       <c r="H118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -6666,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O118">
         <v>2</v>
@@ -6677,28 +6695,28 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I119" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -6710,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="N119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O119">
         <v>2</v>
@@ -6721,28 +6739,28 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H120" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -6754,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O120">
         <v>2</v>
@@ -6765,28 +6783,28 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -6798,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O121">
         <v>2</v>
@@ -6809,28 +6827,28 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -6842,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O122">
         <v>2</v>
@@ -6853,28 +6871,28 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -6886,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O123">
         <v>2</v>
@@ -6897,28 +6915,28 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H124" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -6930,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="N124" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O124">
         <v>2</v>
@@ -6941,28 +6959,28 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H125" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -6974,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="N125" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O125">
         <v>2</v>
@@ -6985,28 +7003,28 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H126" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -7018,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O126">
         <v>2</v>
@@ -7029,28 +7047,28 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H127" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I127" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -7062,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="N127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O127">
         <v>2</v>
@@ -7073,28 +7091,28 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H128" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -7106,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="N128" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O128">
         <v>2</v>
@@ -7117,28 +7135,28 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H129" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -7150,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="N129" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O129">
         <v>2</v>
@@ -7161,28 +7179,28 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H130" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -7194,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="N130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O130">
         <v>2</v>
@@ -7205,28 +7223,28 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H131" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I131" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -7238,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="N131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O131">
         <v>2</v>
@@ -7249,28 +7267,28 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H132" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -7282,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="N132" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O132">
         <v>2</v>
@@ -7293,28 +7311,28 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H133" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -7326,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="N133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O133">
         <v>2</v>
@@ -7337,28 +7355,28 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H134" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -7370,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="N134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O134">
         <v>2</v>
@@ -7381,28 +7399,28 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H135" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I135" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -7414,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="N135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O135">
         <v>2</v>
@@ -7425,28 +7443,28 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H136" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -7458,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="N136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O136">
         <v>2</v>
@@ -7469,28 +7487,28 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H137" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -7502,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="N137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O137">
         <v>2</v>
@@ -7513,28 +7531,28 @@
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H138" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -7546,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="N138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O138">
         <v>2</v>
@@ -7557,28 +7575,28 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H139" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I139" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -7590,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="N139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O139">
         <v>2</v>
@@ -7601,28 +7619,28 @@
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H140" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -7634,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O140">
         <v>2</v>
@@ -7645,28 +7663,28 @@
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H141" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -7678,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O141">
         <v>2</v>
@@ -7689,28 +7707,28 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H142" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -7722,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="N142" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O142">
         <v>2</v>
@@ -7733,28 +7751,28 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I143" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -7766,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="N143" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O143">
         <v>2</v>
@@ -7777,28 +7795,28 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H144" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I144" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -7810,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="N144" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O144">
         <v>2</v>
@@ -7821,28 +7839,28 @@
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H145" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -7854,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O145">
         <v>2</v>
@@ -7865,28 +7883,28 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -7898,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="N146" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O146">
         <v>2</v>
@@ -7909,28 +7927,28 @@
         <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C147">
         <v>3</v>
       </c>
       <c r="D147" t="s">
+        <v>192</v>
+      </c>
+      <c r="E147" t="s">
+        <v>192</v>
+      </c>
+      <c r="F147" t="s">
         <v>193</v>
       </c>
-      <c r="E147" t="s">
+      <c r="G147" t="s">
         <v>193</v>
       </c>
-      <c r="F147" t="s">
-        <v>194</v>
-      </c>
-      <c r="G147" t="s">
-        <v>194</v>
-      </c>
       <c r="H147" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I147" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -7942,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="N147" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O147">
         <v>2</v>
@@ -7953,43 +7971,43 @@
         <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C148">
         <v>3</v>
       </c>
       <c r="D148" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E148" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H148" t="s">
+        <v>194</v>
+      </c>
+      <c r="I148" t="s">
+        <v>47</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148" t="s">
+        <v>21</v>
+      </c>
+      <c r="N148" t="s">
         <v>195</v>
-      </c>
-      <c r="I148" t="s">
-        <v>48</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148">
-        <v>1</v>
-      </c>
-      <c r="L148">
-        <v>1</v>
-      </c>
-      <c r="M148" t="s">
-        <v>22</v>
-      </c>
-      <c r="N148" t="s">
-        <v>196</v>
       </c>
       <c r="O148">
         <v>2</v>
@@ -8000,28 +8018,28 @@
         <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D149" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E149" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F149" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G149" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H149" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -8033,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="N149" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O149">
         <v>2</v>
@@ -8044,28 +8062,28 @@
         <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D150" t="s">
+        <v>197</v>
+      </c>
+      <c r="E150" t="s">
+        <v>197</v>
+      </c>
+      <c r="F150" t="s">
         <v>198</v>
       </c>
-      <c r="E150" t="s">
+      <c r="G150" t="s">
         <v>198</v>
       </c>
-      <c r="F150" t="s">
-        <v>199</v>
-      </c>
-      <c r="G150" t="s">
-        <v>199</v>
-      </c>
       <c r="H150" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -8077,7 +8095,7 @@
         <v>1</v>
       </c>
       <c r="N150" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O150">
         <v>2</v>
@@ -8088,28 +8106,28 @@
         <v>3</v>
       </c>
       <c r="B151" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D151" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E151" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F151" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G151" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H151" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -8121,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="N151" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O151">
         <v>2</v>
@@ -8132,28 +8150,28 @@
         <v>4</v>
       </c>
       <c r="B152" t="s">
+        <v>104</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
         <v>105</v>
       </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152" t="s">
-        <v>106</v>
-      </c>
       <c r="E152" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F152" t="s">
+        <v>200</v>
+      </c>
+      <c r="G152" t="s">
+        <v>200</v>
+      </c>
+      <c r="H152" t="s">
         <v>201</v>
       </c>
-      <c r="G152" t="s">
-        <v>201</v>
-      </c>
-      <c r="H152" t="s">
-        <v>202</v>
-      </c>
       <c r="I152" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J152">
         <v>1</v>
@@ -8165,10 +8183,10 @@
         <v>1</v>
       </c>
       <c r="M152" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N152" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O152">
         <v>2</v>
@@ -8179,28 +8197,28 @@
         <v>4</v>
       </c>
       <c r="B153" t="s">
+        <v>104</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
         <v>105</v>
       </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153" t="s">
-        <v>106</v>
-      </c>
       <c r="E153" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F153" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G153" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H153" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I153" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J153">
         <v>1</v>
@@ -8212,10 +8230,10 @@
         <v>1</v>
       </c>
       <c r="M153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O153">
         <v>2</v>
@@ -8226,28 +8244,28 @@
         <v>4</v>
       </c>
       <c r="B154" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E154" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F154" t="s">
+        <v>203</v>
+      </c>
+      <c r="G154" t="s">
+        <v>203</v>
+      </c>
+      <c r="H154" t="s">
         <v>204</v>
       </c>
-      <c r="G154" t="s">
-        <v>204</v>
-      </c>
-      <c r="H154" t="s">
-        <v>205</v>
-      </c>
       <c r="I154" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -8259,10 +8277,10 @@
         <v>1</v>
       </c>
       <c r="M154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N154" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O154">
         <v>2</v>
@@ -8273,28 +8291,28 @@
         <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D155" t="s">
+        <v>205</v>
+      </c>
+      <c r="E155" t="s">
+        <v>205</v>
+      </c>
+      <c r="F155" t="s">
         <v>206</v>
       </c>
-      <c r="E155" t="s">
+      <c r="G155" t="s">
         <v>206</v>
       </c>
-      <c r="F155" t="s">
+      <c r="H155" t="s">
         <v>207</v>
       </c>
-      <c r="G155" t="s">
-        <v>207</v>
-      </c>
-      <c r="H155" t="s">
-        <v>208</v>
-      </c>
       <c r="I155" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -8306,10 +8324,10 @@
         <v>0</v>
       </c>
       <c r="M155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N155" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O155">
         <v>2</v>
@@ -8320,28 +8338,28 @@
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D156" t="s">
+        <v>205</v>
+      </c>
+      <c r="E156" t="s">
+        <v>205</v>
+      </c>
+      <c r="F156" t="s">
         <v>206</v>
       </c>
-      <c r="E156" t="s">
+      <c r="G156" t="s">
         <v>206</v>
       </c>
-      <c r="F156" t="s">
-        <v>207</v>
-      </c>
-      <c r="G156" t="s">
-        <v>207</v>
-      </c>
       <c r="H156" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -8353,10 +8371,10 @@
         <v>0</v>
       </c>
       <c r="M156" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N156" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O156">
         <v>2</v>
@@ -8367,28 +8385,28 @@
         <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D157" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E157" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F157" t="s">
+        <v>209</v>
+      </c>
+      <c r="G157" t="s">
+        <v>209</v>
+      </c>
+      <c r="H157" t="s">
         <v>210</v>
       </c>
-      <c r="G157" t="s">
-        <v>210</v>
-      </c>
-      <c r="H157" t="s">
-        <v>211</v>
-      </c>
       <c r="I157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -8400,10 +8418,10 @@
         <v>0</v>
       </c>
       <c r="M157" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N157" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O157">
         <v>2</v>
@@ -8414,28 +8432,28 @@
         <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D158" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E158" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F158" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G158" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H158" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -8447,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="M158" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N158" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O158">
         <v>2</v>
@@ -8461,28 +8479,28 @@
         <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D159" t="s">
+        <v>94</v>
+      </c>
+      <c r="E159" t="s">
+        <v>94</v>
+      </c>
+      <c r="F159" t="s">
         <v>95</v>
       </c>
-      <c r="E159" t="s">
+      <c r="G159" t="s">
         <v>95</v>
       </c>
-      <c r="F159" t="s">
-        <v>96</v>
-      </c>
-      <c r="G159" t="s">
-        <v>96</v>
-      </c>
       <c r="H159" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -8494,10 +8512,10 @@
         <v>0</v>
       </c>
       <c r="M159" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N159" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O159">
         <v>2</v>
@@ -8508,28 +8526,28 @@
         <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D160" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E160" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F160" t="s">
+        <v>213</v>
+      </c>
+      <c r="G160" t="s">
+        <v>213</v>
+      </c>
+      <c r="H160" t="s">
         <v>214</v>
       </c>
-      <c r="G160" t="s">
-        <v>214</v>
-      </c>
-      <c r="H160" t="s">
-        <v>215</v>
-      </c>
       <c r="I160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -8541,10 +8559,10 @@
         <v>0</v>
       </c>
       <c r="M160" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N160" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O160">
         <v>2</v>
@@ -8555,28 +8573,28 @@
         <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D161" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E161" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F161" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G161" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I161" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -8588,10 +8606,10 @@
         <v>0</v>
       </c>
       <c r="M161" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N161" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O161">
         <v>2</v>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC5E13A-8D26-486F-BC74-E57D0BBEFE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E3209F-A9A9-4647-8115-93093B70861F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="230">
   <si>
     <t>url</t>
   </si>
@@ -720,6 +720,12 @@
   </si>
   <si>
     <t>Production_Crops_E_All_Data</t>
+  </si>
+  <si>
+    <t>fao_production_field</t>
+  </si>
+  <si>
+    <t>Production</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811487A-6E7B-4C2E-9752-10E8FCDC87C8}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1116,6 +1122,14 @@
       </c>
       <c r="B3" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E3209F-A9A9-4647-8115-93093B70861F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA648124-01D2-425B-9844-C754B818B1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
+    <workbookView xWindow="5724" yWindow="2748" windowWidth="16944" windowHeight="9612" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="232">
   <si>
     <t>url</t>
   </si>
@@ -726,6 +726,12 @@
   </si>
   <si>
     <t>Production</t>
+  </si>
+  <si>
+    <t>FoodBalanceSheets_E_All_Data</t>
+  </si>
+  <si>
+    <t>fao_special_files</t>
   </si>
 </sst>
 </file>
@@ -1088,15 +1094,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811487A-6E7B-4C2E-9752-10E8FCDC87C8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1130,6 +1136,14 @@
       </c>
       <c r="B4" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA648124-01D2-425B-9844-C754B818B1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D84B4A-BE18-4D68-8463-0036F3DC0B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="2748" windowWidth="16944" windowHeight="9612" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="235">
   <si>
     <t>url</t>
   </si>
@@ -732,6 +732,15 @@
   </si>
   <si>
     <t>fao_special_files</t>
+  </si>
+  <si>
+    <t>fao_countries_limit</t>
+  </si>
+  <si>
+    <t>fao_countries_suffix</t>
+  </si>
+  <si>
+    <t>_cumsum</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811487A-6E7B-4C2E-9752-10E8FCDC87C8}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,6 +1153,22 @@
       </c>
       <c r="B5" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D84B4A-BE18-4D68-8463-0036F3DC0B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6431071-D23E-4030-AEC1-B8B7181FD457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="237">
   <si>
     <t>url</t>
   </si>
@@ -741,6 +741,12 @@
   </si>
   <si>
     <t>_cumsum</t>
+  </si>
+  <si>
+    <t>fao_element_population</t>
+  </si>
+  <si>
+    <t>Total Population - Both sexes</t>
   </si>
 </sst>
 </file>
@@ -1103,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811487A-6E7B-4C2E-9752-10E8FCDC87C8}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,6 +1177,14 @@
         <v>234</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1181,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545B1D71-383F-4032-899B-A73C19D2F750}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6431071-D23E-4030-AEC1-B8B7181FD457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD96AC1A-B453-4C4A-A133-331E6D42CF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="245">
   <si>
     <t>url</t>
   </si>
@@ -747,6 +747,30 @@
   </si>
   <si>
     <t>Total Population - Both sexes</t>
+  </si>
+  <si>
+    <t>google_file</t>
+  </si>
+  <si>
+    <t>google_sheet</t>
+  </si>
+  <si>
+    <t>Crop List.xlsx</t>
+  </si>
+  <si>
+    <t>GoogleScholar_2019_7_31</t>
+  </si>
+  <si>
+    <t>google_field_crop</t>
+  </si>
+  <si>
+    <t>Common_name_standard</t>
+  </si>
+  <si>
+    <t>google_fields_elements</t>
+  </si>
+  <si>
+    <t>Google citations common name,Google citations genus,Google citations taxon</t>
   </si>
 </sst>
 </file>
@@ -1109,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811487A-6E7B-4C2E-9752-10E8FCDC87C8}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1185,6 +1209,38 @@
         <v>236</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1195,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545B1D71-383F-4032-899B-A73C19D2F750}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD96AC1A-B453-4C4A-A133-331E6D42CF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA88AFE-DF8B-4871-BDF5-005ADC33A20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="250">
   <si>
     <t>url</t>
   </si>
@@ -771,6 +771,21 @@
   </si>
   <si>
     <t>Google citations common name,Google citations genus,Google citations taxon</t>
+  </si>
+  <si>
+    <t>wikipedia_url</t>
+  </si>
+  <si>
+    <t>https://wikimedia.org/api/rest_v1/metrics/pageviews/per-article/en.wikipedia/all-access/all-agents/</t>
+  </si>
+  <si>
+    <t>wikipedia_timing</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>wikipedia_years</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811487A-6E7B-4C2E-9752-10E8FCDC87C8}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,9 +1256,36 @@
         <v>244</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15">
+        <v>2019</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{6B12AD9C-3007-469C-B4F5-178135E8E695}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA88AFE-DF8B-4871-BDF5-005ADC33A20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B6598C-8D30-4A82-B7EA-6A4732B57679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="271">
   <si>
     <t>url</t>
   </si>
@@ -786,6 +786,69 @@
   </si>
   <si>
     <t>wikipedia_years</t>
+  </si>
+  <si>
+    <t>genebank_fields</t>
+  </si>
+  <si>
+    <t>genus_count_origin_supply,species_count_origin_supply</t>
+  </si>
+  <si>
+    <t>upov_fields</t>
+  </si>
+  <si>
+    <t>gbif_research_fields</t>
+  </si>
+  <si>
+    <t>genus_count_gbif_research_supply,species_count_gbif_research_supply</t>
+  </si>
+  <si>
+    <t>fao_sow_file</t>
+  </si>
+  <si>
+    <t>fao_sow.csv</t>
+  </si>
+  <si>
+    <t>fao_sow_field_crop</t>
+  </si>
+  <si>
+    <t>crop_list_equivalent</t>
+  </si>
+  <si>
+    <t>Total transfers</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>fao_sow_field_count</t>
+  </si>
+  <si>
+    <t>Number_of_samples</t>
+  </si>
+  <si>
+    <t>fao_sow_field_filter</t>
+  </si>
+  <si>
+    <t>fao_sow_value_filter</t>
+  </si>
+  <si>
+    <t>fao_sow_field_year</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>fao_sow_years</t>
+  </si>
+  <si>
+    <t>fao_sow_field_recipient</t>
+  </si>
+  <si>
+    <t>recipient_country</t>
+  </si>
+  <si>
+    <t>2015,2016,2017,2018</t>
   </si>
 </sst>
 </file>
@@ -830,9 +893,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1148,16 +1212,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811487A-6E7B-4C2E-9752-10E8FCDC87C8}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1278,6 +1342,94 @@
       </c>
       <c r="B15">
         <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B6598C-8D30-4A82-B7EA-6A4732B57679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9499979D-8991-422C-89C7-BAF43DA511E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="282">
   <si>
     <t>url</t>
   </si>
@@ -849,6 +849,39 @@
   </si>
   <si>
     <t>2015,2016,2017,2018</t>
+  </si>
+  <si>
+    <t>mls_accessions_file</t>
+  </si>
+  <si>
+    <t>supply-germplasm_mls-germplasm_mls_accessions.xlsx</t>
+  </si>
+  <si>
+    <t>mls_accessions_year</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>mls_institutions_file</t>
+  </si>
+  <si>
+    <t>mls_institutions_year</t>
+  </si>
+  <si>
+    <t>supply-germplasm_mls-germplasm_mls_institutions.xlsx</t>
+  </si>
+  <si>
+    <t>fao_wiews_file</t>
+  </si>
+  <si>
+    <t>fao_wiews_field_crop</t>
+  </si>
+  <si>
+    <t>fao_wiews_field_filter</t>
+  </si>
+  <si>
+    <t>fao_wiews_value_filter</t>
   </si>
 </sst>
 </file>
@@ -1212,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811487A-6E7B-4C2E-9752-10E8FCDC87C8}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1429,6 +1462,102 @@
         <v>268</v>
       </c>
       <c r="B26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>278</v>
+      </c>
+      <c r="B31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>279</v>
+      </c>
+      <c r="B32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>281</v>
+      </c>
+      <c r="B34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B38" t="s">
         <v>269</v>
       </c>
     </row>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9499979D-8991-422C-89C7-BAF43DA511E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07040482-3182-4EC2-8442-C89455C16A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
     <sheet name="downloads" sheetId="1" r:id="rId2"/>
     <sheet name="metrics" sheetId="2" r:id="rId3"/>
+    <sheet name="indicator" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="369">
   <si>
     <t>url</t>
   </si>
@@ -882,13 +883,274 @@
   </si>
   <si>
     <t>fao_wiews_value_filter</t>
+  </si>
+  <si>
+    <t>fao_wiews_field_year</t>
+  </si>
+  <si>
+    <t>fao_wiews_years</t>
+  </si>
+  <si>
+    <t>fao_wiews_field_recipient</t>
+  </si>
+  <si>
+    <t>Germplasm_distributions</t>
+  </si>
+  <si>
+    <t>fao_views.csv</t>
+  </si>
+  <si>
+    <t>fao_wiews_fields_elements</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>CropList_equivalent</t>
+  </si>
+  <si>
+    <t>Total_Accs,Total_Samples</t>
+  </si>
+  <si>
+    <t>reporting_year_endyear</t>
+  </si>
+  <si>
+    <t>Provider_country_or_area</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>Production_Crops_E_All_Data.csv</t>
+  </si>
+  <si>
+    <t>Area harvested</t>
+  </si>
+  <si>
+    <t>Gross Production Value (current thousand US$)</t>
+  </si>
+  <si>
+    <t>Value_of_Production_E_All_Data.csv</t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Fat supply quantity (g/capita/day)</t>
+  </si>
+  <si>
+    <t>FoodBalanceSheets_E_All_Data.csv</t>
+  </si>
+  <si>
+    <t>Food supply (kcal/capita/day)</t>
+  </si>
+  <si>
+    <t>Food supply quantity (kg/capita/yr)</t>
+  </si>
+  <si>
+    <t>Protein supply quantity (g/capita/day)</t>
+  </si>
+  <si>
+    <t>Export Quantity</t>
+  </si>
+  <si>
+    <t>Export Value</t>
+  </si>
+  <si>
+    <t>Import Quantity</t>
+  </si>
+  <si>
+    <t>Import Value</t>
+  </si>
+  <si>
+    <t>genebank_distributions_treaty</t>
+  </si>
+  <si>
+    <t>equality_of_demand_countcountries_treaty</t>
+  </si>
+  <si>
+    <t>countcountries_germplasm_distributions</t>
+  </si>
+  <si>
+    <t>equality_of_demand_gini_treaty</t>
+  </si>
+  <si>
+    <t>genebank_distributions_fao_wiews_accessions</t>
+  </si>
+  <si>
+    <t>genebank_distributions_fao_wiews_samples</t>
+  </si>
+  <si>
+    <t>digital_sequence_supply_nucleotide</t>
+  </si>
+  <si>
+    <t>digital_sequence_supply_protein</t>
+  </si>
+  <si>
+    <t>digital_sequence_supply_genome</t>
+  </si>
+  <si>
+    <t>digital_sequence_supply_gene</t>
+  </si>
+  <si>
+    <t>backup_genebank_accessions</t>
+  </si>
+  <si>
+    <t>genus_backup_genebank_accessions</t>
+  </si>
+  <si>
+    <t>species_backup_genebank_accessions</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>prefix_year</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>google.csv</t>
+  </si>
+  <si>
+    <t>Google citations common name</t>
+  </si>
+  <si>
+    <t>Google citations genus</t>
+  </si>
+  <si>
+    <t>Google citations taxon</t>
+  </si>
+  <si>
+    <t>wikipedia</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>wikipedia.csv</t>
+  </si>
+  <si>
+    <t>genus_count</t>
+  </si>
+  <si>
+    <t>common_name_count</t>
+  </si>
+  <si>
+    <t>taxa_count</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>mls_accesions</t>
+  </si>
+  <si>
+    <t>mls_accessions.csv</t>
+  </si>
+  <si>
+    <t>mls_accessions-genus</t>
+  </si>
+  <si>
+    <t>mls_accessions-species</t>
+  </si>
+  <si>
+    <t>mls_institutions</t>
+  </si>
+  <si>
+    <t>mls_institutions.csv</t>
+  </si>
+  <si>
+    <t>mls_institutions_genus</t>
+  </si>
+  <si>
+    <t>mls_institutions_species</t>
+  </si>
+  <si>
+    <t>fao_wiews</t>
+  </si>
+  <si>
+    <t>fao_wiews.csv</t>
+  </si>
+  <si>
+    <t>Total_Accs</t>
+  </si>
+  <si>
+    <t>Total_Samples</t>
+  </si>
+  <si>
+    <t>fao_sow</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>gini_sample_recipients</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>countries_recipients</t>
+  </si>
+  <si>
+    <t>samples</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>upov</t>
+  </si>
+  <si>
+    <t>upov_varietal_release.csv</t>
+  </si>
+  <si>
+    <t>genebank</t>
+  </si>
+  <si>
+    <t>genebank_collection.csv</t>
+  </si>
+  <si>
+    <t>gbif</t>
+  </si>
+  <si>
+    <t>gbif_research_supply.csv</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,6 +1162,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1247,13 +1515,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811487A-6E7B-4C2E-9752-10E8FCDC87C8}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1502,7 +1770,7 @@
         <v>278</v>
       </c>
       <c r="B31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1510,7 +1778,7 @@
         <v>279</v>
       </c>
       <c r="B32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1518,7 +1786,7 @@
         <v>280</v>
       </c>
       <c r="B33" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1526,39 +1794,39 @@
         <v>281</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>267</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>270</v>
+        <v>283</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2019</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -9065,4 +9333,2657 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB36A16C-A3A5-425C-AEEC-CE2F39694284}">
+  <dimension ref="A1:J99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" t="s">
+        <v>301</v>
+      </c>
+      <c r="E12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" t="s">
+        <v>300</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E16" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D17" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" t="s">
+        <v>306</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" t="s">
+        <v>307</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" t="s">
+        <v>305</v>
+      </c>
+      <c r="E19" t="s">
+        <v>308</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" t="s">
+        <v>301</v>
+      </c>
+      <c r="E20" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D21" t="s">
+        <v>301</v>
+      </c>
+      <c r="E21" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" t="s">
+        <v>301</v>
+      </c>
+      <c r="E22" t="s">
+        <v>311</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" t="s">
+        <v>301</v>
+      </c>
+      <c r="E23" t="s">
+        <v>312</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" t="s">
+        <v>299</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E26" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27" t="s">
+        <v>304</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C28" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" t="s">
+        <v>305</v>
+      </c>
+      <c r="E28" t="s">
+        <v>306</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C29" t="s">
+        <v>303</v>
+      </c>
+      <c r="D29" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" t="s">
+        <v>307</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C30" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" t="s">
+        <v>305</v>
+      </c>
+      <c r="E30" t="s">
+        <v>308</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C31" t="s">
+        <v>303</v>
+      </c>
+      <c r="D31" t="s">
+        <v>301</v>
+      </c>
+      <c r="E31" t="s">
+        <v>309</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" t="s">
+        <v>301</v>
+      </c>
+      <c r="E32" t="s">
+        <v>310</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C33" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" t="s">
+        <v>301</v>
+      </c>
+      <c r="E33" t="s">
+        <v>311</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" t="s">
+        <v>303</v>
+      </c>
+      <c r="D34" t="s">
+        <v>301</v>
+      </c>
+      <c r="E34" t="s">
+        <v>312</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" t="s">
+        <v>63</v>
+      </c>
+      <c r="I42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" t="s">
+        <v>36</v>
+      </c>
+      <c r="J43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>330</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C46" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" t="s">
+        <v>332</v>
+      </c>
+      <c r="E46" t="s">
+        <v>333</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>330</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C47" t="s">
+        <v>303</v>
+      </c>
+      <c r="D47" t="s">
+        <v>332</v>
+      </c>
+      <c r="E47" t="s">
+        <v>334</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+      <c r="J47" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>330</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C48" t="s">
+        <v>303</v>
+      </c>
+      <c r="D48" t="s">
+        <v>332</v>
+      </c>
+      <c r="E48" t="s">
+        <v>335</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>336</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C49" t="s">
+        <v>337</v>
+      </c>
+      <c r="D49" t="s">
+        <v>338</v>
+      </c>
+      <c r="E49" t="s">
+        <v>340</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J49" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>336</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" t="s">
+        <v>337</v>
+      </c>
+      <c r="D50" t="s">
+        <v>338</v>
+      </c>
+      <c r="E50" t="s">
+        <v>339</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+      <c r="J50" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>336</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C51" t="s">
+        <v>337</v>
+      </c>
+      <c r="D51" t="s">
+        <v>338</v>
+      </c>
+      <c r="E51" t="s">
+        <v>341</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C52" t="s">
+        <v>303</v>
+      </c>
+      <c r="D52" t="s">
+        <v>298</v>
+      </c>
+      <c r="E52" t="s">
+        <v>299</v>
+      </c>
+      <c r="F52" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C53" t="s">
+        <v>303</v>
+      </c>
+      <c r="D53" t="s">
+        <v>298</v>
+      </c>
+      <c r="E53" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+      <c r="J53" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C54" t="s">
+        <v>303</v>
+      </c>
+      <c r="D54" t="s">
+        <v>301</v>
+      </c>
+      <c r="E54" t="s">
+        <v>300</v>
+      </c>
+      <c r="F54" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C55" t="s">
+        <v>303</v>
+      </c>
+      <c r="D55" t="s">
+        <v>305</v>
+      </c>
+      <c r="E55" t="s">
+        <v>304</v>
+      </c>
+      <c r="F55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J55" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C56" t="s">
+        <v>303</v>
+      </c>
+      <c r="D56" t="s">
+        <v>305</v>
+      </c>
+      <c r="E56" t="s">
+        <v>306</v>
+      </c>
+      <c r="F56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F57" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+      <c r="J57" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C58" t="s">
+        <v>303</v>
+      </c>
+      <c r="D58" t="s">
+        <v>305</v>
+      </c>
+      <c r="E58" t="s">
+        <v>308</v>
+      </c>
+      <c r="F58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+      <c r="J58" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C59" t="s">
+        <v>303</v>
+      </c>
+      <c r="D59" t="s">
+        <v>301</v>
+      </c>
+      <c r="E59" t="s">
+        <v>309</v>
+      </c>
+      <c r="F59" t="s">
+        <v>75</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+      <c r="J59" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C60" t="s">
+        <v>303</v>
+      </c>
+      <c r="D60" t="s">
+        <v>301</v>
+      </c>
+      <c r="E60" t="s">
+        <v>310</v>
+      </c>
+      <c r="F60" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+      <c r="J60" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C61" t="s">
+        <v>303</v>
+      </c>
+      <c r="D61" t="s">
+        <v>301</v>
+      </c>
+      <c r="E61" t="s">
+        <v>311</v>
+      </c>
+      <c r="F61" t="s">
+        <v>75</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+      <c r="J61" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C62" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62" t="s">
+        <v>301</v>
+      </c>
+      <c r="E62" t="s">
+        <v>312</v>
+      </c>
+      <c r="F62" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+      <c r="J62" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>76</v>
+      </c>
+      <c r="J63" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" t="s">
+        <v>52</v>
+      </c>
+      <c r="H64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>78</v>
+      </c>
+      <c r="J64" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" t="s">
+        <v>52</v>
+      </c>
+      <c r="H65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>79</v>
+      </c>
+      <c r="J65" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" t="s">
+        <v>52</v>
+      </c>
+      <c r="H66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>80</v>
+      </c>
+      <c r="J66" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" t="s">
+        <v>52</v>
+      </c>
+      <c r="H67" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" t="s">
+        <v>81</v>
+      </c>
+      <c r="J67" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G68" t="s">
+        <v>52</v>
+      </c>
+      <c r="H68" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" t="s">
+        <v>82</v>
+      </c>
+      <c r="J68" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G69" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" t="s">
+        <v>83</v>
+      </c>
+      <c r="J69" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s">
+        <v>52</v>
+      </c>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" t="s">
+        <v>84</v>
+      </c>
+      <c r="J70" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" t="s">
+        <v>52</v>
+      </c>
+      <c r="H71" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" t="s">
+        <v>85</v>
+      </c>
+      <c r="J71" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s">
+        <v>86</v>
+      </c>
+      <c r="J72" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>75</v>
+      </c>
+      <c r="G73" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" t="s">
+        <v>87</v>
+      </c>
+      <c r="J73" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>355</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C74" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" t="s">
+        <v>256</v>
+      </c>
+      <c r="E74" t="s">
+        <v>360</v>
+      </c>
+      <c r="F74" t="s">
+        <v>88</v>
+      </c>
+      <c r="G74" t="s">
+        <v>313</v>
+      </c>
+      <c r="H74" t="s">
+        <v>313</v>
+      </c>
+      <c r="I74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J74" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>355</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C75" t="s">
+        <v>303</v>
+      </c>
+      <c r="D75" t="s">
+        <v>256</v>
+      </c>
+      <c r="E75" t="s">
+        <v>359</v>
+      </c>
+      <c r="F75" t="s">
+        <v>88</v>
+      </c>
+      <c r="G75" t="s">
+        <v>314</v>
+      </c>
+      <c r="H75" t="s">
+        <v>315</v>
+      </c>
+      <c r="I75" t="s">
+        <v>315</v>
+      </c>
+      <c r="J75" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>355</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C76" t="s">
+        <v>303</v>
+      </c>
+      <c r="D76" t="s">
+        <v>256</v>
+      </c>
+      <c r="E76" t="s">
+        <v>357</v>
+      </c>
+      <c r="F76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G76" t="s">
+        <v>316</v>
+      </c>
+      <c r="H76" t="s">
+        <v>95</v>
+      </c>
+      <c r="I76" t="s">
+        <v>96</v>
+      </c>
+      <c r="J76" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>351</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C77" t="s">
+        <v>303</v>
+      </c>
+      <c r="D77" t="s">
+        <v>352</v>
+      </c>
+      <c r="E77" t="s">
+        <v>353</v>
+      </c>
+      <c r="F77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G77" t="s">
+        <v>90</v>
+      </c>
+      <c r="H77" t="s">
+        <v>317</v>
+      </c>
+      <c r="I77" t="s">
+        <v>317</v>
+      </c>
+      <c r="J77" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>351</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C78" t="s">
+        <v>303</v>
+      </c>
+      <c r="D78" t="s">
+        <v>352</v>
+      </c>
+      <c r="E78" t="s">
+        <v>354</v>
+      </c>
+      <c r="F78" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" t="s">
+        <v>318</v>
+      </c>
+      <c r="I78" t="s">
+        <v>318</v>
+      </c>
+      <c r="J78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>88</v>
+      </c>
+      <c r="G79" t="s">
+        <v>98</v>
+      </c>
+      <c r="H79" t="s">
+        <v>98</v>
+      </c>
+      <c r="I79" t="s">
+        <v>98</v>
+      </c>
+      <c r="J79" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>362</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C80" t="s">
+        <v>337</v>
+      </c>
+      <c r="D80" t="s">
+        <v>363</v>
+      </c>
+      <c r="E80" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" t="s">
+        <v>88</v>
+      </c>
+      <c r="G80" t="s">
+        <v>100</v>
+      </c>
+      <c r="H80" t="s">
+        <v>100</v>
+      </c>
+      <c r="I80" t="s">
+        <v>101</v>
+      </c>
+      <c r="J80" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>364</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C81" t="s">
+        <v>337</v>
+      </c>
+      <c r="D81" t="s">
+        <v>365</v>
+      </c>
+      <c r="E81" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" t="s">
+        <v>104</v>
+      </c>
+      <c r="G81" t="s">
+        <v>105</v>
+      </c>
+      <c r="H81" t="s">
+        <v>106</v>
+      </c>
+      <c r="I81" t="s">
+        <v>107</v>
+      </c>
+      <c r="J81" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>364</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C82" t="s">
+        <v>337</v>
+      </c>
+      <c r="D82" t="s">
+        <v>365</v>
+      </c>
+      <c r="E82" t="s">
+        <v>109</v>
+      </c>
+      <c r="F82" t="s">
+        <v>104</v>
+      </c>
+      <c r="G82" t="s">
+        <v>105</v>
+      </c>
+      <c r="H82" t="s">
+        <v>106</v>
+      </c>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+      <c r="J82" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>343</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C83" t="s">
+        <v>303</v>
+      </c>
+      <c r="D83" t="s">
+        <v>344</v>
+      </c>
+      <c r="E83" t="s">
+        <v>345</v>
+      </c>
+      <c r="F83" t="s">
+        <v>104</v>
+      </c>
+      <c r="G83" t="s">
+        <v>111</v>
+      </c>
+      <c r="H83" t="s">
+        <v>113</v>
+      </c>
+      <c r="I83" t="s">
+        <v>114</v>
+      </c>
+      <c r="J83" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>343</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C84" t="s">
+        <v>303</v>
+      </c>
+      <c r="D84" t="s">
+        <v>344</v>
+      </c>
+      <c r="E84" t="s">
+        <v>346</v>
+      </c>
+      <c r="F84" t="s">
+        <v>104</v>
+      </c>
+      <c r="G84" t="s">
+        <v>111</v>
+      </c>
+      <c r="H84" t="s">
+        <v>113</v>
+      </c>
+      <c r="I84" t="s">
+        <v>115</v>
+      </c>
+      <c r="J84" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>347</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C85" t="s">
+        <v>303</v>
+      </c>
+      <c r="D85" t="s">
+        <v>348</v>
+      </c>
+      <c r="E85" t="s">
+        <v>349</v>
+      </c>
+      <c r="F85" t="s">
+        <v>104</v>
+      </c>
+      <c r="G85" t="s">
+        <v>111</v>
+      </c>
+      <c r="H85" t="s">
+        <v>117</v>
+      </c>
+      <c r="I85" t="s">
+        <v>118</v>
+      </c>
+      <c r="J85" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>347</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C86" t="s">
+        <v>303</v>
+      </c>
+      <c r="D86" t="s">
+        <v>348</v>
+      </c>
+      <c r="E86" t="s">
+        <v>350</v>
+      </c>
+      <c r="F86" t="s">
+        <v>104</v>
+      </c>
+      <c r="G86" t="s">
+        <v>111</v>
+      </c>
+      <c r="H86" t="s">
+        <v>117</v>
+      </c>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+      <c r="J86" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" t="s">
+        <v>126</v>
+      </c>
+      <c r="H87" t="s">
+        <v>126</v>
+      </c>
+      <c r="I87" t="s">
+        <v>127</v>
+      </c>
+      <c r="J87" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>104</v>
+      </c>
+      <c r="G88" t="s">
+        <v>126</v>
+      </c>
+      <c r="H88" t="s">
+        <v>126</v>
+      </c>
+      <c r="I88" t="s">
+        <v>128</v>
+      </c>
+      <c r="J88" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>104</v>
+      </c>
+      <c r="G89" t="s">
+        <v>125</v>
+      </c>
+      <c r="H89" t="s">
+        <v>125</v>
+      </c>
+      <c r="I89" t="s">
+        <v>125</v>
+      </c>
+      <c r="J89" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>366</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C90" t="s">
+        <v>337</v>
+      </c>
+      <c r="D90" t="s">
+        <v>367</v>
+      </c>
+      <c r="E90" t="s">
+        <v>122</v>
+      </c>
+      <c r="F90" t="s">
+        <v>104</v>
+      </c>
+      <c r="G90" t="s">
+        <v>120</v>
+      </c>
+      <c r="H90" t="s">
+        <v>121</v>
+      </c>
+      <c r="I90" t="s">
+        <v>122</v>
+      </c>
+      <c r="J90" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>366</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C91" t="s">
+        <v>337</v>
+      </c>
+      <c r="D91" t="s">
+        <v>367</v>
+      </c>
+      <c r="E91" t="s">
+        <v>124</v>
+      </c>
+      <c r="F91" t="s">
+        <v>104</v>
+      </c>
+      <c r="G91" t="s">
+        <v>120</v>
+      </c>
+      <c r="H91" t="s">
+        <v>121</v>
+      </c>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+      <c r="J91" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>104</v>
+      </c>
+      <c r="G92" t="s">
+        <v>129</v>
+      </c>
+      <c r="H92" t="s">
+        <v>129</v>
+      </c>
+      <c r="I92" t="s">
+        <v>319</v>
+      </c>
+      <c r="J92" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
+        <v>104</v>
+      </c>
+      <c r="G93" t="s">
+        <v>129</v>
+      </c>
+      <c r="H93" t="s">
+        <v>129</v>
+      </c>
+      <c r="I93" t="s">
+        <v>320</v>
+      </c>
+      <c r="J93" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>104</v>
+      </c>
+      <c r="G94" t="s">
+        <v>129</v>
+      </c>
+      <c r="H94" t="s">
+        <v>129</v>
+      </c>
+      <c r="I94" t="s">
+        <v>321</v>
+      </c>
+      <c r="J94" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F95" t="s">
+        <v>104</v>
+      </c>
+      <c r="G95" t="s">
+        <v>129</v>
+      </c>
+      <c r="H95" t="s">
+        <v>129</v>
+      </c>
+      <c r="I95" t="s">
+        <v>322</v>
+      </c>
+      <c r="J95" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F96" t="s">
+        <v>130</v>
+      </c>
+      <c r="G96" t="s">
+        <v>131</v>
+      </c>
+      <c r="H96" t="s">
+        <v>131</v>
+      </c>
+      <c r="I96" t="s">
+        <v>132</v>
+      </c>
+      <c r="J96" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="97" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F97" t="s">
+        <v>130</v>
+      </c>
+      <c r="G97" t="s">
+        <v>131</v>
+      </c>
+      <c r="H97" t="s">
+        <v>131</v>
+      </c>
+      <c r="I97" t="s">
+        <v>133</v>
+      </c>
+      <c r="J97" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="98" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F98" t="s">
+        <v>130</v>
+      </c>
+      <c r="G98" t="s">
+        <v>323</v>
+      </c>
+      <c r="H98" t="s">
+        <v>323</v>
+      </c>
+      <c r="I98" t="s">
+        <v>324</v>
+      </c>
+      <c r="J98" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="99" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F99" t="s">
+        <v>130</v>
+      </c>
+      <c r="G99" t="s">
+        <v>323</v>
+      </c>
+      <c r="H99" t="s">
+        <v>323</v>
+      </c>
+      <c r="I99" t="s">
+        <v>325</v>
+      </c>
+      <c r="J99" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07040482-3182-4EC2-8442-C89455C16A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11A51C8-0E48-4DE3-A409-9F0242DAAC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
@@ -16,8 +16,11 @@
     <sheet name="general" sheetId="3" r:id="rId1"/>
     <sheet name="downloads" sheetId="1" r:id="rId2"/>
     <sheet name="metrics" sheetId="2" r:id="rId3"/>
-    <sheet name="indicator" sheetId="7" r:id="rId4"/>
+    <sheet name="indicator" sheetId="8" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">indicator!$A$1:$J$99</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="371">
   <si>
     <t>url</t>
   </si>
@@ -912,9 +915,6 @@
     <t>Total_Accs,Total_Samples</t>
   </si>
   <si>
-    <t>reporting_year_endyear</t>
-  </si>
-  <si>
     <t>Provider_country_or_area</t>
   </si>
   <si>
@@ -1144,13 +1144,22 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>fill_zero</t>
+  </si>
+  <si>
+    <t>Trade_Crops_Livestock_E_All_Data.csv</t>
+  </si>
+  <si>
+    <t>Reporting_year_endyear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1162,12 +1171,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1810,7 +1813,7 @@
         <v>282</v>
       </c>
       <c r="B36" t="s">
-        <v>291</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1826,7 +1829,7 @@
         <v>284</v>
       </c>
       <c r="B38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -9336,11 +9339,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB36A16C-A3A5-425C-AEEC-CE2F39694284}">
-  <dimension ref="A1:J99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2D5B62-00C5-4824-8379-4A4BEE02241D}">
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9351,29 +9354,30 @@
     <col min="4" max="4" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.88671875" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" t="s">
         <v>293</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" t="s">
         <v>294</v>
       </c>
-      <c r="C1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" t="s">
         <v>295</v>
-      </c>
-      <c r="E1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F1" t="s">
-        <v>296</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -9385,24 +9389,27 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="K1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>222</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" t="s">
         <v>303</v>
-      </c>
-      <c r="D2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E2" t="s">
-        <v>299</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -9417,24 +9424,24 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>222</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -9449,24 +9456,24 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>222</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E4" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -9481,24 +9488,24 @@
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>222</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -9513,24 +9520,24 @@
         <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>222</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D6" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E6" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -9545,24 +9552,24 @@
         <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>222</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E7" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -9577,24 +9584,24 @@
         <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>222</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E8" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -9609,24 +9616,24 @@
         <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>222</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -9641,24 +9648,24 @@
         <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>222</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D10" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="E10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -9673,24 +9680,24 @@
         <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>222</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D11" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="E11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -9705,24 +9712,24 @@
         <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>222</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D12" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="E12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -9737,24 +9744,24 @@
         <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>222</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" t="s">
         <v>303</v>
-      </c>
-      <c r="D13" t="s">
-        <v>298</v>
-      </c>
-      <c r="E13" t="s">
-        <v>299</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -9769,21 +9776,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>222</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D14" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -9798,21 +9805,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>222</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D15" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E15" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -9827,21 +9834,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>222</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -9861,16 +9868,16 @@
         <v>222</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D17" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E17" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -9890,16 +9897,16 @@
         <v>222</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D18" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E18" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -9919,16 +9926,16 @@
         <v>222</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D19" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E19" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -9948,16 +9955,16 @@
         <v>222</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D20" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="E20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -9977,16 +9984,16 @@
         <v>222</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D21" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="E21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -10006,16 +10013,16 @@
         <v>222</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D22" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="E22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -10035,16 +10042,16 @@
         <v>222</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D23" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="E23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -10064,16 +10071,16 @@
         <v>222</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C24" t="s">
+        <v>302</v>
+      </c>
+      <c r="D24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E24" t="s">
         <v>303</v>
-      </c>
-      <c r="D24" t="s">
-        <v>298</v>
-      </c>
-      <c r="E24" t="s">
-        <v>299</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -10088,7 +10095,7 @@
         <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -10096,16 +10103,16 @@
         <v>222</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D25" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -10120,7 +10127,7 @@
         <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -10128,16 +10135,16 @@
         <v>222</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D26" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E26" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
@@ -10152,7 +10159,7 @@
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -10160,16 +10167,16 @@
         <v>222</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E27" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -10184,7 +10191,7 @@
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -10192,16 +10199,16 @@
         <v>222</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D28" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E28" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
@@ -10216,7 +10223,7 @@
         <v>28</v>
       </c>
       <c r="J28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -10224,16 +10231,16 @@
         <v>222</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D29" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E29" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -10248,7 +10255,7 @@
         <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -10256,16 +10263,16 @@
         <v>222</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D30" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E30" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
@@ -10280,7 +10287,7 @@
         <v>32</v>
       </c>
       <c r="J30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -10288,16 +10295,16 @@
         <v>222</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D31" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="E31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -10312,7 +10319,7 @@
         <v>35</v>
       </c>
       <c r="J31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -10320,16 +10327,16 @@
         <v>222</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D32" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="E32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -10344,7 +10351,7 @@
         <v>36</v>
       </c>
       <c r="J32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -10352,16 +10359,16 @@
         <v>222</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D33" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="E33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
@@ -10376,7 +10383,7 @@
         <v>38</v>
       </c>
       <c r="J33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -10384,16 +10391,16 @@
         <v>222</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D34" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="E34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -10408,7 +10415,7 @@
         <v>39</v>
       </c>
       <c r="J34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -10425,7 +10432,7 @@
         <v>19</v>
       </c>
       <c r="J35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -10442,7 +10449,7 @@
         <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -10459,7 +10466,7 @@
         <v>25</v>
       </c>
       <c r="J37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -10476,7 +10483,7 @@
         <v>26</v>
       </c>
       <c r="J38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -10493,7 +10500,7 @@
         <v>28</v>
       </c>
       <c r="J39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -10510,7 +10517,7 @@
         <v>30</v>
       </c>
       <c r="J40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -10527,7 +10534,7 @@
         <v>32</v>
       </c>
       <c r="J41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -10544,7 +10551,7 @@
         <v>35</v>
       </c>
       <c r="J42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -10561,7 +10568,7 @@
         <v>36</v>
       </c>
       <c r="J43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -10578,7 +10585,7 @@
         <v>38</v>
       </c>
       <c r="J44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -10595,24 +10602,24 @@
         <v>39</v>
       </c>
       <c r="J45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>329</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" t="s">
+        <v>302</v>
+      </c>
+      <c r="D46" t="s">
         <v>331</v>
       </c>
-      <c r="C46" t="s">
-        <v>303</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>332</v>
-      </c>
-      <c r="E46" t="s">
-        <v>333</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -10627,24 +10634,24 @@
         <v>70</v>
       </c>
       <c r="J46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>329</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" t="s">
+        <v>302</v>
+      </c>
+      <c r="D47" t="s">
         <v>331</v>
       </c>
-      <c r="C47" t="s">
-        <v>303</v>
-      </c>
-      <c r="D47" t="s">
-        <v>332</v>
-      </c>
       <c r="E47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
@@ -10659,24 +10666,24 @@
         <v>71</v>
       </c>
       <c r="J47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" t="s">
         <v>331</v>
       </c>
-      <c r="C48" t="s">
-        <v>303</v>
-      </c>
-      <c r="D48" t="s">
-        <v>332</v>
-      </c>
       <c r="E48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
@@ -10691,24 +10698,24 @@
         <v>72</v>
       </c>
       <c r="J48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>335</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C49" t="s">
         <v>336</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>337</v>
       </c>
-      <c r="D49" t="s">
-        <v>338</v>
-      </c>
       <c r="E49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
@@ -10723,24 +10730,24 @@
         <v>70</v>
       </c>
       <c r="J49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>335</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C50" t="s">
         <v>336</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>337</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>338</v>
-      </c>
-      <c r="E50" t="s">
-        <v>339</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
@@ -10755,24 +10762,24 @@
         <v>71</v>
       </c>
       <c r="J50" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C51" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>337</v>
       </c>
-      <c r="D51" t="s">
-        <v>338</v>
-      </c>
       <c r="E51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -10787,7 +10794,7 @@
         <v>72</v>
       </c>
       <c r="J51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -10795,16 +10802,16 @@
         <v>222</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C52" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" t="s">
+        <v>304</v>
+      </c>
+      <c r="E52" t="s">
         <v>303</v>
-      </c>
-      <c r="D52" t="s">
-        <v>298</v>
-      </c>
-      <c r="E52" t="s">
-        <v>299</v>
       </c>
       <c r="F52" t="s">
         <v>75</v>
@@ -10819,7 +10826,7 @@
         <v>76</v>
       </c>
       <c r="J52" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -10827,16 +10834,16 @@
         <v>222</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C53" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D53" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E53" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="F53" t="s">
         <v>75</v>
@@ -10851,7 +10858,7 @@
         <v>78</v>
       </c>
       <c r="J53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -10859,16 +10866,16 @@
         <v>222</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C54" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D54" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E54" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F54" t="s">
         <v>75</v>
@@ -10883,7 +10890,7 @@
         <v>79</v>
       </c>
       <c r="J54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -10891,16 +10898,16 @@
         <v>222</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E55" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F55" t="s">
         <v>75</v>
@@ -10915,7 +10922,7 @@
         <v>80</v>
       </c>
       <c r="J55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -10923,16 +10930,16 @@
         <v>222</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C56" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D56" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E56" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F56" t="s">
         <v>75</v>
@@ -10947,7 +10954,7 @@
         <v>81</v>
       </c>
       <c r="J56" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -10955,16 +10962,16 @@
         <v>222</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D57" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E57" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="F57" t="s">
         <v>75</v>
@@ -10976,10 +10983,10 @@
         <v>27</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -10987,16 +10994,16 @@
         <v>222</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D58" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E58" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F58" t="s">
         <v>75</v>
@@ -11008,10 +11015,10 @@
         <v>27</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -11019,16 +11026,16 @@
         <v>222</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D59" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F59" t="s">
         <v>75</v>
@@ -11043,7 +11050,7 @@
         <v>84</v>
       </c>
       <c r="J59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -11051,16 +11058,16 @@
         <v>222</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D60" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="E60" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F60" t="s">
         <v>75</v>
@@ -11075,7 +11082,7 @@
         <v>85</v>
       </c>
       <c r="J60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -11083,16 +11090,16 @@
         <v>222</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D61" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="E61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F61" t="s">
         <v>75</v>
@@ -11107,7 +11114,7 @@
         <v>86</v>
       </c>
       <c r="J61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -11115,16 +11122,16 @@
         <v>222</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D62" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="E62" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F62" t="s">
         <v>75</v>
@@ -11139,7 +11146,7 @@
         <v>87</v>
       </c>
       <c r="J62" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -11156,7 +11163,7 @@
         <v>76</v>
       </c>
       <c r="J63" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -11173,7 +11180,7 @@
         <v>78</v>
       </c>
       <c r="J64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -11190,7 +11197,7 @@
         <v>79</v>
       </c>
       <c r="J65" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -11207,7 +11214,7 @@
         <v>80</v>
       </c>
       <c r="J66" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -11224,7 +11231,7 @@
         <v>81</v>
       </c>
       <c r="J67" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -11241,7 +11248,7 @@
         <v>82</v>
       </c>
       <c r="J68" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -11258,7 +11265,7 @@
         <v>83</v>
       </c>
       <c r="J69" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -11275,7 +11282,7 @@
         <v>84</v>
       </c>
       <c r="J70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -11292,7 +11299,7 @@
         <v>85</v>
       </c>
       <c r="J71" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -11309,7 +11316,7 @@
         <v>86</v>
       </c>
       <c r="J72" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -11326,94 +11333,94 @@
         <v>87</v>
       </c>
       <c r="J73" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C74" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D74" t="s">
         <v>256</v>
       </c>
       <c r="E74" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F74" t="s">
         <v>88</v>
       </c>
       <c r="G74" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H74" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I74" t="s">
         <v>93</v>
       </c>
       <c r="J74" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D75" t="s">
         <v>256</v>
       </c>
       <c r="E75" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F75" t="s">
         <v>88</v>
       </c>
       <c r="G75" t="s">
+        <v>313</v>
+      </c>
+      <c r="H75" t="s">
         <v>314</v>
       </c>
-      <c r="H75" t="s">
-        <v>315</v>
-      </c>
       <c r="I75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J75" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>354</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="C76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D76" t="s">
         <v>256</v>
       </c>
       <c r="E76" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F76" t="s">
         <v>88</v>
       </c>
       <c r="G76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H76" t="s">
         <v>95</v>
@@ -11422,24 +11429,24 @@
         <v>96</v>
       </c>
       <c r="J76" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>350</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C77" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" t="s">
         <v>351</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C77" t="s">
-        <v>303</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>352</v>
-      </c>
-      <c r="E77" t="s">
-        <v>353</v>
       </c>
       <c r="F77" t="s">
         <v>88</v>
@@ -11448,30 +11455,30 @@
         <v>90</v>
       </c>
       <c r="H77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>350</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C78" t="s">
+        <v>302</v>
+      </c>
+      <c r="D78" t="s">
         <v>351</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C78" t="s">
-        <v>303</v>
-      </c>
-      <c r="D78" t="s">
-        <v>352</v>
-      </c>
       <c r="E78" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F78" t="s">
         <v>88</v>
@@ -11480,13 +11487,13 @@
         <v>90</v>
       </c>
       <c r="H78" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I78" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J78" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -11503,21 +11510,21 @@
         <v>98</v>
       </c>
       <c r="J79" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>361</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C80" t="s">
+        <v>336</v>
+      </c>
+      <c r="D80" t="s">
         <v>362</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C80" t="s">
-        <v>337</v>
-      </c>
-      <c r="D80" t="s">
-        <v>363</v>
       </c>
       <c r="E80" t="s">
         <v>101</v>
@@ -11535,21 +11542,21 @@
         <v>101</v>
       </c>
       <c r="J80" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>363</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C81" t="s">
+        <v>336</v>
+      </c>
+      <c r="D81" t="s">
         <v>364</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C81" t="s">
-        <v>337</v>
-      </c>
-      <c r="D81" t="s">
-        <v>365</v>
       </c>
       <c r="E81" t="s">
         <v>107</v>
@@ -11567,21 +11574,21 @@
         <v>107</v>
       </c>
       <c r="J81" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>363</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C82" t="s">
+        <v>336</v>
+      </c>
+      <c r="D82" t="s">
         <v>364</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C82" t="s">
-        <v>337</v>
-      </c>
-      <c r="D82" t="s">
-        <v>365</v>
       </c>
       <c r="E82" t="s">
         <v>109</v>
@@ -11599,24 +11606,24 @@
         <v>109</v>
       </c>
       <c r="J82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>342</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C83" t="s">
+        <v>302</v>
+      </c>
+      <c r="D83" t="s">
         <v>343</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C83" t="s">
-        <v>303</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>344</v>
-      </c>
-      <c r="E83" t="s">
-        <v>345</v>
       </c>
       <c r="F83" t="s">
         <v>104</v>
@@ -11631,24 +11638,24 @@
         <v>114</v>
       </c>
       <c r="J83" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>342</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C84" t="s">
+        <v>302</v>
+      </c>
+      <c r="D84" t="s">
         <v>343</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C84" t="s">
-        <v>303</v>
-      </c>
-      <c r="D84" t="s">
-        <v>344</v>
-      </c>
       <c r="E84" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F84" t="s">
         <v>104</v>
@@ -11663,24 +11670,24 @@
         <v>115</v>
       </c>
       <c r="J84" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>346</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C85" t="s">
+        <v>302</v>
+      </c>
+      <c r="D85" t="s">
         <v>347</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C85" t="s">
-        <v>303</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>348</v>
-      </c>
-      <c r="E85" t="s">
-        <v>349</v>
       </c>
       <c r="F85" t="s">
         <v>104</v>
@@ -11695,24 +11702,24 @@
         <v>118</v>
       </c>
       <c r="J85" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>346</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C86" t="s">
+        <v>302</v>
+      </c>
+      <c r="D86" t="s">
         <v>347</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C86" t="s">
-        <v>303</v>
-      </c>
-      <c r="D86" t="s">
-        <v>348</v>
-      </c>
       <c r="E86" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F86" t="s">
         <v>104</v>
@@ -11727,7 +11734,7 @@
         <v>119</v>
       </c>
       <c r="J86" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -11744,7 +11751,7 @@
         <v>127</v>
       </c>
       <c r="J87" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -11761,7 +11768,7 @@
         <v>128</v>
       </c>
       <c r="J88" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -11778,21 +11785,21 @@
         <v>125</v>
       </c>
       <c r="J89" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>365</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C90" t="s">
+        <v>336</v>
+      </c>
+      <c r="D90" t="s">
         <v>366</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C90" t="s">
-        <v>337</v>
-      </c>
-      <c r="D90" t="s">
-        <v>367</v>
       </c>
       <c r="E90" t="s">
         <v>122</v>
@@ -11810,21 +11817,21 @@
         <v>122</v>
       </c>
       <c r="J90" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>365</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C91" t="s">
+        <v>336</v>
+      </c>
+      <c r="D91" t="s">
         <v>366</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C91" t="s">
-        <v>337</v>
-      </c>
-      <c r="D91" t="s">
-        <v>367</v>
       </c>
       <c r="E91" t="s">
         <v>124</v>
@@ -11842,7 +11849,7 @@
         <v>124</v>
       </c>
       <c r="J91" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -11856,10 +11863,10 @@
         <v>129</v>
       </c>
       <c r="I92" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J92" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -11873,10 +11880,10 @@
         <v>129</v>
       </c>
       <c r="I93" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J93" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -11890,10 +11897,10 @@
         <v>129</v>
       </c>
       <c r="I94" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J94" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -11907,10 +11914,10 @@
         <v>129</v>
       </c>
       <c r="I95" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J95" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -11927,7 +11934,7 @@
         <v>132</v>
       </c>
       <c r="J96" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="97" spans="6:10" x14ac:dyDescent="0.3">
@@ -11944,7 +11951,7 @@
         <v>133</v>
       </c>
       <c r="J97" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="6:10" x14ac:dyDescent="0.3">
@@ -11952,16 +11959,16 @@
         <v>130</v>
       </c>
       <c r="G98" t="s">
+        <v>322</v>
+      </c>
+      <c r="H98" t="s">
+        <v>322</v>
+      </c>
+      <c r="I98" t="s">
         <v>323</v>
       </c>
-      <c r="H98" t="s">
-        <v>323</v>
-      </c>
-      <c r="I98" t="s">
-        <v>324</v>
-      </c>
       <c r="J98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="6:10" x14ac:dyDescent="0.3">
@@ -11969,20 +11976,19 @@
         <v>130</v>
       </c>
       <c r="G99" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H99" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J99" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11A51C8-0E48-4DE3-A409-9F0242DAAC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88131515-B3C0-4C66-81DA-356E211AC29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="384">
   <si>
     <t>url</t>
   </si>
@@ -1153,6 +1153,45 @@
   </si>
   <si>
     <t>Reporting_year_endyear</t>
+  </si>
+  <si>
+    <t>genebank_file</t>
+  </si>
+  <si>
+    <t>upov_file</t>
+  </si>
+  <si>
+    <t>gbif_research_file</t>
+  </si>
+  <si>
+    <t>fao_years</t>
+  </si>
+  <si>
+    <t>sgsv_file</t>
+  </si>
+  <si>
+    <t>sgsv_fields</t>
+  </si>
+  <si>
+    <t>accessions_sgsv.csv</t>
+  </si>
+  <si>
+    <t>genus_accessions_sgsv,species_accessions_sgsv</t>
+  </si>
+  <si>
+    <t>sgsv</t>
+  </si>
+  <si>
+    <t>primary_region_file</t>
+  </si>
+  <si>
+    <t>primary_region_fields</t>
+  </si>
+  <si>
+    <t>genus_accessions_primaryregion,species_accessions_primaryregion</t>
+  </si>
+  <si>
+    <t>accessions_primaryregion.csv</t>
   </si>
 </sst>
 </file>
@@ -1516,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811487A-6E7B-4C2E-9752-10E8FCDC87C8}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1594,247 +1633,311 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" t="s">
-        <v>239</v>
+        <v>374</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
+      </c>
+      <c r="B13" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14" t="s">
-        <v>248</v>
+        <v>245</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15">
-        <v>2019</v>
+        <v>247</v>
+      </c>
+      <c r="B15" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>250</v>
-      </c>
-      <c r="B16" t="s">
-        <v>251</v>
+        <v>249</v>
+      </c>
+      <c r="B16">
+        <v>2019</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>372</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>263</v>
+        <v>373</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>261</v>
+        <v>375</v>
       </c>
       <c r="B23" t="s">
-        <v>262</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>265</v>
+        <v>376</v>
       </c>
       <c r="B24" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>267</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>270</v>
+        <v>380</v>
+      </c>
+      <c r="B25" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>268</v>
+        <v>381</v>
       </c>
       <c r="B26" t="s">
-        <v>269</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>273</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>274</v>
+        <v>257</v>
+      </c>
+      <c r="B28" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>276</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
+      </c>
+      <c r="B30" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>280</v>
-      </c>
-      <c r="B33" t="s">
-        <v>288</v>
+        <v>267</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>282</v>
-      </c>
-      <c r="B36" t="s">
-        <v>370</v>
+        <v>273</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B37" s="2">
-        <v>2019</v>
+        <v>275</v>
+      </c>
+      <c r="B37" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>278</v>
+      </c>
+      <c r="B39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>279</v>
+      </c>
+      <c r="B40" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>281</v>
+      </c>
+      <c r="B42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>282</v>
+      </c>
+      <c r="B44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>283</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>284</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B46" t="s">
         <v>291</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{6B12AD9C-3007-469C-B4F5-178135E8E695}"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{6B12AD9C-3007-469C-B4F5-178135E8E695}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1846,7 +1949,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1914,9 +2017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5999D9A-B887-407B-9ED8-3246786298CD}">
   <dimension ref="A1:O161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9342,8 +9443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2D5B62-00C5-4824-8379-4A4BEE02241D}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11921,6 +12022,21 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>379</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C96" t="s">
+        <v>336</v>
+      </c>
+      <c r="D96" t="s">
+        <v>377</v>
+      </c>
+      <c r="E96" t="s">
+        <v>132</v>
+      </c>
       <c r="F96" t="s">
         <v>130</v>
       </c>
@@ -11937,7 +12053,22 @@
         <v>328</v>
       </c>
     </row>
-    <row r="97" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>379</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C97" t="s">
+        <v>336</v>
+      </c>
+      <c r="D97" t="s">
+        <v>377</v>
+      </c>
+      <c r="E97" t="s">
+        <v>133</v>
+      </c>
       <c r="F97" t="s">
         <v>130</v>
       </c>
@@ -11954,7 +12085,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="98" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F98" t="s">
         <v>130</v>
       </c>
@@ -11971,7 +12102,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="99" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F99" t="s">
         <v>130</v>
       </c>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88131515-B3C0-4C66-81DA-356E211AC29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60742385-F53D-4BB7-A57C-9D815956960B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="405">
   <si>
     <t>url</t>
   </si>
@@ -1192,6 +1192,69 @@
   </si>
   <si>
     <t>accessions_primaryregion.csv</t>
+  </si>
+  <si>
+    <t>primary_region</t>
+  </si>
+  <si>
+    <t>botanic_file</t>
+  </si>
+  <si>
+    <t>botanic_sheet</t>
+  </si>
+  <si>
+    <t>PlantSearch_2021_7.xlsx</t>
+  </si>
+  <si>
+    <t>PlantSearch metric data</t>
+  </si>
+  <si>
+    <t>Count of institutions</t>
+  </si>
+  <si>
+    <t>botanic_field_genus</t>
+  </si>
+  <si>
+    <t>botanic_field_taxon</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>botanic_year</t>
+  </si>
+  <si>
+    <t>botanic_fields</t>
+  </si>
+  <si>
+    <t>Wiews_Indicator_40_varietiesreleased_2022_5_12.xlsx</t>
+  </si>
+  <si>
+    <t>fao_varietal_file</t>
+  </si>
+  <si>
+    <t>fao_varietal_sheet</t>
+  </si>
+  <si>
+    <t>fao_varietal_field_genus</t>
+  </si>
+  <si>
+    <t>fao_varietal_field_taxon</t>
+  </si>
+  <si>
+    <t>fao_varietal_year_column</t>
+  </si>
+  <si>
+    <t>YearRelease</t>
+  </si>
+  <si>
+    <t>Taxon_cleaned</t>
+  </si>
+  <si>
+    <t>2015 - 2019 releases</t>
   </si>
 </sst>
 </file>
@@ -1555,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811487A-6E7B-4C2E-9752-10E8FCDC87C8}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1933,6 +1996,94 @@
       </c>
       <c r="B46" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>385</v>
+      </c>
+      <c r="B47" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>386</v>
+      </c>
+      <c r="B48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>395</v>
+      </c>
+      <c r="B49" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>390</v>
+      </c>
+      <c r="B50" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>391</v>
+      </c>
+      <c r="B51" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>394</v>
+      </c>
+      <c r="B52">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>397</v>
+      </c>
+      <c r="B53" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>398</v>
+      </c>
+      <c r="B54" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>399</v>
+      </c>
+      <c r="B55" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>400</v>
+      </c>
+      <c r="B56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>401</v>
+      </c>
+      <c r="B57" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -9444,7 +9595,7 @@
   <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11839,6 +11990,21 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>384</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C87" t="s">
+        <v>336</v>
+      </c>
+      <c r="D87" t="s">
+        <v>383</v>
+      </c>
+      <c r="E87" t="s">
+        <v>127</v>
+      </c>
       <c r="F87" t="s">
         <v>104</v>
       </c>
@@ -11856,6 +12022,21 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>384</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C88" t="s">
+        <v>336</v>
+      </c>
+      <c r="D88" t="s">
+        <v>383</v>
+      </c>
+      <c r="E88" t="s">
+        <v>128</v>
+      </c>
       <c r="F88" t="s">
         <v>104</v>
       </c>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60742385-F53D-4BB7-A57C-9D815956960B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33441CC9-F577-434C-8855-746F4B351BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="indicator" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">indicator!$A$1:$J$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">indicator!$A$1:$J$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="424">
   <si>
     <t>url</t>
   </si>
@@ -1255,6 +1255,63 @@
   </si>
   <si>
     <t>2015 - 2019 releases</t>
+  </si>
+  <si>
+    <t>genus_botanic_collections</t>
+  </si>
+  <si>
+    <t>species_botanic_collections</t>
+  </si>
+  <si>
+    <t>genus_varietal_release_fao_wiews</t>
+  </si>
+  <si>
+    <t>species_varietal_release_fao_wiews</t>
+  </si>
+  <si>
+    <t>fao_varietal</t>
+  </si>
+  <si>
+    <t>fao_varietal.csv</t>
+  </si>
+  <si>
+    <t>value_genus</t>
+  </si>
+  <si>
+    <t>value_taxon</t>
+  </si>
+  <si>
+    <t>botanic</t>
+  </si>
+  <si>
+    <t>botanic.csv</t>
+  </si>
+  <si>
+    <t>Count of institutions_genus</t>
+  </si>
+  <si>
+    <t>Count of institutions_taxon</t>
+  </si>
+  <si>
+    <t>ncbi_url</t>
+  </si>
+  <si>
+    <t>https://eutils.ncbi.nlm.nih.gov/gquery</t>
+  </si>
+  <si>
+    <t>ncbi_retmode</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>ncbi_databases</t>
+  </si>
+  <si>
+    <t>pmc,nuccore,protein,genome,gene</t>
+  </si>
+  <si>
+    <t>ncbi_year</t>
   </si>
 </sst>
 </file>
@@ -1618,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811487A-6E7B-4C2E-9752-10E8FCDC87C8}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2086,12 +2143,45 @@
         <v>402</v>
       </c>
     </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>417</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>419</v>
+      </c>
+      <c r="B59" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>421</v>
+      </c>
+      <c r="B60" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>423</v>
+      </c>
+      <c r="B61">
+        <v>2022</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" xr:uid="{6B12AD9C-3007-469C-B4F5-178135E8E695}"/>
+    <hyperlink ref="B58" r:id="rId2" xr:uid="{BA892F71-69C2-4EC4-BEDA-E08F89A22BD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9592,10 +9682,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2D5B62-00C5-4824-8379-4A4BEE02241D}">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E94" sqref="A94:E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11749,6 +11839,21 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>409</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C79" t="s">
+        <v>302</v>
+      </c>
+      <c r="D79" t="s">
+        <v>410</v>
+      </c>
+      <c r="E79" t="s">
+        <v>411</v>
+      </c>
       <c r="F79" t="s">
         <v>88</v>
       </c>
@@ -11759,39 +11864,36 @@
         <v>98</v>
       </c>
       <c r="I79" t="s">
-        <v>98</v>
-      </c>
-      <c r="J79" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>330</v>
       </c>
       <c r="C80" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="D80" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="E80" t="s">
-        <v>101</v>
+        <v>412</v>
       </c>
       <c r="F80" t="s">
         <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I80" t="s">
-        <v>101</v>
+        <v>408</v>
       </c>
       <c r="J80" t="s">
         <v>328</v>
@@ -11799,7 +11901,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>330</v>
@@ -11808,22 +11910,22 @@
         <v>336</v>
       </c>
       <c r="D81" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E81" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F81" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I81" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J81" t="s">
         <v>328</v>
@@ -11843,7 +11945,7 @@
         <v>364</v>
       </c>
       <c r="E82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F82" t="s">
         <v>104</v>
@@ -11855,7 +11957,7 @@
         <v>106</v>
       </c>
       <c r="I82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J82" t="s">
         <v>328</v>
@@ -11863,31 +11965,31 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>330</v>
       </c>
       <c r="C83" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="D83" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="E83" t="s">
-        <v>344</v>
+        <v>109</v>
       </c>
       <c r="F83" t="s">
         <v>104</v>
       </c>
       <c r="G83" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H83" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I83" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J83" t="s">
         <v>328</v>
@@ -11907,7 +12009,7 @@
         <v>343</v>
       </c>
       <c r="E84" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F84" t="s">
         <v>104</v>
@@ -11919,7 +12021,7 @@
         <v>113</v>
       </c>
       <c r="I84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J84" t="s">
         <v>328</v>
@@ -11927,7 +12029,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>330</v>
@@ -11936,10 +12038,10 @@
         <v>302</v>
       </c>
       <c r="D85" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E85" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F85" t="s">
         <v>104</v>
@@ -11948,10 +12050,10 @@
         <v>111</v>
       </c>
       <c r="H85" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J85" t="s">
         <v>328</v>
@@ -11971,7 +12073,7 @@
         <v>347</v>
       </c>
       <c r="E86" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F86" t="s">
         <v>104</v>
@@ -11983,7 +12085,7 @@
         <v>117</v>
       </c>
       <c r="I86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J86" t="s">
         <v>328</v>
@@ -11991,31 +12093,31 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>330</v>
       </c>
       <c r="C87" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="D87" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="E87" t="s">
-        <v>127</v>
+        <v>349</v>
       </c>
       <c r="F87" t="s">
         <v>104</v>
       </c>
       <c r="G87" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="H87" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I87" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J87" t="s">
         <v>328</v>
@@ -12035,7 +12137,7 @@
         <v>383</v>
       </c>
       <c r="E88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F88" t="s">
         <v>104</v>
@@ -12047,24 +12149,39 @@
         <v>126</v>
       </c>
       <c r="I88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J88" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>384</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C89" t="s">
+        <v>336</v>
+      </c>
+      <c r="D89" t="s">
+        <v>383</v>
+      </c>
+      <c r="E89" t="s">
+        <v>128</v>
+      </c>
       <c r="F89" t="s">
         <v>104</v>
       </c>
       <c r="G89" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H89" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I89" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J89" t="s">
         <v>328</v>
@@ -12072,31 +12189,31 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>330</v>
       </c>
       <c r="C90" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="D90" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="E90" t="s">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="F90" t="s">
         <v>104</v>
       </c>
       <c r="G90" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I90" t="s">
-        <v>122</v>
+        <v>405</v>
       </c>
       <c r="J90" t="s">
         <v>328</v>
@@ -12104,65 +12221,95 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>330</v>
       </c>
       <c r="C91" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="D91" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="E91" t="s">
-        <v>124</v>
+        <v>416</v>
       </c>
       <c r="F91" t="s">
         <v>104</v>
       </c>
       <c r="G91" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H91" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I91" t="s">
-        <v>124</v>
+        <v>406</v>
       </c>
       <c r="J91" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>365</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C92" t="s">
+        <v>336</v>
+      </c>
+      <c r="D92" t="s">
+        <v>366</v>
+      </c>
+      <c r="E92" t="s">
+        <v>122</v>
+      </c>
       <c r="F92" t="s">
         <v>104</v>
       </c>
       <c r="G92" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H92" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I92" t="s">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="J92" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>365</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C93" t="s">
+        <v>336</v>
+      </c>
+      <c r="D93" t="s">
+        <v>366</v>
+      </c>
+      <c r="E93" t="s">
+        <v>124</v>
+      </c>
       <c r="F93" t="s">
         <v>104</v>
       </c>
       <c r="G93" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H93" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I93" t="s">
-        <v>319</v>
+        <v>124</v>
       </c>
       <c r="J93" t="s">
         <v>328</v>
@@ -12179,7 +12326,7 @@
         <v>129</v>
       </c>
       <c r="I94" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J94" t="s">
         <v>328</v>
@@ -12196,107 +12343,141 @@
         <v>129</v>
       </c>
       <c r="I95" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J95" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>379</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C96" t="s">
-        <v>336</v>
-      </c>
-      <c r="D96" t="s">
-        <v>377</v>
-      </c>
-      <c r="E96" t="s">
-        <v>132</v>
-      </c>
       <c r="F96" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H96" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I96" t="s">
-        <v>132</v>
+        <v>320</v>
       </c>
       <c r="J96" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>379</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C97" t="s">
-        <v>336</v>
-      </c>
-      <c r="D97" t="s">
-        <v>377</v>
-      </c>
-      <c r="E97" t="s">
-        <v>133</v>
-      </c>
       <c r="F97" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="G97" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H97" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I97" t="s">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="J97" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>379</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C98" t="s">
+        <v>336</v>
+      </c>
+      <c r="D98" t="s">
+        <v>377</v>
+      </c>
+      <c r="E98" t="s">
+        <v>132</v>
+      </c>
       <c r="F98" t="s">
         <v>130</v>
       </c>
       <c r="G98" t="s">
-        <v>322</v>
+        <v>131</v>
       </c>
       <c r="H98" t="s">
-        <v>322</v>
+        <v>131</v>
       </c>
       <c r="I98" t="s">
-        <v>323</v>
+        <v>132</v>
       </c>
       <c r="J98" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>379</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C99" t="s">
+        <v>336</v>
+      </c>
+      <c r="D99" t="s">
+        <v>377</v>
+      </c>
+      <c r="E99" t="s">
+        <v>133</v>
+      </c>
       <c r="F99" t="s">
         <v>130</v>
       </c>
       <c r="G99" t="s">
+        <v>131</v>
+      </c>
+      <c r="H99" t="s">
+        <v>131</v>
+      </c>
+      <c r="I99" t="s">
+        <v>133</v>
+      </c>
+      <c r="J99" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
+        <v>130</v>
+      </c>
+      <c r="G100" t="s">
         <v>322</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H100" t="s">
         <v>322</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I100" t="s">
+        <v>323</v>
+      </c>
+      <c r="J100" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F101" t="s">
+        <v>130</v>
+      </c>
+      <c r="G101" t="s">
+        <v>322</v>
+      </c>
+      <c r="H101" t="s">
+        <v>322</v>
+      </c>
+      <c r="I101" t="s">
         <v>324</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J101" t="s">
         <v>328</v>
       </c>
     </row>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33441CC9-F577-434C-8855-746F4B351BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5133E1-5FB0-4C0B-96A8-3D8490CC1F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="indicator" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">indicator!$A$1:$J$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">indicator!$A$1:$J$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="435">
   <si>
     <t>url</t>
   </si>
@@ -1008,15 +1008,6 @@
     <t>digital_sequence_supply_gene</t>
   </si>
   <si>
-    <t>backup_genebank_accessions</t>
-  </si>
-  <si>
-    <t>genus_backup_genebank_accessions</t>
-  </si>
-  <si>
-    <t>species_backup_genebank_accessions</t>
-  </si>
-  <si>
     <t>08</t>
   </si>
   <si>
@@ -1146,9 +1137,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>fill_zero</t>
-  </si>
-  <si>
     <t>Trade_Crops_Livestock_E_All_Data.csv</t>
   </si>
   <si>
@@ -1312,6 +1300,51 @@
   </si>
   <si>
     <t>ncbi_year</t>
+  </si>
+  <si>
+    <t>indicator_method</t>
+  </si>
+  <si>
+    <t>across_crops</t>
+  </si>
+  <si>
+    <t>by_value</t>
+  </si>
+  <si>
+    <t>indicator_value</t>
+  </si>
+  <si>
+    <t>pubmed_central</t>
+  </si>
+  <si>
+    <t>pubmed_taxon</t>
+  </si>
+  <si>
+    <t>ncbi</t>
+  </si>
+  <si>
+    <t>ncbi.csv</t>
+  </si>
+  <si>
+    <t>pmc</t>
+  </si>
+  <si>
+    <t>nuccore</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>genome</t>
+  </si>
+  <si>
+    <t>gene</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -1335,12 +1368,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1356,10 +1395,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1677,7 +1718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811487A-6E7B-4C2E-9752-10E8FCDC87C8}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
@@ -1753,7 +1794,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>270</v>
@@ -1817,10 +1858,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B17" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1833,10 +1874,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1849,10 +1890,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B21" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1865,34 +1906,34 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B23" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B25" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B26" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2036,7 +2077,7 @@
         <v>282</v>
       </c>
       <c r="B44" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2057,47 +2098,47 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B48" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B52">
         <v>2022</v>
@@ -2105,71 +2146,71 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B54" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B55" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B56" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B59" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B61">
         <v>2022</v>
@@ -9682,10 +9723,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2D5B62-00C5-4824-8379-4A4BEE02241D}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E94" sqref="A94:E97"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9700,9 +9741,10 @@
     <col min="8" max="8" width="40.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>292</v>
       </c>
@@ -9731,18 +9773,21 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+      <c r="L1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>222</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C2" t="s">
         <v>302</v>
@@ -9766,15 +9811,18 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>222</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
         <v>302</v>
@@ -9798,15 +9846,18 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>222</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C4" t="s">
         <v>302</v>
@@ -9830,15 +9881,18 @@
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>222</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C5" t="s">
         <v>302</v>
@@ -9862,15 +9916,18 @@
         <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>222</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C6" t="s">
         <v>302</v>
@@ -9894,15 +9951,18 @@
         <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>222</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C7" t="s">
         <v>302</v>
@@ -9926,15 +9986,18 @@
         <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>222</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C8" t="s">
         <v>302</v>
@@ -9958,21 +10021,24 @@
         <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>222</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C9" t="s">
         <v>302</v>
       </c>
       <c r="D9" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E9" t="s">
         <v>308</v>
@@ -9990,21 +10056,24 @@
         <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>222</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C10" t="s">
         <v>302</v>
       </c>
       <c r="D10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E10" t="s">
         <v>309</v>
@@ -10022,21 +10091,24 @@
         <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>222</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C11" t="s">
         <v>302</v>
       </c>
       <c r="D11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E11" t="s">
         <v>310</v>
@@ -10054,21 +10126,24 @@
         <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>222</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C12" t="s">
         <v>302</v>
       </c>
       <c r="D12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E12" t="s">
         <v>311</v>
@@ -10086,15 +10161,18 @@
         <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>222</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C13" t="s">
         <v>302</v>
@@ -10117,13 +10195,19 @@
       <c r="I13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>422</v>
+      </c>
+      <c r="L13">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>222</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C14" t="s">
         <v>302</v>
@@ -10146,13 +10230,19 @@
       <c r="I14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>422</v>
+      </c>
+      <c r="L14">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>222</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
         <v>302</v>
@@ -10175,13 +10265,19 @@
       <c r="I15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>422</v>
+      </c>
+      <c r="L15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>222</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C16" t="s">
         <v>302</v>
@@ -10204,13 +10300,19 @@
       <c r="I16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>422</v>
+      </c>
+      <c r="L16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>222</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C17" t="s">
         <v>302</v>
@@ -10233,13 +10335,19 @@
       <c r="I17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>422</v>
+      </c>
+      <c r="L17">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>222</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C18" t="s">
         <v>302</v>
@@ -10262,13 +10370,19 @@
       <c r="I18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>422</v>
+      </c>
+      <c r="L18">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>222</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C19" t="s">
         <v>302</v>
@@ -10291,19 +10405,25 @@
       <c r="I19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>422</v>
+      </c>
+      <c r="L19">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>222</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C20" t="s">
         <v>302</v>
       </c>
       <c r="D20" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E20" t="s">
         <v>308</v>
@@ -10320,19 +10440,25 @@
       <c r="I20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>422</v>
+      </c>
+      <c r="L20">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>222</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C21" t="s">
         <v>302</v>
       </c>
       <c r="D21" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E21" t="s">
         <v>309</v>
@@ -10349,19 +10475,25 @@
       <c r="I21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>422</v>
+      </c>
+      <c r="L21">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>222</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C22" t="s">
         <v>302</v>
       </c>
       <c r="D22" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E22" t="s">
         <v>310</v>
@@ -10378,19 +10510,25 @@
       <c r="I22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>422</v>
+      </c>
+      <c r="L22">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>222</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C23" t="s">
         <v>302</v>
       </c>
       <c r="D23" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E23" t="s">
         <v>311</v>
@@ -10407,13 +10545,19 @@
       <c r="I23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>422</v>
+      </c>
+      <c r="L23">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>222</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C24" t="s">
         <v>302</v>
@@ -10437,15 +10581,15 @@
         <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>222</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C25" t="s">
         <v>302</v>
@@ -10469,15 +10613,15 @@
         <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>222</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C26" t="s">
         <v>302</v>
@@ -10501,15 +10645,15 @@
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>222</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C27" t="s">
         <v>302</v>
@@ -10533,15 +10677,15 @@
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>222</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C28" t="s">
         <v>302</v>
@@ -10565,15 +10709,15 @@
         <v>28</v>
       </c>
       <c r="J28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>222</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C29" t="s">
         <v>302</v>
@@ -10597,15 +10741,15 @@
         <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>222</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C30" t="s">
         <v>302</v>
@@ -10629,21 +10773,21 @@
         <v>32</v>
       </c>
       <c r="J30" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>222</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C31" t="s">
         <v>302</v>
       </c>
       <c r="D31" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E31" t="s">
         <v>308</v>
@@ -10661,21 +10805,21 @@
         <v>35</v>
       </c>
       <c r="J31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>222</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C32" t="s">
         <v>302</v>
       </c>
       <c r="D32" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E32" t="s">
         <v>309</v>
@@ -10693,21 +10837,21 @@
         <v>36</v>
       </c>
       <c r="J32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>222</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C33" t="s">
         <v>302</v>
       </c>
       <c r="D33" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E33" t="s">
         <v>310</v>
@@ -10725,21 +10869,21 @@
         <v>38</v>
       </c>
       <c r="J33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>222</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C34" t="s">
         <v>302</v>
       </c>
       <c r="D34" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E34" t="s">
         <v>311</v>
@@ -10757,10 +10901,25 @@
         <v>39</v>
       </c>
       <c r="J34" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C35" t="s">
+        <v>302</v>
+      </c>
+      <c r="D35" t="s">
+        <v>304</v>
+      </c>
+      <c r="E35" t="s">
+        <v>303</v>
+      </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
@@ -10774,10 +10933,25 @@
         <v>19</v>
       </c>
       <c r="J35" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C36" t="s">
+        <v>302</v>
+      </c>
+      <c r="D36" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" t="s">
+        <v>305</v>
+      </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
@@ -10791,10 +10965,25 @@
         <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C37" t="s">
+        <v>302</v>
+      </c>
+      <c r="D37" t="s">
+        <v>304</v>
+      </c>
+      <c r="E37" t="s">
+        <v>306</v>
+      </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
@@ -10808,10 +10997,25 @@
         <v>25</v>
       </c>
       <c r="J37" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C38" t="s">
+        <v>302</v>
+      </c>
+      <c r="D38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E38" t="s">
+        <v>307</v>
+      </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
@@ -10825,10 +11029,25 @@
         <v>26</v>
       </c>
       <c r="J38" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C39" t="s">
+        <v>302</v>
+      </c>
+      <c r="D39" t="s">
+        <v>297</v>
+      </c>
+      <c r="E39" t="s">
+        <v>298</v>
+      </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
@@ -10842,10 +11061,25 @@
         <v>28</v>
       </c>
       <c r="J39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C40" t="s">
+        <v>302</v>
+      </c>
+      <c r="D40" t="s">
+        <v>297</v>
+      </c>
+      <c r="E40" t="s">
+        <v>229</v>
+      </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
@@ -10859,10 +11093,25 @@
         <v>30</v>
       </c>
       <c r="J40" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C41" t="s">
+        <v>302</v>
+      </c>
+      <c r="D41" t="s">
+        <v>300</v>
+      </c>
+      <c r="E41" t="s">
+        <v>299</v>
+      </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
@@ -10876,10 +11125,25 @@
         <v>32</v>
       </c>
       <c r="J41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C42" t="s">
+        <v>302</v>
+      </c>
+      <c r="D42" t="s">
+        <v>365</v>
+      </c>
+      <c r="E42" t="s">
+        <v>308</v>
+      </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
@@ -10893,10 +11157,25 @@
         <v>35</v>
       </c>
       <c r="J42" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C43" t="s">
+        <v>302</v>
+      </c>
+      <c r="D43" t="s">
+        <v>365</v>
+      </c>
+      <c r="E43" t="s">
+        <v>309</v>
+      </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
@@ -10910,10 +11189,25 @@
         <v>36</v>
       </c>
       <c r="J43" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C44" t="s">
+        <v>302</v>
+      </c>
+      <c r="D44" t="s">
+        <v>365</v>
+      </c>
+      <c r="E44" t="s">
+        <v>310</v>
+      </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
@@ -10927,10 +11221,25 @@
         <v>38</v>
       </c>
       <c r="J44" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C45" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" t="s">
+        <v>365</v>
+      </c>
+      <c r="E45" t="s">
+        <v>311</v>
+      </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
@@ -10944,24 +11253,24 @@
         <v>39</v>
       </c>
       <c r="J45" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C46" t="s">
         <v>302</v>
       </c>
       <c r="D46" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E46" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -10976,24 +11285,27 @@
         <v>70</v>
       </c>
       <c r="J46" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K46" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C47" t="s">
         <v>302</v>
       </c>
       <c r="D47" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E47" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
@@ -11008,24 +11320,27 @@
         <v>71</v>
       </c>
       <c r="J47" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C48" t="s">
         <v>302</v>
       </c>
       <c r="D48" t="s">
+        <v>328</v>
+      </c>
+      <c r="E48" t="s">
         <v>331</v>
-      </c>
-      <c r="E48" t="s">
-        <v>334</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
@@ -11040,56 +11355,62 @@
         <v>72</v>
       </c>
       <c r="J48" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>426</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C49" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D49" t="s">
-        <v>337</v>
+        <v>427</v>
       </c>
       <c r="E49" t="s">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>424</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
+        <v>425</v>
       </c>
       <c r="J49" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K49" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C50" t="s">
+        <v>333</v>
+      </c>
+      <c r="D50" t="s">
+        <v>334</v>
+      </c>
+      <c r="E50" t="s">
         <v>336</v>
-      </c>
-      <c r="D50" t="s">
-        <v>337</v>
-      </c>
-      <c r="E50" t="s">
-        <v>338</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
@@ -11101,27 +11422,30 @@
         <v>74</v>
       </c>
       <c r="I50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J50" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>332</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C51" t="s">
+        <v>333</v>
+      </c>
+      <c r="D51" t="s">
+        <v>334</v>
+      </c>
+      <c r="E51" t="s">
         <v>335</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C51" t="s">
-        <v>336</v>
-      </c>
-      <c r="D51" t="s">
-        <v>337</v>
-      </c>
-      <c r="E51" t="s">
-        <v>340</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -11133,50 +11457,56 @@
         <v>74</v>
       </c>
       <c r="I51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J51" t="s">
+        <v>325</v>
+      </c>
+      <c r="K51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>332</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C52" t="s">
+        <v>333</v>
+      </c>
+      <c r="D52" t="s">
+        <v>334</v>
+      </c>
+      <c r="E52" t="s">
+        <v>337</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s">
         <v>72</v>
       </c>
-      <c r="J51" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>222</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C52" t="s">
-        <v>302</v>
-      </c>
-      <c r="D52" t="s">
-        <v>304</v>
-      </c>
-      <c r="E52" t="s">
-        <v>303</v>
-      </c>
-      <c r="F52" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" t="s">
-        <v>76</v>
-      </c>
       <c r="J52" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>222</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C53" t="s">
         <v>302</v>
@@ -11185,7 +11515,7 @@
         <v>304</v>
       </c>
       <c r="E53" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F53" t="s">
         <v>75</v>
@@ -11197,18 +11527,18 @@
         <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J53" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>222</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C54" t="s">
         <v>302</v>
@@ -11217,7 +11547,7 @@
         <v>304</v>
       </c>
       <c r="E54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F54" t="s">
         <v>75</v>
@@ -11229,18 +11559,18 @@
         <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>222</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C55" t="s">
         <v>302</v>
@@ -11249,7 +11579,7 @@
         <v>304</v>
       </c>
       <c r="E55" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F55" t="s">
         <v>75</v>
@@ -11261,27 +11591,27 @@
         <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>222</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C56" t="s">
         <v>302</v>
       </c>
       <c r="D56" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E56" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F56" t="s">
         <v>75</v>
@@ -11290,21 +11620,21 @@
         <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>222</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C57" t="s">
         <v>302</v>
@@ -11313,7 +11643,7 @@
         <v>297</v>
       </c>
       <c r="E57" t="s">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="F57" t="s">
         <v>75</v>
@@ -11325,27 +11655,27 @@
         <v>27</v>
       </c>
       <c r="I57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J57" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>222</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C58" t="s">
         <v>302</v>
       </c>
       <c r="D58" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E58" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="F58" t="s">
         <v>75</v>
@@ -11357,27 +11687,27 @@
         <v>27</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J58" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>222</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C59" t="s">
         <v>302</v>
       </c>
       <c r="D59" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="E59" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F59" t="s">
         <v>75</v>
@@ -11386,30 +11716,30 @@
         <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J59" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>222</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C60" t="s">
         <v>302</v>
       </c>
       <c r="D60" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E60" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F60" t="s">
         <v>75</v>
@@ -11421,27 +11751,27 @@
         <v>34</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J60" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>222</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C61" t="s">
         <v>302</v>
       </c>
       <c r="D61" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F61" t="s">
         <v>75</v>
@@ -11453,27 +11783,27 @@
         <v>34</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J61" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>222</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C62" t="s">
         <v>302</v>
       </c>
       <c r="D62" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E62" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F62" t="s">
         <v>75</v>
@@ -11485,30 +11815,60 @@
         <v>34</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J62" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C63" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" t="s">
+        <v>365</v>
+      </c>
+      <c r="E63" t="s">
+        <v>311</v>
+      </c>
       <c r="F63" t="s">
         <v>75</v>
       </c>
       <c r="G63" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I63" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J63" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C64" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" t="s">
+        <v>304</v>
+      </c>
+      <c r="E64" t="s">
+        <v>303</v>
+      </c>
       <c r="F64" t="s">
         <v>75</v>
       </c>
@@ -11519,13 +11879,28 @@
         <v>18</v>
       </c>
       <c r="I64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J64" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C65" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" t="s">
+        <v>304</v>
+      </c>
+      <c r="E65" t="s">
+        <v>305</v>
+      </c>
       <c r="F65" t="s">
         <v>75</v>
       </c>
@@ -11536,13 +11911,28 @@
         <v>18</v>
       </c>
       <c r="I65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J65" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C66" t="s">
+        <v>302</v>
+      </c>
+      <c r="D66" t="s">
+        <v>304</v>
+      </c>
+      <c r="E66" t="s">
+        <v>306</v>
+      </c>
       <c r="F66" t="s">
         <v>75</v>
       </c>
@@ -11553,13 +11943,28 @@
         <v>18</v>
       </c>
       <c r="I66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J66" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C67" t="s">
+        <v>302</v>
+      </c>
+      <c r="D67" t="s">
+        <v>304</v>
+      </c>
+      <c r="E67" t="s">
+        <v>307</v>
+      </c>
       <c r="F67" t="s">
         <v>75</v>
       </c>
@@ -11567,16 +11972,31 @@
         <v>52</v>
       </c>
       <c r="H67" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J67" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C68" t="s">
+        <v>302</v>
+      </c>
+      <c r="D68" t="s">
+        <v>297</v>
+      </c>
+      <c r="E68" t="s">
+        <v>298</v>
+      </c>
       <c r="F68" t="s">
         <v>75</v>
       </c>
@@ -11587,13 +12007,28 @@
         <v>27</v>
       </c>
       <c r="I68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J68" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C69" t="s">
+        <v>302</v>
+      </c>
+      <c r="D69" t="s">
+        <v>297</v>
+      </c>
+      <c r="E69" t="s">
+        <v>229</v>
+      </c>
       <c r="F69" t="s">
         <v>75</v>
       </c>
@@ -11604,13 +12039,28 @@
         <v>27</v>
       </c>
       <c r="I69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J69" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C70" t="s">
+        <v>302</v>
+      </c>
+      <c r="D70" t="s">
+        <v>300</v>
+      </c>
+      <c r="E70" t="s">
+        <v>299</v>
+      </c>
       <c r="F70" t="s">
         <v>75</v>
       </c>
@@ -11618,16 +12068,31 @@
         <v>52</v>
       </c>
       <c r="H70" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J70" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D71" t="s">
+        <v>365</v>
+      </c>
+      <c r="E71" t="s">
+        <v>308</v>
+      </c>
       <c r="F71" t="s">
         <v>75</v>
       </c>
@@ -11638,13 +12103,28 @@
         <v>34</v>
       </c>
       <c r="I71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J71" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C72" t="s">
+        <v>302</v>
+      </c>
+      <c r="D72" t="s">
+        <v>365</v>
+      </c>
+      <c r="E72" t="s">
+        <v>309</v>
+      </c>
       <c r="F72" t="s">
         <v>75</v>
       </c>
@@ -11655,13 +12135,28 @@
         <v>34</v>
       </c>
       <c r="I72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J72" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C73" t="s">
+        <v>302</v>
+      </c>
+      <c r="D73" t="s">
+        <v>365</v>
+      </c>
+      <c r="E73" t="s">
+        <v>310</v>
+      </c>
       <c r="F73" t="s">
         <v>75</v>
       </c>
@@ -11672,47 +12167,47 @@
         <v>34</v>
       </c>
       <c r="I73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J73" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>354</v>
+        <v>222</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="C74" t="s">
         <v>302</v>
       </c>
       <c r="D74" t="s">
-        <v>256</v>
+        <v>365</v>
       </c>
       <c r="E74" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G74" t="s">
-        <v>312</v>
+        <v>52</v>
       </c>
       <c r="H74" t="s">
-        <v>312</v>
+        <v>34</v>
       </c>
       <c r="I74" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>357</v>
@@ -11724,30 +12219,33 @@
         <v>256</v>
       </c>
       <c r="E75" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F75" t="s">
         <v>88</v>
       </c>
       <c r="G75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H75" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I75" t="s">
-        <v>314</v>
+        <v>93</v>
       </c>
       <c r="J75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K75" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>351</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="C76" t="s">
         <v>302</v>
@@ -11756,71 +12254,77 @@
         <v>256</v>
       </c>
       <c r="E76" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F76" t="s">
         <v>88</v>
       </c>
       <c r="G76" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="I76" t="s">
-        <v>96</v>
+        <v>314</v>
       </c>
       <c r="J76" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K76" t="s">
+        <v>422</v>
+      </c>
+      <c r="L76">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="C77" t="s">
         <v>302</v>
       </c>
       <c r="D77" t="s">
-        <v>351</v>
+        <v>256</v>
       </c>
       <c r="E77" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F77" t="s">
         <v>88</v>
       </c>
       <c r="G77" t="s">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="H77" t="s">
-        <v>316</v>
+        <v>95</v>
       </c>
       <c r="I77" t="s">
-        <v>316</v>
+        <v>96</v>
       </c>
       <c r="J77" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C78" t="s">
         <v>302</v>
       </c>
       <c r="D78" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E78" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F78" t="s">
         <v>88</v>
@@ -11829,59 +12333,68 @@
         <v>90</v>
       </c>
       <c r="H78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J78" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K78" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C79" t="s">
         <v>302</v>
       </c>
       <c r="D79" t="s">
-        <v>410</v>
+        <v>348</v>
       </c>
       <c r="E79" t="s">
-        <v>411</v>
+        <v>350</v>
       </c>
       <c r="F79" t="s">
         <v>88</v>
       </c>
       <c r="G79" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>317</v>
       </c>
       <c r="I79" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="J79" t="s">
+        <v>325</v>
+      </c>
+      <c r="K79" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C80" t="s">
         <v>302</v>
       </c>
       <c r="D80" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E80" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F80" t="s">
         <v>88</v>
@@ -11893,91 +12406,100 @@
         <v>98</v>
       </c>
       <c r="I80" t="s">
+        <v>403</v>
+      </c>
+      <c r="J80" t="s">
+        <v>325</v>
+      </c>
+      <c r="K80" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>405</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C81" t="s">
+        <v>302</v>
+      </c>
+      <c r="D81" t="s">
+        <v>406</v>
+      </c>
+      <c r="E81" t="s">
         <v>408</v>
-      </c>
-      <c r="J80" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>361</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C81" t="s">
-        <v>336</v>
-      </c>
-      <c r="D81" t="s">
-        <v>362</v>
-      </c>
-      <c r="E81" t="s">
-        <v>101</v>
       </c>
       <c r="F81" t="s">
         <v>88</v>
       </c>
       <c r="G81" t="s">
+        <v>98</v>
+      </c>
+      <c r="H81" t="s">
+        <v>98</v>
+      </c>
+      <c r="I81" t="s">
+        <v>404</v>
+      </c>
+      <c r="J81" t="s">
+        <v>325</v>
+      </c>
+      <c r="K81" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>358</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C82" t="s">
+        <v>333</v>
+      </c>
+      <c r="D82" t="s">
+        <v>359</v>
+      </c>
+      <c r="E82" t="s">
+        <v>101</v>
+      </c>
+      <c r="F82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s">
         <v>100</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H82" t="s">
         <v>100</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I82" t="s">
         <v>101</v>
       </c>
-      <c r="J81" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>363</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C82" t="s">
-        <v>336</v>
-      </c>
-      <c r="D82" t="s">
-        <v>364</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="J82" t="s">
+        <v>325</v>
+      </c>
+      <c r="K82" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>360</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C83" t="s">
+        <v>333</v>
+      </c>
+      <c r="D83" t="s">
+        <v>361</v>
+      </c>
+      <c r="E83" t="s">
         <v>107</v>
-      </c>
-      <c r="F82" t="s">
-        <v>104</v>
-      </c>
-      <c r="G82" t="s">
-        <v>105</v>
-      </c>
-      <c r="H82" t="s">
-        <v>106</v>
-      </c>
-      <c r="I82" t="s">
-        <v>107</v>
-      </c>
-      <c r="J82" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>363</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C83" t="s">
-        <v>336</v>
-      </c>
-      <c r="D83" t="s">
-        <v>364</v>
-      </c>
-      <c r="E83" t="s">
-        <v>109</v>
       </c>
       <c r="F83" t="s">
         <v>104</v>
@@ -11989,187 +12511,205 @@
         <v>106</v>
       </c>
       <c r="I83" t="s">
+        <v>107</v>
+      </c>
+      <c r="J83" t="s">
+        <v>325</v>
+      </c>
+      <c r="K83" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>360</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C84" t="s">
+        <v>333</v>
+      </c>
+      <c r="D84" t="s">
+        <v>361</v>
+      </c>
+      <c r="E84" t="s">
         <v>109</v>
-      </c>
-      <c r="J83" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>342</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C84" t="s">
-        <v>302</v>
-      </c>
-      <c r="D84" t="s">
-        <v>343</v>
-      </c>
-      <c r="E84" t="s">
-        <v>344</v>
       </c>
       <c r="F84" t="s">
         <v>104</v>
       </c>
       <c r="G84" t="s">
+        <v>105</v>
+      </c>
+      <c r="H84" t="s">
+        <v>106</v>
+      </c>
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+      <c r="J84" t="s">
+        <v>325</v>
+      </c>
+      <c r="K84" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H85" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I85" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J84" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="J85" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="F86" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D87" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="E85" t="s">
-        <v>345</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="B88" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G88" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H85" t="s">
-        <v>113</v>
-      </c>
-      <c r="I85" t="s">
-        <v>115</v>
-      </c>
-      <c r="J85" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>346</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C86" t="s">
-        <v>302</v>
-      </c>
-      <c r="D86" t="s">
-        <v>347</v>
-      </c>
-      <c r="E86" t="s">
-        <v>348</v>
-      </c>
-      <c r="F86" t="s">
-        <v>104</v>
-      </c>
-      <c r="G86" t="s">
-        <v>111</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="H88" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I86" t="s">
-        <v>118</v>
-      </c>
-      <c r="J86" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>346</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C87" t="s">
-        <v>302</v>
-      </c>
-      <c r="D87" t="s">
-        <v>347</v>
-      </c>
-      <c r="E87" t="s">
-        <v>349</v>
-      </c>
-      <c r="F87" t="s">
-        <v>104</v>
-      </c>
-      <c r="G87" t="s">
-        <v>111</v>
-      </c>
-      <c r="H87" t="s">
-        <v>117</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="I88" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J87" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>384</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C88" t="s">
-        <v>336</v>
-      </c>
-      <c r="D88" t="s">
-        <v>383</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="J88" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>380</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C89" t="s">
+        <v>333</v>
+      </c>
+      <c r="D89" t="s">
+        <v>379</v>
+      </c>
+      <c r="E89" t="s">
         <v>127</v>
-      </c>
-      <c r="F88" t="s">
-        <v>104</v>
-      </c>
-      <c r="G88" t="s">
-        <v>126</v>
-      </c>
-      <c r="H88" t="s">
-        <v>126</v>
-      </c>
-      <c r="I88" t="s">
-        <v>127</v>
-      </c>
-      <c r="J88" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>384</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C89" t="s">
-        <v>336</v>
-      </c>
-      <c r="D89" t="s">
-        <v>383</v>
-      </c>
-      <c r="E89" t="s">
-        <v>128</v>
       </c>
       <c r="F89" t="s">
         <v>104</v>
@@ -12181,59 +12721,59 @@
         <v>126</v>
       </c>
       <c r="I89" t="s">
+        <v>127</v>
+      </c>
+      <c r="J89" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>380</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C90" t="s">
+        <v>333</v>
+      </c>
+      <c r="D90" t="s">
+        <v>379</v>
+      </c>
+      <c r="E90" t="s">
         <v>128</v>
-      </c>
-      <c r="J89" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>413</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C90" t="s">
-        <v>302</v>
-      </c>
-      <c r="D90" t="s">
-        <v>414</v>
-      </c>
-      <c r="E90" t="s">
-        <v>415</v>
       </c>
       <c r="F90" t="s">
         <v>104</v>
       </c>
       <c r="G90" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H90" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I90" t="s">
-        <v>405</v>
+        <v>128</v>
       </c>
       <c r="J90" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C91" t="s">
         <v>302</v>
       </c>
       <c r="D91" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E91" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F91" t="s">
         <v>104</v>
@@ -12245,59 +12785,65 @@
         <v>125</v>
       </c>
       <c r="I91" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="J91" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K91" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C92" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="D92" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="E92" t="s">
-        <v>122</v>
+        <v>412</v>
       </c>
       <c r="F92" t="s">
         <v>104</v>
       </c>
       <c r="G92" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H92" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I92" t="s">
+        <v>402</v>
+      </c>
+      <c r="J92" t="s">
+        <v>325</v>
+      </c>
+      <c r="K92" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>362</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C93" t="s">
+        <v>333</v>
+      </c>
+      <c r="D93" t="s">
+        <v>363</v>
+      </c>
+      <c r="E93" t="s">
         <v>122</v>
-      </c>
-      <c r="J92" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>365</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C93" t="s">
-        <v>336</v>
-      </c>
-      <c r="D93" t="s">
-        <v>366</v>
-      </c>
-      <c r="E93" t="s">
-        <v>124</v>
       </c>
       <c r="F93" t="s">
         <v>104</v>
@@ -12309,30 +12855,66 @@
         <v>121</v>
       </c>
       <c r="I93" t="s">
+        <v>122</v>
+      </c>
+      <c r="J93" t="s">
+        <v>325</v>
+      </c>
+      <c r="K93" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>362</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C94" t="s">
+        <v>333</v>
+      </c>
+      <c r="D94" t="s">
+        <v>363</v>
+      </c>
+      <c r="E94" t="s">
         <v>124</v>
       </c>
-      <c r="J93" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F94" t="s">
         <v>104</v>
       </c>
       <c r="G94" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H94" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I94" t="s">
-        <v>318</v>
+        <v>124</v>
       </c>
       <c r="J94" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K94" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>426</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C95" t="s">
+        <v>333</v>
+      </c>
+      <c r="D95" t="s">
+        <v>427</v>
+      </c>
+      <c r="E95" t="s">
+        <v>429</v>
+      </c>
       <c r="F95" t="s">
         <v>104</v>
       </c>
@@ -12343,13 +12925,31 @@
         <v>129</v>
       </c>
       <c r="I95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J95" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>426</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C96" t="s">
+        <v>333</v>
+      </c>
+      <c r="D96" t="s">
+        <v>427</v>
+      </c>
+      <c r="E96" t="s">
+        <v>430</v>
+      </c>
       <c r="F96" t="s">
         <v>104</v>
       </c>
@@ -12360,13 +12960,31 @@
         <v>129</v>
       </c>
       <c r="I96" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J96" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="K96" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>426</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C97" t="s">
+        <v>333</v>
+      </c>
+      <c r="D97" t="s">
+        <v>427</v>
+      </c>
+      <c r="E97" t="s">
+        <v>431</v>
+      </c>
       <c r="F97" t="s">
         <v>104</v>
       </c>
@@ -12377,59 +12995,65 @@
         <v>129</v>
       </c>
       <c r="I97" t="s">
+        <v>320</v>
+      </c>
+      <c r="J97" t="s">
+        <v>325</v>
+      </c>
+      <c r="K97" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>426</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D98" t="s">
+        <v>427</v>
+      </c>
+      <c r="E98" t="s">
+        <v>432</v>
+      </c>
+      <c r="F98" t="s">
+        <v>104</v>
+      </c>
+      <c r="G98" t="s">
+        <v>129</v>
+      </c>
+      <c r="H98" t="s">
+        <v>129</v>
+      </c>
+      <c r="I98" t="s">
         <v>321</v>
       </c>
-      <c r="J97" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>379</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C98" t="s">
-        <v>336</v>
-      </c>
-      <c r="D98" t="s">
-        <v>377</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="J98" t="s">
+        <v>325</v>
+      </c>
+      <c r="K98" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>375</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C99" t="s">
+        <v>333</v>
+      </c>
+      <c r="D99" t="s">
+        <v>373</v>
+      </c>
+      <c r="E99" t="s">
         <v>132</v>
-      </c>
-      <c r="F98" t="s">
-        <v>130</v>
-      </c>
-      <c r="G98" t="s">
-        <v>131</v>
-      </c>
-      <c r="H98" t="s">
-        <v>131</v>
-      </c>
-      <c r="I98" t="s">
-        <v>132</v>
-      </c>
-      <c r="J98" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>379</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C99" t="s">
-        <v>336</v>
-      </c>
-      <c r="D99" t="s">
-        <v>377</v>
-      </c>
-      <c r="E99" t="s">
-        <v>133</v>
       </c>
       <c r="F99" t="s">
         <v>130</v>
@@ -12441,44 +13065,48 @@
         <v>131</v>
       </c>
       <c r="I99" t="s">
+        <v>132</v>
+      </c>
+      <c r="J99" t="s">
+        <v>325</v>
+      </c>
+      <c r="K99" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>375</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C100" t="s">
+        <v>333</v>
+      </c>
+      <c r="D100" t="s">
+        <v>373</v>
+      </c>
+      <c r="E100" t="s">
         <v>133</v>
       </c>
-      <c r="J99" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F100" t="s">
         <v>130</v>
       </c>
       <c r="G100" t="s">
-        <v>322</v>
+        <v>131</v>
       </c>
       <c r="H100" t="s">
-        <v>322</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>323</v>
+        <v>133</v>
       </c>
       <c r="J100" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F101" t="s">
-        <v>130</v>
-      </c>
-      <c r="G101" t="s">
-        <v>322</v>
-      </c>
-      <c r="H101" t="s">
-        <v>322</v>
-      </c>
-      <c r="I101" t="s">
-        <v>324</v>
-      </c>
-      <c r="J101" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="K100" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5133E1-5FB0-4C0B-96A8-3D8490CC1F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A537F07D-4A16-4E75-8472-09AB13B6A895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="438">
   <si>
     <t>url</t>
   </si>
@@ -1345,6 +1345,15 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>element_per_crop</t>
+  </si>
+  <si>
+    <t>supply,genebank_collections,origin_country,genus_count_origin_supply</t>
+  </si>
+  <si>
+    <t>supply,genebank_collections,origin_country,species_count_origin_supply</t>
   </si>
 </sst>
 </file>
@@ -9726,7 +9735,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10199,7 +10208,7 @@
         <v>422</v>
       </c>
       <c r="L13">
-        <v>237</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -10234,7 +10243,7 @@
         <v>422</v>
       </c>
       <c r="L14">
-        <v>237</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -10269,7 +10278,7 @@
         <v>422</v>
       </c>
       <c r="L15">
-        <v>237</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -10304,7 +10313,7 @@
         <v>422</v>
       </c>
       <c r="L16">
-        <v>237</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -10339,7 +10348,7 @@
         <v>422</v>
       </c>
       <c r="L17">
-        <v>237</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -10374,7 +10383,7 @@
         <v>422</v>
       </c>
       <c r="L18">
-        <v>237</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -10409,7 +10418,7 @@
         <v>422</v>
       </c>
       <c r="L19">
-        <v>237</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -10444,7 +10453,7 @@
         <v>422</v>
       </c>
       <c r="L20">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -10479,7 +10488,7 @@
         <v>422</v>
       </c>
       <c r="L21">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -10514,7 +10523,7 @@
         <v>422</v>
       </c>
       <c r="L22">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -10549,7 +10558,7 @@
         <v>422</v>
       </c>
       <c r="L23">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -12275,7 +12284,7 @@
         <v>422</v>
       </c>
       <c r="L76">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -12415,7 +12424,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>405</v>
       </c>
@@ -12450,7 +12459,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>358</v>
       </c>
@@ -12485,7 +12494,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>360</v>
       </c>
@@ -12520,7 +12529,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>360</v>
       </c>
@@ -12555,7 +12564,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>339</v>
       </c>
@@ -12587,10 +12596,13 @@
         <v>325</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="L85" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>339</v>
       </c>
@@ -12622,10 +12634,13 @@
         <v>325</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="L86" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>343</v>
       </c>
@@ -12657,10 +12672,13 @@
         <v>325</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="L87" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>343</v>
       </c>
@@ -12692,10 +12710,13 @@
         <v>325</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="L88" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>380</v>
       </c>
@@ -12727,7 +12748,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>380</v>
       </c>
@@ -12759,7 +12780,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>409</v>
       </c>
@@ -12794,7 +12815,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>409</v>
       </c>
@@ -12829,7 +12850,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>362</v>
       </c>
@@ -12864,7 +12885,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>362</v>
       </c>
@@ -12899,7 +12920,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>426</v>
       </c>
@@ -12934,7 +12955,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>426</v>
       </c>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A537F07D-4A16-4E75-8472-09AB13B6A895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B67E2F0-60CD-4BC1-9A67-352570B3A44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
     <sheet name="downloads" sheetId="1" r:id="rId2"/>
-    <sheet name="metrics" sheetId="2" r:id="rId3"/>
-    <sheet name="indicator" sheetId="8" r:id="rId4"/>
+    <sheet name="indicator" sheetId="8" r:id="rId3"/>
+    <sheet name="uses" sheetId="10" r:id="rId4"/>
+    <sheet name="metrics" sheetId="2" r:id="rId5"/>
+    <sheet name="indicator_old" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">indicator!$A$1:$J$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">indicator!$A$1:$J$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">indicator_old!$A$1:$J$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4470" uniqueCount="852">
   <si>
     <t>url</t>
   </si>
@@ -1354,13 +1357,1255 @@
   </si>
   <si>
     <t>supply,genebank_collections,origin_country,species_count_origin_supply</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>Abaca</t>
+  </si>
+  <si>
+    <t>Fiber</t>
+  </si>
+  <si>
+    <t>Acerola</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Achira</t>
+  </si>
+  <si>
+    <t>Root and Tuber</t>
+  </si>
+  <si>
+    <t>Ackee</t>
+  </si>
+  <si>
+    <t>Adlay</t>
+  </si>
+  <si>
+    <t>Cereal</t>
+  </si>
+  <si>
+    <t>Adzuki bean</t>
+  </si>
+  <si>
+    <t>Pulse</t>
+  </si>
+  <si>
+    <t>Aeschynomene</t>
+  </si>
+  <si>
+    <t>Forage</t>
+  </si>
+  <si>
+    <t>African eggplant</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Agave</t>
+  </si>
+  <si>
+    <t>Beverage</t>
+  </si>
+  <si>
+    <t>Agropyron</t>
+  </si>
+  <si>
+    <t>Agrostis</t>
+  </si>
+  <si>
+    <t>Ahipa</t>
+  </si>
+  <si>
+    <t>Albardine</t>
+  </si>
+  <si>
+    <t>Alfalfa</t>
+  </si>
+  <si>
+    <t>Allspice</t>
+  </si>
+  <si>
+    <t>Herb and spice</t>
+  </si>
+  <si>
+    <t>Almonds</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Alopecurus</t>
+  </si>
+  <si>
+    <t>Alysicarpus</t>
+  </si>
+  <si>
+    <t>Amaranth</t>
+  </si>
+  <si>
+    <t>Andropogon</t>
+  </si>
+  <si>
+    <t>Anise</t>
+  </si>
+  <si>
+    <t>Annato</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Apricot</t>
+  </si>
+  <si>
+    <t>Areca nuts</t>
+  </si>
+  <si>
+    <t>Arracacha</t>
+  </si>
+  <si>
+    <t>Arrhenatherum</t>
+  </si>
+  <si>
+    <t>Arrowroot</t>
+  </si>
+  <si>
+    <t>Artichokes</t>
+  </si>
+  <si>
+    <t>Asparagus</t>
+  </si>
+  <si>
+    <t>Astragalus</t>
+  </si>
+  <si>
+    <t>Atemoya</t>
+  </si>
+  <si>
+    <t>Atriplex</t>
+  </si>
+  <si>
+    <t>Avocado</t>
+  </si>
+  <si>
+    <t>Azarole</t>
+  </si>
+  <si>
+    <t>Babaco</t>
+  </si>
+  <si>
+    <t>Badian</t>
+  </si>
+  <si>
+    <t>Bambara bean</t>
+  </si>
+  <si>
+    <t>Bamboo shoot</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>Barley</t>
+  </si>
+  <si>
+    <t>Basil</t>
+  </si>
+  <si>
+    <t>Bay leaf</t>
+  </si>
+  <si>
+    <t>Beech nut</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Beets</t>
+  </si>
+  <si>
+    <t>Bitter gourd</t>
+  </si>
+  <si>
+    <t>Black gram</t>
+  </si>
+  <si>
+    <t>Black nightshade</t>
+  </si>
+  <si>
+    <t>Black salsify</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Brachiaria</t>
+  </si>
+  <si>
+    <t>Brazil nut</t>
+  </si>
+  <si>
+    <t>Breadfruit</t>
+  </si>
+  <si>
+    <t>Buckwheat</t>
+  </si>
+  <si>
+    <t>Butter-nut</t>
+  </si>
+  <si>
+    <t>Butternut squash</t>
+  </si>
+  <si>
+    <t>Cabbages</t>
+  </si>
+  <si>
+    <t>Cabbages and other brassicas</t>
+  </si>
+  <si>
+    <t>Caesarweed</t>
+  </si>
+  <si>
+    <t>Cainito</t>
+  </si>
+  <si>
+    <t>Calabash</t>
+  </si>
+  <si>
+    <t>Calopogonium</t>
+  </si>
+  <si>
+    <t>Canary seed</t>
+  </si>
+  <si>
+    <t>Candlenut</t>
+  </si>
+  <si>
+    <t>Canola</t>
+  </si>
+  <si>
+    <t>Capers</t>
+  </si>
+  <si>
+    <t>Carambola</t>
+  </si>
+  <si>
+    <t>Carapa</t>
+  </si>
+  <si>
+    <t>Caraway</t>
+  </si>
+  <si>
+    <t>Cardamoms</t>
+  </si>
+  <si>
+    <t>Carneros Yucca</t>
+  </si>
+  <si>
+    <t>Caroa</t>
+  </si>
+  <si>
+    <t>Carobs</t>
+  </si>
+  <si>
+    <t>Carrots</t>
+  </si>
+  <si>
+    <t>Cashews</t>
+  </si>
+  <si>
+    <t>Cassava</t>
+  </si>
+  <si>
+    <t>Castor bean</t>
+  </si>
+  <si>
+    <t>Ceara</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>Centrosema</t>
+  </si>
+  <si>
+    <t>Ceylon-spinach</t>
+  </si>
+  <si>
+    <t>Chayote</t>
+  </si>
+  <si>
+    <t>Cherimoya</t>
+  </si>
+  <si>
+    <t>Cherries</t>
+  </si>
+  <si>
+    <t>Chervil</t>
+  </si>
+  <si>
+    <t>Chestnuts</t>
+  </si>
+  <si>
+    <t>Chickpeas</t>
+  </si>
+  <si>
+    <t>Chicle</t>
+  </si>
+  <si>
+    <t>Chicory</t>
+  </si>
+  <si>
+    <t>Chillies and peppers</t>
+  </si>
+  <si>
+    <t>Chinotto</t>
+  </si>
+  <si>
+    <t>Chontadura</t>
+  </si>
+  <si>
+    <t>Chufa</t>
+  </si>
+  <si>
+    <t>Cinnamon</t>
+  </si>
+  <si>
+    <t>Citron</t>
+  </si>
+  <si>
+    <t>Citronella</t>
+  </si>
+  <si>
+    <t>Clovers</t>
+  </si>
+  <si>
+    <t>Cloves</t>
+  </si>
+  <si>
+    <t>Cocoa</t>
+  </si>
+  <si>
+    <t>Stimulant</t>
+  </si>
+  <si>
+    <t>Coconuts</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Common bean</t>
+  </si>
+  <si>
+    <t>Coriander</t>
+  </si>
+  <si>
+    <t>Coronilla</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>Cowpeas</t>
+  </si>
+  <si>
+    <t>Crambe</t>
+  </si>
+  <si>
+    <t>Cranberries</t>
+  </si>
+  <si>
+    <t>Cress</t>
+  </si>
+  <si>
+    <t>Cucumbers and gherkins</t>
+  </si>
+  <si>
+    <t>Cumin</t>
+  </si>
+  <si>
+    <t>Currants</t>
+  </si>
+  <si>
+    <t>Cushaw</t>
+  </si>
+  <si>
+    <t>Custard apple</t>
+  </si>
+  <si>
+    <t>Dactylis</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Desmodium</t>
+  </si>
+  <si>
+    <t>Devil's cotton</t>
+  </si>
+  <si>
+    <t>Dill</t>
+  </si>
+  <si>
+    <t>Durian</t>
+  </si>
+  <si>
+    <t>Eggplant</t>
+  </si>
+  <si>
+    <t>Elderberry</t>
+  </si>
+  <si>
+    <t>Esparto</t>
+  </si>
+  <si>
+    <t>Ethiopian rape</t>
+  </si>
+  <si>
+    <t>Faba beans</t>
+  </si>
+  <si>
+    <t>Feijoa</t>
+  </si>
+  <si>
+    <t>Fennel</t>
+  </si>
+  <si>
+    <t>Fenugreek</t>
+  </si>
+  <si>
+    <t>Fescue</t>
+  </si>
+  <si>
+    <t>Fig leaf gourd</t>
+  </si>
+  <si>
+    <t>Figs</t>
+  </si>
+  <si>
+    <t>Finger millet</t>
+  </si>
+  <si>
+    <t>Fique</t>
+  </si>
+  <si>
+    <t>Flax</t>
+  </si>
+  <si>
+    <t>Fonio</t>
+  </si>
+  <si>
+    <t>Foxtail millet</t>
+  </si>
+  <si>
+    <t>Galactia</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>Giant cabuya</t>
+  </si>
+  <si>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>Gooseberries</t>
+  </si>
+  <si>
+    <t>Grapefruits</t>
+  </si>
+  <si>
+    <t>Grapes</t>
+  </si>
+  <si>
+    <t>Grasspea</t>
+  </si>
+  <si>
+    <t>Groundnuts</t>
+  </si>
+  <si>
+    <t>Guavas</t>
+  </si>
+  <si>
+    <t>Guayule</t>
+  </si>
+  <si>
+    <t>Gutta-percha</t>
+  </si>
+  <si>
+    <t>Hazelnuts</t>
+  </si>
+  <si>
+    <t>Hedysarum</t>
+  </si>
+  <si>
+    <t>Hemp</t>
+  </si>
+  <si>
+    <t>Hops</t>
+  </si>
+  <si>
+    <t>Horseradish</t>
+  </si>
+  <si>
+    <t>Huckleberry</t>
+  </si>
+  <si>
+    <t>Indigofera</t>
+  </si>
+  <si>
+    <t>Jack bean</t>
+  </si>
+  <si>
+    <t>Jackfruit</t>
+  </si>
+  <si>
+    <t>Japanese millet</t>
+  </si>
+  <si>
+    <t>Jelutong</t>
+  </si>
+  <si>
+    <t>Jerusalem artichoke</t>
+  </si>
+  <si>
+    <t>Jicama</t>
+  </si>
+  <si>
+    <t>Jojoba</t>
+  </si>
+  <si>
+    <t>Jujube</t>
+  </si>
+  <si>
+    <t>Jute</t>
+  </si>
+  <si>
+    <t>Kaniwa</t>
+  </si>
+  <si>
+    <t>Kapok</t>
+  </si>
+  <si>
+    <t>Karite nuts</t>
+  </si>
+  <si>
+    <t>Kenaf</t>
+  </si>
+  <si>
+    <t>Kiwi fruit</t>
+  </si>
+  <si>
+    <t>Kiwicha</t>
+  </si>
+  <si>
+    <t>Kodo millet</t>
+  </si>
+  <si>
+    <t>Kola nuts</t>
+  </si>
+  <si>
+    <t>Kumquat</t>
+  </si>
+  <si>
+    <t>Lablab</t>
+  </si>
+  <si>
+    <t>Lavender</t>
+  </si>
+  <si>
+    <t>Leeks and other alliaceous vegetables</t>
+  </si>
+  <si>
+    <t>Lemons and limes</t>
+  </si>
+  <si>
+    <t>Lentils</t>
+  </si>
+  <si>
+    <t>Lespedeza</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>Leucaena</t>
+  </si>
+  <si>
+    <t>Licorice</t>
+  </si>
+  <si>
+    <t>Lima bean</t>
+  </si>
+  <si>
+    <t>Litchi</t>
+  </si>
+  <si>
+    <t>Little millet</t>
+  </si>
+  <si>
+    <t>Lolium</t>
+  </si>
+  <si>
+    <t>Longan</t>
+  </si>
+  <si>
+    <t>Loquat</t>
+  </si>
+  <si>
+    <t>Lotus</t>
+  </si>
+  <si>
+    <t>Luffa</t>
+  </si>
+  <si>
+    <t>Lupins</t>
+  </si>
+  <si>
+    <t>Maca</t>
+  </si>
+  <si>
+    <t>Macadamia nut</t>
+  </si>
+  <si>
+    <t>Macroptilium</t>
+  </si>
+  <si>
+    <t>Mahuwa</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Malabar spinach</t>
+  </si>
+  <si>
+    <t>Mamey sapote</t>
+  </si>
+  <si>
+    <t>Mammee</t>
+  </si>
+  <si>
+    <t>Mandarines</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Mangosteen</t>
+  </si>
+  <si>
+    <t>Maple sugar</t>
+  </si>
+  <si>
+    <t>Marjoram</t>
+  </si>
+  <si>
+    <t>Mashua</t>
+  </si>
+  <si>
+    <t>Mat bean</t>
+  </si>
+  <si>
+    <t>Mate</t>
+  </si>
+  <si>
+    <t>Mauka</t>
+  </si>
+  <si>
+    <t>Medlar</t>
+  </si>
+  <si>
+    <t>Melilotus</t>
+  </si>
+  <si>
+    <t>Melons</t>
+  </si>
+  <si>
+    <t>Mombin</t>
+  </si>
+  <si>
+    <t>Mulberry</t>
+  </si>
+  <si>
+    <t>Mung bean</t>
+  </si>
+  <si>
+    <t>Myrtle</t>
+  </si>
+  <si>
+    <t>Naranjilla</t>
+  </si>
+  <si>
+    <t>Neonotonia</t>
+  </si>
+  <si>
+    <t>New Zealand flax</t>
+  </si>
+  <si>
+    <t>New Zealand spinach</t>
+  </si>
+  <si>
+    <t>Noog</t>
+  </si>
+  <si>
+    <t>Nutmeg</t>
+  </si>
+  <si>
+    <t>Oats</t>
+  </si>
+  <si>
+    <t>Oca</t>
+  </si>
+  <si>
+    <t>Oil palm</t>
+  </si>
+  <si>
+    <t>Oiticica</t>
+  </si>
+  <si>
+    <t>Okra</t>
+  </si>
+  <si>
+    <t>Olives</t>
+  </si>
+  <si>
+    <t>Onions</t>
+  </si>
+  <si>
+    <t>Onobrychis</t>
+  </si>
+  <si>
+    <t>Orache</t>
+  </si>
+  <si>
+    <t>Oranges</t>
+  </si>
+  <si>
+    <t>Oregano</t>
+  </si>
+  <si>
+    <t>Ornithopus</t>
+  </si>
+  <si>
+    <t>Papayas</t>
+  </si>
+  <si>
+    <t>Parsley</t>
+  </si>
+  <si>
+    <t>Parsnip</t>
+  </si>
+  <si>
+    <t>Passionfruit</t>
+  </si>
+  <si>
+    <t>Pawpaw</t>
+  </si>
+  <si>
+    <t>Peaches and nectarines</t>
+  </si>
+  <si>
+    <t>Pearl millet</t>
+  </si>
+  <si>
+    <t>Pears</t>
+  </si>
+  <si>
+    <t>Peas</t>
+  </si>
+  <si>
+    <t>Pecan</t>
+  </si>
+  <si>
+    <t>Pepino</t>
+  </si>
+  <si>
+    <t>Pepper</t>
+  </si>
+  <si>
+    <t>Peppermint</t>
+  </si>
+  <si>
+    <t>Perilla</t>
+  </si>
+  <si>
+    <t>Persimmons</t>
+  </si>
+  <si>
+    <t>Phalaris</t>
+  </si>
+  <si>
+    <t>Phleum</t>
+  </si>
+  <si>
+    <t>Physic nut</t>
+  </si>
+  <si>
+    <t>Pigeonpeas</t>
+  </si>
+  <si>
+    <t>Pili nut</t>
+  </si>
+  <si>
+    <t>Pine nut</t>
+  </si>
+  <si>
+    <t>Pineapples</t>
+  </si>
+  <si>
+    <t>Pistachios</t>
+  </si>
+  <si>
+    <t>Plantains</t>
+  </si>
+  <si>
+    <t>Plums</t>
+  </si>
+  <si>
+    <t>Poa</t>
+  </si>
+  <si>
+    <t>Pomegranate</t>
+  </si>
+  <si>
+    <t>Pongamia oil</t>
+  </si>
+  <si>
+    <t>Poppies</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Prickly pear</t>
+  </si>
+  <si>
+    <t>Proso millet</t>
+  </si>
+  <si>
+    <t>Prosopis</t>
+  </si>
+  <si>
+    <t>Pueraria</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Purging croton</t>
+  </si>
+  <si>
+    <t>Pyrethrum</t>
+  </si>
+  <si>
+    <t>Quinces</t>
+  </si>
+  <si>
+    <t>Quinoa</t>
+  </si>
+  <si>
+    <t>Radish</t>
+  </si>
+  <si>
+    <t>Rambutan</t>
+  </si>
+  <si>
+    <t>Ramie</t>
+  </si>
+  <si>
+    <t>Rapeseed and mustards</t>
+  </si>
+  <si>
+    <t>Raspberries</t>
+  </si>
+  <si>
+    <t>Rhubarb</t>
+  </si>
+  <si>
+    <t>Rhynchosia</t>
+  </si>
+  <si>
+    <t>Rice (African)</t>
+  </si>
+  <si>
+    <t>Rice (Asian)</t>
+  </si>
+  <si>
+    <t>Rice bean</t>
+  </si>
+  <si>
+    <t>Roselle</t>
+  </si>
+  <si>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>Rubber, natural</t>
+  </si>
+  <si>
+    <t>Runner bean</t>
+  </si>
+  <si>
+    <t>Rye</t>
+  </si>
+  <si>
+    <t>Safflower</t>
+  </si>
+  <si>
+    <t>Saffron</t>
+  </si>
+  <si>
+    <t>Sago palm</t>
+  </si>
+  <si>
+    <t>Salsify</t>
+  </si>
+  <si>
+    <t>Salsola</t>
+  </si>
+  <si>
+    <t>Sapodilla</t>
+  </si>
+  <si>
+    <t>Savory</t>
+  </si>
+  <si>
+    <t>Service tree</t>
+  </si>
+  <si>
+    <t>Sesame</t>
+  </si>
+  <si>
+    <t>Sesbania</t>
+  </si>
+  <si>
+    <t>Shala tree</t>
+  </si>
+  <si>
+    <t>Sisal</t>
+  </si>
+  <si>
+    <t>Slippery cabbage</t>
+  </si>
+  <si>
+    <t>Snake gourd</t>
+  </si>
+  <si>
+    <t>Snake plant</t>
+  </si>
+  <si>
+    <t>Sorghum</t>
+  </si>
+  <si>
+    <t>Sorrel</t>
+  </si>
+  <si>
+    <t>Soursop</t>
+  </si>
+  <si>
+    <t>Soybeans</t>
+  </si>
+  <si>
+    <t>Spider plant</t>
+  </si>
+  <si>
+    <t>Spinach</t>
+  </si>
+  <si>
+    <t>Strawberries</t>
+  </si>
+  <si>
+    <t>Strawberry tree</t>
+  </si>
+  <si>
+    <t>Stylosanthes</t>
+  </si>
+  <si>
+    <t>Sugar apple</t>
+  </si>
+  <si>
+    <t>Sugar beets</t>
+  </si>
+  <si>
+    <t>Sugarcane</t>
+  </si>
+  <si>
+    <t>Sunflowers</t>
+  </si>
+  <si>
+    <t>Sunn hemp</t>
+  </si>
+  <si>
+    <t>Sweetpotatoes</t>
+  </si>
+  <si>
+    <t>Sword bean</t>
+  </si>
+  <si>
+    <t>Tallowtree</t>
+  </si>
+  <si>
+    <t>Tamarind</t>
+  </si>
+  <si>
+    <t>Taro</t>
+  </si>
+  <si>
+    <t>Tarragon</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Teff</t>
+  </si>
+  <si>
+    <t>Tepary bean</t>
+  </si>
+  <si>
+    <t>Thyme</t>
+  </si>
+  <si>
+    <t>Tobacco</t>
+  </si>
+  <si>
+    <t>Tomatillo</t>
+  </si>
+  <si>
+    <t>Tomatoes</t>
+  </si>
+  <si>
+    <t>Tree tomato</t>
+  </si>
+  <si>
+    <t>Tripsacum</t>
+  </si>
+  <si>
+    <t>Triticale</t>
+  </si>
+  <si>
+    <t>Tung nuts</t>
+  </si>
+  <si>
+    <t>Turmeric</t>
+  </si>
+  <si>
+    <t>Turnips</t>
+  </si>
+  <si>
+    <t>Ulluco</t>
+  </si>
+  <si>
+    <t>Vanilla</t>
+  </si>
+  <si>
+    <t>Velvet bean</t>
+  </si>
+  <si>
+    <t>Velvet leaf</t>
+  </si>
+  <si>
+    <t>Vetch</t>
+  </si>
+  <si>
+    <t>Walnuts</t>
+  </si>
+  <si>
+    <t>Water dropwort</t>
+  </si>
+  <si>
+    <t>Watercress</t>
+  </si>
+  <si>
+    <t>Watermelons</t>
+  </si>
+  <si>
+    <t>Wax gourd</t>
+  </si>
+  <si>
+    <t>West Indian Gherkin</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Wildrice</t>
+  </si>
+  <si>
+    <t>Winged bean</t>
+  </si>
+  <si>
+    <t>Yacon</t>
+  </si>
+  <si>
+    <t>Yams</t>
+  </si>
+  <si>
+    <t>Yautia, cocoyam</t>
+  </si>
+  <si>
+    <t>Year bean</t>
+  </si>
+  <si>
+    <t>Zornia</t>
+  </si>
+  <si>
+    <t>Zucchini</t>
+  </si>
+  <si>
+    <t>crop</t>
+  </si>
+  <si>
+    <t>count_countries_food_supply</t>
+  </si>
+  <si>
+    <t>count_countries_production</t>
+  </si>
+  <si>
+    <t>count_countries_trade</t>
+  </si>
+  <si>
+    <t>fat_supply_quantity_g</t>
+  </si>
+  <si>
+    <t>food_supply_kcal</t>
+  </si>
+  <si>
+    <t>food_supply_quantity_g</t>
+  </si>
+  <si>
+    <t>protein_supply_quantity_g</t>
+  </si>
+  <si>
+    <t>area_harvested_ha</t>
+  </si>
+  <si>
+    <t>production_quantity_tonnes</t>
+  </si>
+  <si>
+    <t>gross_production_value_us</t>
+  </si>
+  <si>
+    <t>export_quantity_tonnes</t>
+  </si>
+  <si>
+    <t>export_value_tonnes</t>
+  </si>
+  <si>
+    <t>import_quantity_tonnes</t>
+  </si>
+  <si>
+    <t>import_value_tonnes</t>
+  </si>
+  <si>
+    <t>gini_food_supply</t>
+  </si>
+  <si>
+    <t>gini_production</t>
+  </si>
+  <si>
+    <t>gini_trade</t>
+  </si>
+  <si>
+    <t>change_food_supply</t>
+  </si>
+  <si>
+    <t>change_production</t>
+  </si>
+  <si>
+    <t>change_trade</t>
+  </si>
+  <si>
+    <t>faostat_equality_of_use</t>
+  </si>
+  <si>
+    <t>faostat_change_over_time</t>
+  </si>
+  <si>
+    <t>germplasm_distributions_treaty</t>
+  </si>
+  <si>
+    <t>count_of_countries_recipients_distributions_treaty</t>
+  </si>
+  <si>
+    <t>gini_recipients_distributions_treaty</t>
+  </si>
+  <si>
+    <t>varietal_release_fao_wiews_taxon</t>
+  </si>
+  <si>
+    <t>varietal_registrations_upov_taxon</t>
+  </si>
+  <si>
+    <t>varietal_registrations_upov</t>
+  </si>
+  <si>
+    <t>genebank_collections_genus</t>
+  </si>
+  <si>
+    <t>genebank_collections_taxon</t>
+  </si>
+  <si>
+    <t>genebank_collections_mls_accessions_genus</t>
+  </si>
+  <si>
+    <t>genebank_collections_mls_accessions_taxon</t>
+  </si>
+  <si>
+    <t>genebank_collections_mls_institutions_genus</t>
+  </si>
+  <si>
+    <t>genebank_collections_mls_institutions_taxon</t>
+  </si>
+  <si>
+    <t>accessions_primaryregion_genus</t>
+  </si>
+  <si>
+    <t>accessions_primaryregion_taxon</t>
+  </si>
+  <si>
+    <t>botanic_collections_genus</t>
+  </si>
+  <si>
+    <t>botanic_collections_taxon</t>
+  </si>
+  <si>
+    <t>research_supply_gbif_genus</t>
+  </si>
+  <si>
+    <t>research_supply_gbif_taxon</t>
+  </si>
+  <si>
+    <t>accessions_sgsv_genus</t>
+  </si>
+  <si>
+    <t>accessions_sgsv_taxon</t>
+  </si>
+  <si>
+    <t>research_supply_gbif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1376,6 +2621,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1386,7 +2643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,12 +2661,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2305,6 +3571,6511 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2D5B62-00C5-4824-8379-4A4BEE02241D}">
+  <dimension ref="A1:L99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E74" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G85" sqref="G85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K1" t="s">
+        <v>420</v>
+      </c>
+      <c r="L1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="J2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="J3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="J4" t="s">
+        <v>325</v>
+      </c>
+      <c r="K4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="J5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="J6" t="s">
+        <v>325</v>
+      </c>
+      <c r="K6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="J7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="J8" t="s">
+        <v>325</v>
+      </c>
+      <c r="K8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="J9" t="s">
+        <v>325</v>
+      </c>
+      <c r="K9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="J10" t="s">
+        <v>325</v>
+      </c>
+      <c r="K10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="J11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" t="s">
+        <v>365</v>
+      </c>
+      <c r="E12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="J12" t="s">
+        <v>325</v>
+      </c>
+      <c r="K12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>809</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="K13" t="s">
+        <v>422</v>
+      </c>
+      <c r="L13">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>809</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="K14" t="s">
+        <v>422</v>
+      </c>
+      <c r="L14">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>809</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="K15" t="s">
+        <v>422</v>
+      </c>
+      <c r="L15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" t="s">
+        <v>307</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>809</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="K16" t="s">
+        <v>422</v>
+      </c>
+      <c r="L16">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>810</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="K17" t="s">
+        <v>422</v>
+      </c>
+      <c r="L17">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" t="s">
+        <v>229</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>810</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="K18" t="s">
+        <v>422</v>
+      </c>
+      <c r="L18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" t="s">
+        <v>300</v>
+      </c>
+      <c r="E19" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>810</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="K19" t="s">
+        <v>422</v>
+      </c>
+      <c r="L19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D20" t="s">
+        <v>365</v>
+      </c>
+      <c r="E20" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>811</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="K20" t="s">
+        <v>422</v>
+      </c>
+      <c r="L20">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" t="s">
+        <v>365</v>
+      </c>
+      <c r="E21" t="s">
+        <v>309</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>811</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="K21" t="s">
+        <v>422</v>
+      </c>
+      <c r="L21">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" t="s">
+        <v>365</v>
+      </c>
+      <c r="E22" t="s">
+        <v>310</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>811</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="K22" t="s">
+        <v>422</v>
+      </c>
+      <c r="L22">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C23" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" t="s">
+        <v>365</v>
+      </c>
+      <c r="E23" t="s">
+        <v>311</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>811</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="K23" t="s">
+        <v>422</v>
+      </c>
+      <c r="L23">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" t="s">
+        <v>302</v>
+      </c>
+      <c r="D24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E24" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="J24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D25" t="s">
+        <v>304</v>
+      </c>
+      <c r="E25" t="s">
+        <v>305</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="J25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="J26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C27" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" t="s">
+        <v>304</v>
+      </c>
+      <c r="E27" t="s">
+        <v>307</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="J27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" t="s">
+        <v>302</v>
+      </c>
+      <c r="D28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28" t="s">
+        <v>298</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="J28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" t="s">
+        <v>302</v>
+      </c>
+      <c r="D29" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="J29" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C30" t="s">
+        <v>302</v>
+      </c>
+      <c r="D30" t="s">
+        <v>300</v>
+      </c>
+      <c r="E30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="J30" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" t="s">
+        <v>365</v>
+      </c>
+      <c r="E31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="J31" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D32" t="s">
+        <v>365</v>
+      </c>
+      <c r="E32" t="s">
+        <v>309</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="J32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C33" t="s">
+        <v>302</v>
+      </c>
+      <c r="D33" t="s">
+        <v>365</v>
+      </c>
+      <c r="E33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="J33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" t="s">
+        <v>365</v>
+      </c>
+      <c r="E34" t="s">
+        <v>311</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="J34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C35" t="s">
+        <v>302</v>
+      </c>
+      <c r="D35" t="s">
+        <v>304</v>
+      </c>
+      <c r="E35" t="s">
+        <v>303</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="J35" t="s">
+        <v>325</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C36" t="s">
+        <v>302</v>
+      </c>
+      <c r="D36" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" t="s">
+        <v>305</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="J36" t="s">
+        <v>325</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C37" t="s">
+        <v>302</v>
+      </c>
+      <c r="D37" t="s">
+        <v>304</v>
+      </c>
+      <c r="E37" t="s">
+        <v>306</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="J37" t="s">
+        <v>325</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C38" t="s">
+        <v>302</v>
+      </c>
+      <c r="D38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E38" t="s">
+        <v>307</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="J38" t="s">
+        <v>325</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C39" t="s">
+        <v>302</v>
+      </c>
+      <c r="D39" t="s">
+        <v>297</v>
+      </c>
+      <c r="E39" t="s">
+        <v>298</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="J39" t="s">
+        <v>325</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C40" t="s">
+        <v>302</v>
+      </c>
+      <c r="D40" t="s">
+        <v>297</v>
+      </c>
+      <c r="E40" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="J40" t="s">
+        <v>325</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C41" t="s">
+        <v>302</v>
+      </c>
+      <c r="D41" t="s">
+        <v>300</v>
+      </c>
+      <c r="E41" t="s">
+        <v>299</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="J41" t="s">
+        <v>325</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C42" t="s">
+        <v>302</v>
+      </c>
+      <c r="D42" t="s">
+        <v>365</v>
+      </c>
+      <c r="E42" t="s">
+        <v>308</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="J42" t="s">
+        <v>325</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C43" t="s">
+        <v>302</v>
+      </c>
+      <c r="D43" t="s">
+        <v>365</v>
+      </c>
+      <c r="E43" t="s">
+        <v>309</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="J43" t="s">
+        <v>325</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C44" t="s">
+        <v>302</v>
+      </c>
+      <c r="D44" t="s">
+        <v>365</v>
+      </c>
+      <c r="E44" t="s">
+        <v>310</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="J44" t="s">
+        <v>325</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C45" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" t="s">
+        <v>365</v>
+      </c>
+      <c r="E45" t="s">
+        <v>311</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="J45" t="s">
+        <v>325</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C46" t="s">
+        <v>302</v>
+      </c>
+      <c r="D46" t="s">
+        <v>328</v>
+      </c>
+      <c r="E46" t="s">
+        <v>329</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" t="s">
+        <v>325</v>
+      </c>
+      <c r="K46" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>326</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C47" t="s">
+        <v>302</v>
+      </c>
+      <c r="D47" t="s">
+        <v>328</v>
+      </c>
+      <c r="E47" t="s">
+        <v>330</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+      <c r="J47" t="s">
+        <v>325</v>
+      </c>
+      <c r="K47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>326</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C48" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" t="s">
+        <v>328</v>
+      </c>
+      <c r="E48" t="s">
+        <v>331</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s">
+        <v>325</v>
+      </c>
+      <c r="K48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>426</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C49" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49" t="s">
+        <v>427</v>
+      </c>
+      <c r="E49" t="s">
+        <v>428</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" t="s">
+        <v>424</v>
+      </c>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s">
+        <v>325</v>
+      </c>
+      <c r="K49" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>332</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C50" t="s">
+        <v>333</v>
+      </c>
+      <c r="D50" t="s">
+        <v>334</v>
+      </c>
+      <c r="E50" t="s">
+        <v>336</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+      <c r="J50" t="s">
+        <v>325</v>
+      </c>
+      <c r="K50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>332</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C51" t="s">
+        <v>333</v>
+      </c>
+      <c r="D51" t="s">
+        <v>334</v>
+      </c>
+      <c r="E51" t="s">
+        <v>335</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J51" t="s">
+        <v>325</v>
+      </c>
+      <c r="K51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>332</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C52" t="s">
+        <v>333</v>
+      </c>
+      <c r="D52" t="s">
+        <v>334</v>
+      </c>
+      <c r="E52" t="s">
+        <v>337</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s">
+        <v>72</v>
+      </c>
+      <c r="J52" t="s">
+        <v>325</v>
+      </c>
+      <c r="K52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C53" t="s">
+        <v>302</v>
+      </c>
+      <c r="D53" t="s">
+        <v>304</v>
+      </c>
+      <c r="E53" t="s">
+        <v>303</v>
+      </c>
+      <c r="F53" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="J53" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C54" t="s">
+        <v>302</v>
+      </c>
+      <c r="D54" t="s">
+        <v>304</v>
+      </c>
+      <c r="E54" t="s">
+        <v>305</v>
+      </c>
+      <c r="F54" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="J54" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C55" t="s">
+        <v>302</v>
+      </c>
+      <c r="D55" t="s">
+        <v>304</v>
+      </c>
+      <c r="E55" t="s">
+        <v>306</v>
+      </c>
+      <c r="F55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="J55" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C56" t="s">
+        <v>302</v>
+      </c>
+      <c r="D56" t="s">
+        <v>304</v>
+      </c>
+      <c r="E56" t="s">
+        <v>307</v>
+      </c>
+      <c r="F56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="J56" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C57" t="s">
+        <v>302</v>
+      </c>
+      <c r="D57" t="s">
+        <v>297</v>
+      </c>
+      <c r="E57" t="s">
+        <v>298</v>
+      </c>
+      <c r="F57" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="J57" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C58" t="s">
+        <v>302</v>
+      </c>
+      <c r="D58" t="s">
+        <v>297</v>
+      </c>
+      <c r="E58" t="s">
+        <v>229</v>
+      </c>
+      <c r="F58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="J58" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C59" t="s">
+        <v>302</v>
+      </c>
+      <c r="D59" t="s">
+        <v>300</v>
+      </c>
+      <c r="E59" t="s">
+        <v>299</v>
+      </c>
+      <c r="F59" t="s">
+        <v>75</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="J59" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C60" t="s">
+        <v>302</v>
+      </c>
+      <c r="D60" t="s">
+        <v>365</v>
+      </c>
+      <c r="E60" t="s">
+        <v>308</v>
+      </c>
+      <c r="F60" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="J60" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D61" t="s">
+        <v>365</v>
+      </c>
+      <c r="E61" t="s">
+        <v>309</v>
+      </c>
+      <c r="F61" t="s">
+        <v>75</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="J61" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C62" t="s">
+        <v>302</v>
+      </c>
+      <c r="D62" t="s">
+        <v>365</v>
+      </c>
+      <c r="E62" t="s">
+        <v>310</v>
+      </c>
+      <c r="F62" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="J62" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C63" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" t="s">
+        <v>365</v>
+      </c>
+      <c r="E63" t="s">
+        <v>311</v>
+      </c>
+      <c r="F63" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="J63" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C64" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" t="s">
+        <v>304</v>
+      </c>
+      <c r="E64" t="s">
+        <v>303</v>
+      </c>
+      <c r="F64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="J64" t="s">
+        <v>325</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C65" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" t="s">
+        <v>304</v>
+      </c>
+      <c r="E65" t="s">
+        <v>305</v>
+      </c>
+      <c r="F65" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="J65" t="s">
+        <v>325</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C66" t="s">
+        <v>302</v>
+      </c>
+      <c r="D66" t="s">
+        <v>304</v>
+      </c>
+      <c r="E66" t="s">
+        <v>306</v>
+      </c>
+      <c r="F66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="J66" t="s">
+        <v>325</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C67" t="s">
+        <v>302</v>
+      </c>
+      <c r="D67" t="s">
+        <v>304</v>
+      </c>
+      <c r="E67" t="s">
+        <v>307</v>
+      </c>
+      <c r="F67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H67" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="J67" t="s">
+        <v>325</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C68" t="s">
+        <v>302</v>
+      </c>
+      <c r="D68" t="s">
+        <v>297</v>
+      </c>
+      <c r="E68" t="s">
+        <v>298</v>
+      </c>
+      <c r="F68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H68" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="J68" t="s">
+        <v>325</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C69" t="s">
+        <v>302</v>
+      </c>
+      <c r="D69" t="s">
+        <v>297</v>
+      </c>
+      <c r="E69" t="s">
+        <v>229</v>
+      </c>
+      <c r="F69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H69" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="J69" t="s">
+        <v>325</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C70" t="s">
+        <v>302</v>
+      </c>
+      <c r="D70" t="s">
+        <v>300</v>
+      </c>
+      <c r="E70" t="s">
+        <v>299</v>
+      </c>
+      <c r="F70" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H70" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="J70" t="s">
+        <v>325</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D71" t="s">
+        <v>365</v>
+      </c>
+      <c r="E71" t="s">
+        <v>308</v>
+      </c>
+      <c r="F71" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H71" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="J71" t="s">
+        <v>325</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C72" t="s">
+        <v>302</v>
+      </c>
+      <c r="D72" t="s">
+        <v>365</v>
+      </c>
+      <c r="E72" t="s">
+        <v>309</v>
+      </c>
+      <c r="F72" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="J72" t="s">
+        <v>325</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C73" t="s">
+        <v>302</v>
+      </c>
+      <c r="D73" t="s">
+        <v>365</v>
+      </c>
+      <c r="E73" t="s">
+        <v>310</v>
+      </c>
+      <c r="F73" t="s">
+        <v>75</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H73" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="J73" t="s">
+        <v>325</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>222</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C74" t="s">
+        <v>302</v>
+      </c>
+      <c r="D74" t="s">
+        <v>365</v>
+      </c>
+      <c r="E74" t="s">
+        <v>311</v>
+      </c>
+      <c r="F74" t="s">
+        <v>75</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="H74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="J74" t="s">
+        <v>325</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>351</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C75" t="s">
+        <v>302</v>
+      </c>
+      <c r="D75" t="s">
+        <v>256</v>
+      </c>
+      <c r="E75" t="s">
+        <v>356</v>
+      </c>
+      <c r="F75" t="s">
+        <v>88</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="J75" t="s">
+        <v>325</v>
+      </c>
+      <c r="K75" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>351</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C76" t="s">
+        <v>302</v>
+      </c>
+      <c r="D76" t="s">
+        <v>256</v>
+      </c>
+      <c r="E76" t="s">
+        <v>355</v>
+      </c>
+      <c r="F76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="J76" t="s">
+        <v>325</v>
+      </c>
+      <c r="K76" t="s">
+        <v>422</v>
+      </c>
+      <c r="L76">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>351</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C77" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" t="s">
+        <v>256</v>
+      </c>
+      <c r="E77" t="s">
+        <v>353</v>
+      </c>
+      <c r="F77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="J77" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>347</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C78" t="s">
+        <v>302</v>
+      </c>
+      <c r="D78" t="s">
+        <v>348</v>
+      </c>
+      <c r="E78" t="s">
+        <v>349</v>
+      </c>
+      <c r="F78" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="J78" t="s">
+        <v>325</v>
+      </c>
+      <c r="K78" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>347</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C79" t="s">
+        <v>302</v>
+      </c>
+      <c r="D79" t="s">
+        <v>348</v>
+      </c>
+      <c r="E79" t="s">
+        <v>350</v>
+      </c>
+      <c r="F79" t="s">
+        <v>88</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="J79" t="s">
+        <v>325</v>
+      </c>
+      <c r="K79" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>405</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C80" t="s">
+        <v>302</v>
+      </c>
+      <c r="D80" t="s">
+        <v>406</v>
+      </c>
+      <c r="E80" t="s">
+        <v>408</v>
+      </c>
+      <c r="F80" t="s">
+        <v>88</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I80" t="s">
+        <v>834</v>
+      </c>
+      <c r="J80" t="s">
+        <v>325</v>
+      </c>
+      <c r="K80" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>358</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C81" t="s">
+        <v>333</v>
+      </c>
+      <c r="D81" t="s">
+        <v>359</v>
+      </c>
+      <c r="E81" t="s">
+        <v>101</v>
+      </c>
+      <c r="F81" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="I81" t="s">
+        <v>835</v>
+      </c>
+      <c r="J81" t="s">
+        <v>325</v>
+      </c>
+      <c r="K81" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>360</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C82" t="s">
+        <v>333</v>
+      </c>
+      <c r="D82" t="s">
+        <v>361</v>
+      </c>
+      <c r="E82" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" t="s">
+        <v>104</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="J82" t="s">
+        <v>325</v>
+      </c>
+      <c r="K82" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>362</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C92" t="s">
+        <v>333</v>
+      </c>
+      <c r="D92" t="s">
+        <v>363</v>
+      </c>
+      <c r="E92" t="s">
+        <v>122</v>
+      </c>
+      <c r="F92" t="s">
+        <v>104</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="J92" t="s">
+        <v>325</v>
+      </c>
+      <c r="K92" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>362</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C93" t="s">
+        <v>333</v>
+      </c>
+      <c r="D93" t="s">
+        <v>363</v>
+      </c>
+      <c r="E93" t="s">
+        <v>124</v>
+      </c>
+      <c r="F93" t="s">
+        <v>104</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="J93" t="s">
+        <v>325</v>
+      </c>
+      <c r="K93" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>426</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C94" t="s">
+        <v>333</v>
+      </c>
+      <c r="D94" t="s">
+        <v>427</v>
+      </c>
+      <c r="E94" t="s">
+        <v>429</v>
+      </c>
+      <c r="F94" t="s">
+        <v>104</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="J94" t="s">
+        <v>325</v>
+      </c>
+      <c r="K94" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>426</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C95" t="s">
+        <v>333</v>
+      </c>
+      <c r="D95" t="s">
+        <v>427</v>
+      </c>
+      <c r="E95" t="s">
+        <v>430</v>
+      </c>
+      <c r="F95" t="s">
+        <v>104</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="J95" t="s">
+        <v>325</v>
+      </c>
+      <c r="K95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>426</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C96" t="s">
+        <v>333</v>
+      </c>
+      <c r="D96" t="s">
+        <v>427</v>
+      </c>
+      <c r="E96" t="s">
+        <v>431</v>
+      </c>
+      <c r="F96" t="s">
+        <v>104</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="J96" t="s">
+        <v>325</v>
+      </c>
+      <c r="K96" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>426</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C97" t="s">
+        <v>333</v>
+      </c>
+      <c r="D97" t="s">
+        <v>427</v>
+      </c>
+      <c r="E97" t="s">
+        <v>432</v>
+      </c>
+      <c r="F97" t="s">
+        <v>104</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="J97" t="s">
+        <v>325</v>
+      </c>
+      <c r="K97" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>375</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D98" t="s">
+        <v>373</v>
+      </c>
+      <c r="E98" t="s">
+        <v>132</v>
+      </c>
+      <c r="F98" t="s">
+        <v>130</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="J98" t="s">
+        <v>325</v>
+      </c>
+      <c r="K98" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>375</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C99" t="s">
+        <v>333</v>
+      </c>
+      <c r="D99" t="s">
+        <v>373</v>
+      </c>
+      <c r="E99" t="s">
+        <v>133</v>
+      </c>
+      <c r="F99" t="s">
+        <v>130</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="J99" t="s">
+        <v>325</v>
+      </c>
+      <c r="K99" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE54FE0-6187-407D-93A1-F9E77A707525}">
+  <dimension ref="A1:B371"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>459</v>
+      </c>
+      <c r="B15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>461</v>
+      </c>
+      <c r="B17" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>463</v>
+      </c>
+      <c r="B18" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>465</v>
+      </c>
+      <c r="B19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>466</v>
+      </c>
+      <c r="B20" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>467</v>
+      </c>
+      <c r="B21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>468</v>
+      </c>
+      <c r="B22" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>469</v>
+      </c>
+      <c r="B23" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>470</v>
+      </c>
+      <c r="B24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>471</v>
+      </c>
+      <c r="B25" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>472</v>
+      </c>
+      <c r="B26" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>473</v>
+      </c>
+      <c r="B27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>474</v>
+      </c>
+      <c r="B28" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>475</v>
+      </c>
+      <c r="B29" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>476</v>
+      </c>
+      <c r="B30" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>477</v>
+      </c>
+      <c r="B31" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>478</v>
+      </c>
+      <c r="B32" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>479</v>
+      </c>
+      <c r="B33" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>480</v>
+      </c>
+      <c r="B34" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>481</v>
+      </c>
+      <c r="B35" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>482</v>
+      </c>
+      <c r="B36" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>483</v>
+      </c>
+      <c r="B37" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>484</v>
+      </c>
+      <c r="B38" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>485</v>
+      </c>
+      <c r="B39" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>486</v>
+      </c>
+      <c r="B40" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B41" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>488</v>
+      </c>
+      <c r="B42" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>489</v>
+      </c>
+      <c r="B43" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>489</v>
+      </c>
+      <c r="B44" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>490</v>
+      </c>
+      <c r="B45" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>491</v>
+      </c>
+      <c r="B46" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>492</v>
+      </c>
+      <c r="B47" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>494</v>
+      </c>
+      <c r="B48" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>495</v>
+      </c>
+      <c r="B49" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>496</v>
+      </c>
+      <c r="B50" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>497</v>
+      </c>
+      <c r="B51" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>498</v>
+      </c>
+      <c r="B52" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>499</v>
+      </c>
+      <c r="B53" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>500</v>
+      </c>
+      <c r="B54" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>501</v>
+      </c>
+      <c r="B55" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>502</v>
+      </c>
+      <c r="B56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>503</v>
+      </c>
+      <c r="B57" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>504</v>
+      </c>
+      <c r="B58" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>505</v>
+      </c>
+      <c r="B59" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>506</v>
+      </c>
+      <c r="B60" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>507</v>
+      </c>
+      <c r="B61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>508</v>
+      </c>
+      <c r="B62" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>509</v>
+      </c>
+      <c r="B63" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>510</v>
+      </c>
+      <c r="B64" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>511</v>
+      </c>
+      <c r="B65" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>512</v>
+      </c>
+      <c r="B66" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>513</v>
+      </c>
+      <c r="B67" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>514</v>
+      </c>
+      <c r="B68" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>515</v>
+      </c>
+      <c r="B69" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>516</v>
+      </c>
+      <c r="B70" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>517</v>
+      </c>
+      <c r="B71" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>518</v>
+      </c>
+      <c r="B72" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>519</v>
+      </c>
+      <c r="B73" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>520</v>
+      </c>
+      <c r="B74" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>521</v>
+      </c>
+      <c r="B75" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>522</v>
+      </c>
+      <c r="B76" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>523</v>
+      </c>
+      <c r="B77" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>524</v>
+      </c>
+      <c r="B78" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>525</v>
+      </c>
+      <c r="B79" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>526</v>
+      </c>
+      <c r="B80" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>527</v>
+      </c>
+      <c r="B81" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>529</v>
+      </c>
+      <c r="B82" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>530</v>
+      </c>
+      <c r="B83" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>531</v>
+      </c>
+      <c r="B84" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>532</v>
+      </c>
+      <c r="B85" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>533</v>
+      </c>
+      <c r="B86" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>534</v>
+      </c>
+      <c r="B87" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>535</v>
+      </c>
+      <c r="B88" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>536</v>
+      </c>
+      <c r="B89" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>537</v>
+      </c>
+      <c r="B90" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>538</v>
+      </c>
+      <c r="B91" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>539</v>
+      </c>
+      <c r="B92" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>540</v>
+      </c>
+      <c r="B93" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>540</v>
+      </c>
+      <c r="B94" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>541</v>
+      </c>
+      <c r="B95" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>542</v>
+      </c>
+      <c r="B96" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>542</v>
+      </c>
+      <c r="B97" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>543</v>
+      </c>
+      <c r="B98" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>544</v>
+      </c>
+      <c r="B99" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>545</v>
+      </c>
+      <c r="B100" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>546</v>
+      </c>
+      <c r="B101" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>547</v>
+      </c>
+      <c r="B102" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>548</v>
+      </c>
+      <c r="B103" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>549</v>
+      </c>
+      <c r="B104" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>549</v>
+      </c>
+      <c r="B105" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>551</v>
+      </c>
+      <c r="B106" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>552</v>
+      </c>
+      <c r="B107" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>553</v>
+      </c>
+      <c r="B108" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>553</v>
+      </c>
+      <c r="B109" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>554</v>
+      </c>
+      <c r="B110" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>555</v>
+      </c>
+      <c r="B111" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>556</v>
+      </c>
+      <c r="B112" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>556</v>
+      </c>
+      <c r="B113" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>557</v>
+      </c>
+      <c r="B114" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>558</v>
+      </c>
+      <c r="B115" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>559</v>
+      </c>
+      <c r="B116" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>560</v>
+      </c>
+      <c r="B117" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>561</v>
+      </c>
+      <c r="B118" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>562</v>
+      </c>
+      <c r="B119" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>563</v>
+      </c>
+      <c r="B120" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>564</v>
+      </c>
+      <c r="B121" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>565</v>
+      </c>
+      <c r="B122" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>566</v>
+      </c>
+      <c r="B123" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>567</v>
+      </c>
+      <c r="B124" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>568</v>
+      </c>
+      <c r="B125" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>569</v>
+      </c>
+      <c r="B126" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>570</v>
+      </c>
+      <c r="B127" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>571</v>
+      </c>
+      <c r="B128" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>572</v>
+      </c>
+      <c r="B129" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>573</v>
+      </c>
+      <c r="B130" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>574</v>
+      </c>
+      <c r="B131" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>575</v>
+      </c>
+      <c r="B132" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>576</v>
+      </c>
+      <c r="B133" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>577</v>
+      </c>
+      <c r="B134" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>578</v>
+      </c>
+      <c r="B135" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>579</v>
+      </c>
+      <c r="B136" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>580</v>
+      </c>
+      <c r="B137" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>581</v>
+      </c>
+      <c r="B138" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>582</v>
+      </c>
+      <c r="B139" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>583</v>
+      </c>
+      <c r="B140" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>584</v>
+      </c>
+      <c r="B141" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>585</v>
+      </c>
+      <c r="B142" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>585</v>
+      </c>
+      <c r="B143" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>586</v>
+      </c>
+      <c r="B144" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>587</v>
+      </c>
+      <c r="B145" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>588</v>
+      </c>
+      <c r="B146" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>589</v>
+      </c>
+      <c r="B147" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>590</v>
+      </c>
+      <c r="B148" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>591</v>
+      </c>
+      <c r="B149" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>592</v>
+      </c>
+      <c r="B150" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>593</v>
+      </c>
+      <c r="B151" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>594</v>
+      </c>
+      <c r="B152" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>594</v>
+      </c>
+      <c r="B153" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>595</v>
+      </c>
+      <c r="B154" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>596</v>
+      </c>
+      <c r="B155" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>596</v>
+      </c>
+      <c r="B156" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>597</v>
+      </c>
+      <c r="B157" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>598</v>
+      </c>
+      <c r="B158" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>599</v>
+      </c>
+      <c r="B159" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>600</v>
+      </c>
+      <c r="B160" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>601</v>
+      </c>
+      <c r="B161" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>602</v>
+      </c>
+      <c r="B162" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>602</v>
+      </c>
+      <c r="B163" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>603</v>
+      </c>
+      <c r="B164" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>604</v>
+      </c>
+      <c r="B165" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>605</v>
+      </c>
+      <c r="B166" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>606</v>
+      </c>
+      <c r="B167" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>607</v>
+      </c>
+      <c r="B168" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>608</v>
+      </c>
+      <c r="B169" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>609</v>
+      </c>
+      <c r="B170" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>610</v>
+      </c>
+      <c r="B171" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>611</v>
+      </c>
+      <c r="B172" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>612</v>
+      </c>
+      <c r="B173" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>613</v>
+      </c>
+      <c r="B174" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>614</v>
+      </c>
+      <c r="B175" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>615</v>
+      </c>
+      <c r="B176" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>616</v>
+      </c>
+      <c r="B177" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>617</v>
+      </c>
+      <c r="B178" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>618</v>
+      </c>
+      <c r="B179" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>619</v>
+      </c>
+      <c r="B180" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>620</v>
+      </c>
+      <c r="B181" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>621</v>
+      </c>
+      <c r="B182" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>622</v>
+      </c>
+      <c r="B183" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>623</v>
+      </c>
+      <c r="B184" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>624</v>
+      </c>
+      <c r="B185" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>625</v>
+      </c>
+      <c r="B186" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>626</v>
+      </c>
+      <c r="B187" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>627</v>
+      </c>
+      <c r="B188" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>628</v>
+      </c>
+      <c r="B189" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>629</v>
+      </c>
+      <c r="B190" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>630</v>
+      </c>
+      <c r="B191" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>631</v>
+      </c>
+      <c r="B192" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>632</v>
+      </c>
+      <c r="B193" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>633</v>
+      </c>
+      <c r="B194" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>634</v>
+      </c>
+      <c r="B195" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>635</v>
+      </c>
+      <c r="B196" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>636</v>
+      </c>
+      <c r="B197" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>637</v>
+      </c>
+      <c r="B198" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>638</v>
+      </c>
+      <c r="B199" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>639</v>
+      </c>
+      <c r="B200" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>640</v>
+      </c>
+      <c r="B201" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>641</v>
+      </c>
+      <c r="B202" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>642</v>
+      </c>
+      <c r="B203" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>643</v>
+      </c>
+      <c r="B204" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>644</v>
+      </c>
+      <c r="B205" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>645</v>
+      </c>
+      <c r="B206" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>646</v>
+      </c>
+      <c r="B207" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>647</v>
+      </c>
+      <c r="B208" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>647</v>
+      </c>
+      <c r="B209" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>647</v>
+      </c>
+      <c r="B210" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>649</v>
+      </c>
+      <c r="B211" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>650</v>
+      </c>
+      <c r="B212" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>651</v>
+      </c>
+      <c r="B213" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>652</v>
+      </c>
+      <c r="B214" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>653</v>
+      </c>
+      <c r="B215" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>654</v>
+      </c>
+      <c r="B216" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>655</v>
+      </c>
+      <c r="B217" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>656</v>
+      </c>
+      <c r="B218" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>657</v>
+      </c>
+      <c r="B219" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>658</v>
+      </c>
+      <c r="B220" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>659</v>
+      </c>
+      <c r="B221" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>660</v>
+      </c>
+      <c r="B222" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>661</v>
+      </c>
+      <c r="B223" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>662</v>
+      </c>
+      <c r="B224" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>663</v>
+      </c>
+      <c r="B225" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>664</v>
+      </c>
+      <c r="B226" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>665</v>
+      </c>
+      <c r="B227" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>666</v>
+      </c>
+      <c r="B228" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>667</v>
+      </c>
+      <c r="B229" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>668</v>
+      </c>
+      <c r="B230" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>669</v>
+      </c>
+      <c r="B231" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>670</v>
+      </c>
+      <c r="B232" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>671</v>
+      </c>
+      <c r="B233" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>672</v>
+      </c>
+      <c r="B234" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>673</v>
+      </c>
+      <c r="B235" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>674</v>
+      </c>
+      <c r="B236" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>675</v>
+      </c>
+      <c r="B237" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>676</v>
+      </c>
+      <c r="B238" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>677</v>
+      </c>
+      <c r="B239" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>678</v>
+      </c>
+      <c r="B240" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>679</v>
+      </c>
+      <c r="B241" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>680</v>
+      </c>
+      <c r="B242" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>681</v>
+      </c>
+      <c r="B243" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>682</v>
+      </c>
+      <c r="B244" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>683</v>
+      </c>
+      <c r="B245" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>684</v>
+      </c>
+      <c r="B246" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>685</v>
+      </c>
+      <c r="B247" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>686</v>
+      </c>
+      <c r="B248" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>687</v>
+      </c>
+      <c r="B249" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>688</v>
+      </c>
+      <c r="B250" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>689</v>
+      </c>
+      <c r="B251" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>690</v>
+      </c>
+      <c r="B252" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>691</v>
+      </c>
+      <c r="B253" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>692</v>
+      </c>
+      <c r="B254" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>693</v>
+      </c>
+      <c r="B255" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>694</v>
+      </c>
+      <c r="B256" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>695</v>
+      </c>
+      <c r="B257" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>696</v>
+      </c>
+      <c r="B258" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>697</v>
+      </c>
+      <c r="B259" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>698</v>
+      </c>
+      <c r="B260" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>699</v>
+      </c>
+      <c r="B261" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>700</v>
+      </c>
+      <c r="B262" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>701</v>
+      </c>
+      <c r="B263" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>702</v>
+      </c>
+      <c r="B264" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>703</v>
+      </c>
+      <c r="B265" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>704</v>
+      </c>
+      <c r="B266" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>705</v>
+      </c>
+      <c r="B267" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>706</v>
+      </c>
+      <c r="B268" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>707</v>
+      </c>
+      <c r="B269" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>708</v>
+      </c>
+      <c r="B270" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>709</v>
+      </c>
+      <c r="B271" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>710</v>
+      </c>
+      <c r="B272" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>711</v>
+      </c>
+      <c r="B273" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>712</v>
+      </c>
+      <c r="B274" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>713</v>
+      </c>
+      <c r="B275" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>714</v>
+      </c>
+      <c r="B276" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>714</v>
+      </c>
+      <c r="B277" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>715</v>
+      </c>
+      <c r="B278" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>716</v>
+      </c>
+      <c r="B279" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>717</v>
+      </c>
+      <c r="B280" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>718</v>
+      </c>
+      <c r="B281" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>719</v>
+      </c>
+      <c r="B282" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>720</v>
+      </c>
+      <c r="B283" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>721</v>
+      </c>
+      <c r="B284" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>722</v>
+      </c>
+      <c r="B285" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>723</v>
+      </c>
+      <c r="B286" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>724</v>
+      </c>
+      <c r="B287" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>725</v>
+      </c>
+      <c r="B288" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>726</v>
+      </c>
+      <c r="B289" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>727</v>
+      </c>
+      <c r="B290" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>728</v>
+      </c>
+      <c r="B291" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>729</v>
+      </c>
+      <c r="B292" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>730</v>
+      </c>
+      <c r="B293" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>731</v>
+      </c>
+      <c r="B294" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>732</v>
+      </c>
+      <c r="B295" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>733</v>
+      </c>
+      <c r="B296" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>734</v>
+      </c>
+      <c r="B297" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>735</v>
+      </c>
+      <c r="B298" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>736</v>
+      </c>
+      <c r="B299" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>737</v>
+      </c>
+      <c r="B300" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>738</v>
+      </c>
+      <c r="B301" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>739</v>
+      </c>
+      <c r="B302" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>740</v>
+      </c>
+      <c r="B303" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>741</v>
+      </c>
+      <c r="B304" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>742</v>
+      </c>
+      <c r="B305" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>743</v>
+      </c>
+      <c r="B306" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>744</v>
+      </c>
+      <c r="B307" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>745</v>
+      </c>
+      <c r="B308" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>746</v>
+      </c>
+      <c r="B309" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>747</v>
+      </c>
+      <c r="B310" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>748</v>
+      </c>
+      <c r="B311" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>749</v>
+      </c>
+      <c r="B312" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>750</v>
+      </c>
+      <c r="B313" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>751</v>
+      </c>
+      <c r="B314" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>752</v>
+      </c>
+      <c r="B315" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>753</v>
+      </c>
+      <c r="B316" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>754</v>
+      </c>
+      <c r="B317" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>755</v>
+      </c>
+      <c r="B318" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>756</v>
+      </c>
+      <c r="B319" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>757</v>
+      </c>
+      <c r="B320" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>758</v>
+      </c>
+      <c r="B321" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>758</v>
+      </c>
+      <c r="B322" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>759</v>
+      </c>
+      <c r="B323" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>760</v>
+      </c>
+      <c r="B324" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>761</v>
+      </c>
+      <c r="B325" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>762</v>
+      </c>
+      <c r="B326" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>763</v>
+      </c>
+      <c r="B327" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>764</v>
+      </c>
+      <c r="B328" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>765</v>
+      </c>
+      <c r="B329" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>766</v>
+      </c>
+      <c r="B330" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>767</v>
+      </c>
+      <c r="B331" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>768</v>
+      </c>
+      <c r="B332" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>769</v>
+      </c>
+      <c r="B333" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>770</v>
+      </c>
+      <c r="B334" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>771</v>
+      </c>
+      <c r="B335" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>772</v>
+      </c>
+      <c r="B336" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>773</v>
+      </c>
+      <c r="B337" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>774</v>
+      </c>
+      <c r="B338" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>775</v>
+      </c>
+      <c r="B339" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>776</v>
+      </c>
+      <c r="B340" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>777</v>
+      </c>
+      <c r="B341" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>778</v>
+      </c>
+      <c r="B342" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>779</v>
+      </c>
+      <c r="B343" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>780</v>
+      </c>
+      <c r="B344" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>781</v>
+      </c>
+      <c r="B345" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>782</v>
+      </c>
+      <c r="B346" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>783</v>
+      </c>
+      <c r="B347" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>784</v>
+      </c>
+      <c r="B348" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>785</v>
+      </c>
+      <c r="B349" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>786</v>
+      </c>
+      <c r="B350" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>787</v>
+      </c>
+      <c r="B351" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>788</v>
+      </c>
+      <c r="B352" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>789</v>
+      </c>
+      <c r="B353" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>790</v>
+      </c>
+      <c r="B354" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>791</v>
+      </c>
+      <c r="B355" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>792</v>
+      </c>
+      <c r="B356" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>793</v>
+      </c>
+      <c r="B357" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>794</v>
+      </c>
+      <c r="B358" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>795</v>
+      </c>
+      <c r="B359" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>796</v>
+      </c>
+      <c r="B360" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>797</v>
+      </c>
+      <c r="B361" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>798</v>
+      </c>
+      <c r="B362" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>799</v>
+      </c>
+      <c r="B363" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>800</v>
+      </c>
+      <c r="B364" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>801</v>
+      </c>
+      <c r="B365" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>802</v>
+      </c>
+      <c r="B366" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>803</v>
+      </c>
+      <c r="B367" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>804</v>
+      </c>
+      <c r="B368" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>805</v>
+      </c>
+      <c r="B369" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>806</v>
+      </c>
+      <c r="B370" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>807</v>
+      </c>
+      <c r="B371" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5999D9A-B887-407B-9ED8-3246786298CD}">
   <dimension ref="A1:O161"/>
   <sheetViews>
@@ -9730,12 +17501,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2D5B62-00C5-4824-8379-4A4BEE02241D}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05497BFE-A5B8-482B-AEA5-A6788DC9A33B}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10849,7 +18620,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>222</v>
       </c>
@@ -10881,7 +18652,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>222</v>
       </c>
@@ -10913,7 +18684,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>222</v>
       </c>
@@ -10944,8 +18715,14 @@
       <c r="J35" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K35" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>222</v>
       </c>
@@ -10976,8 +18753,14 @@
       <c r="J36" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K36" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>222</v>
       </c>
@@ -11008,8 +18791,14 @@
       <c r="J37" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K37" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>222</v>
       </c>
@@ -11040,8 +18829,14 @@
       <c r="J38" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K38" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>222</v>
       </c>
@@ -11072,8 +18867,14 @@
       <c r="J39" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K39" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>222</v>
       </c>
@@ -11104,8 +18905,14 @@
       <c r="J40" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K40" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>222</v>
       </c>
@@ -11136,8 +18943,14 @@
       <c r="J41" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K41" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>222</v>
       </c>
@@ -11168,8 +18981,14 @@
       <c r="J42" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>222</v>
       </c>
@@ -11200,8 +19019,14 @@
       <c r="J43" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>222</v>
       </c>
@@ -11232,8 +19057,14 @@
       <c r="J44" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>222</v>
       </c>
@@ -11264,8 +19095,14 @@
       <c r="J45" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>326</v>
       </c>
@@ -11300,7 +19137,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>326</v>
       </c>
@@ -11335,7 +19172,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>326</v>
       </c>
@@ -11370,7 +19207,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>426</v>
       </c>
@@ -11405,7 +19242,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>332</v>
       </c>
@@ -11440,7 +19277,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>332</v>
       </c>
@@ -11475,7 +19312,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>332</v>
       </c>
@@ -11510,7 +19347,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>222</v>
       </c>
@@ -11542,7 +19379,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>222</v>
       </c>
@@ -11574,7 +19411,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>222</v>
       </c>
@@ -11606,7 +19443,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>222</v>
       </c>
@@ -11638,7 +19475,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -11670,7 +19507,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>222</v>
       </c>
@@ -11702,7 +19539,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>222</v>
       </c>
@@ -11734,7 +19571,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>222</v>
       </c>
@@ -11766,7 +19603,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>222</v>
       </c>
@@ -11798,7 +19635,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>222</v>
       </c>
@@ -11830,7 +19667,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>222</v>
       </c>
@@ -11862,7 +19699,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>222</v>
       </c>
@@ -11892,6 +19729,12 @@
       </c>
       <c r="J64" t="s">
         <v>325</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L64" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -11925,6 +19768,12 @@
       <c r="J65" t="s">
         <v>325</v>
       </c>
+      <c r="K65" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L65" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
@@ -11957,6 +19806,12 @@
       <c r="J66" t="s">
         <v>325</v>
       </c>
+      <c r="K66" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -11989,6 +19844,12 @@
       <c r="J67" t="s">
         <v>325</v>
       </c>
+      <c r="K67" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L67" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
@@ -12021,6 +19882,12 @@
       <c r="J68" t="s">
         <v>325</v>
       </c>
+      <c r="K68" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -12053,6 +19920,12 @@
       <c r="J69" t="s">
         <v>325</v>
       </c>
+      <c r="K69" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L69" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -12085,6 +19958,12 @@
       <c r="J70" t="s">
         <v>325</v>
       </c>
+      <c r="K70" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L70" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
@@ -12117,6 +19996,12 @@
       <c r="J71" t="s">
         <v>325</v>
       </c>
+      <c r="K71" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L71" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
@@ -12149,6 +20034,12 @@
       <c r="J72" t="s">
         <v>325</v>
       </c>
+      <c r="K72" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L72" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
@@ -12181,6 +20072,12 @@
       <c r="J73" t="s">
         <v>325</v>
       </c>
+      <c r="K73" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L73" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -12213,6 +20110,12 @@
       <c r="J74" t="s">
         <v>325</v>
       </c>
+      <c r="K74" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L74" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -12529,38 +20432,38 @@
         <v>421</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="84" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" s="3" t="s">
         <v>421</v>
       </c>
     </row>
@@ -12598,7 +20501,7 @@
       <c r="K85" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="L85" t="s">
+      <c r="L85" s="3" t="s">
         <v>436</v>
       </c>
     </row>
@@ -12636,7 +20539,7 @@
       <c r="K86" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="L86" t="s">
+      <c r="L86" s="3" t="s">
         <v>437</v>
       </c>
     </row>
@@ -12674,7 +20577,7 @@
       <c r="K87" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="L87" t="s">
+      <c r="L87" s="3" t="s">
         <v>436</v>
       </c>
     </row>
@@ -12712,141 +20615,153 @@
       <c r="K88" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="L88" t="s">
+      <c r="L88" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="89" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="K89" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="K90" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="92" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K92" s="3" t="s">
         <v>421</v>
       </c>
     </row>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79D4FD6-9FD2-40CE-8BFB-E3E93B2305F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADB1A9A-7F55-434C-ADF6-D46F6EE6F6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4470" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4470" uniqueCount="855">
   <si>
     <t>url</t>
   </si>
@@ -2596,6 +2596,18 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>supply,genebank_collections,genebank_collections,genebank_collections_genus</t>
+  </si>
+  <si>
+    <t>supply,genebank_collections,genebank_collections,genebank_collections_taxon</t>
+  </si>
+  <si>
+    <t>mls_accessions_genus</t>
+  </si>
+  <si>
+    <t>mls_accessions_species</t>
   </si>
 </sst>
 </file>
@@ -3571,11 +3583,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2D5B62-00C5-4824-8379-4A4BEE02241D}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6515,7 +6527,7 @@
         <v>337</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>338</v>
+        <v>853</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>104</v>
@@ -6536,7 +6548,7 @@
         <v>432</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>433</v>
+        <v>851</v>
       </c>
     </row>
     <row r="85" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6553,7 +6565,7 @@
         <v>337</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>339</v>
+        <v>854</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>104</v>
@@ -6574,7 +6586,7 @@
         <v>432</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>434</v>
+        <v>852</v>
       </c>
     </row>
     <row r="86" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6612,7 +6624,7 @@
         <v>432</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>433</v>
+        <v>851</v>
       </c>
     </row>
     <row r="87" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6650,7 +6662,7 @@
         <v>432</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>434</v>
+        <v>852</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -17502,7 +17514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05497BFE-A5B8-482B-AEA5-A6788DC9A33B}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>

--- a/data/conf/conf.xlsx
+++ b/data/conf/conf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9c7c3b7206b3dcb/work/SDBG/SciCon/Projects/Projects_completed/Crop indicator - Plant Treaty/Crop indicator/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D1D3D5-3FA7-4D62-9C16-84AC4D29A4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F2D1D3D5-3FA7-4D62-9C16-84AC4D29A4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACC7A4AA-4147-4374-8AE7-1CC5507E4CB8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="3" xr2:uid="{E493FFA8-6512-4F94-A4C3-4A5A8E49A981}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -2670,12 +2670,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3002,17 +3000,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811487A-6E7B-4C2E-9752-10E8FCDC87C8}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.89453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -3020,7 +3018,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>224</v>
       </c>
@@ -3028,7 +3026,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>226</v>
       </c>
@@ -3036,7 +3034,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>228</v>
       </c>
@@ -3044,7 +3042,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>231</v>
       </c>
@@ -3052,7 +3050,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -3060,7 +3058,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -3068,7 +3066,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>235</v>
       </c>
@@ -3076,7 +3074,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>366</v>
       </c>
@@ -3084,7 +3082,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>237</v>
       </c>
@@ -3092,7 +3090,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>238</v>
       </c>
@@ -3100,7 +3098,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>241</v>
       </c>
@@ -3108,7 +3106,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>243</v>
       </c>
@@ -3116,7 +3114,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>245</v>
       </c>
@@ -3124,7 +3122,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>247</v>
       </c>
@@ -3132,7 +3130,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>249</v>
       </c>
@@ -3140,7 +3138,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>363</v>
       </c>
@@ -3148,7 +3146,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>250</v>
       </c>
@@ -3156,7 +3154,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>364</v>
       </c>
@@ -3164,7 +3162,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>252</v>
       </c>
@@ -3172,7 +3170,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>365</v>
       </c>
@@ -3180,7 +3178,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>253</v>
       </c>
@@ -3188,7 +3186,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>367</v>
       </c>
@@ -3196,7 +3194,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>368</v>
       </c>
@@ -3204,7 +3202,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>372</v>
       </c>
@@ -3212,7 +3210,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>373</v>
       </c>
@@ -3220,7 +3218,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>255</v>
       </c>
@@ -3228,7 +3226,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>257</v>
       </c>
@@ -3236,7 +3234,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>261</v>
       </c>
@@ -3244,7 +3242,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>262</v>
       </c>
@@ -3252,7 +3250,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>259</v>
       </c>
@@ -3260,7 +3258,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>263</v>
       </c>
@@ -3268,7 +3266,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>264</v>
       </c>
@@ -3276,7 +3274,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>265</v>
       </c>
@@ -3284,7 +3282,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>267</v>
       </c>
@@ -3292,7 +3290,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>269</v>
       </c>
@@ -3300,7 +3298,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>271</v>
       </c>
@@ -3308,7 +3306,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>272</v>
       </c>
@@ -3316,7 +3314,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>274</v>
       </c>
@@ -3324,7 +3322,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>275</v>
       </c>
@@ -3332,7 +3330,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>276</v>
       </c>
@@ -3340,7 +3338,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>277</v>
       </c>
@@ -3348,7 +3346,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>283</v>
       </c>
@@ -3356,7 +3354,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>278</v>
       </c>
@@ -3364,7 +3362,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>279</v>
       </c>
@@ -3372,7 +3370,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>280</v>
       </c>
@@ -3380,7 +3378,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>377</v>
       </c>
@@ -3388,7 +3386,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>378</v>
       </c>
@@ -3396,7 +3394,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>387</v>
       </c>
@@ -3404,7 +3402,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>382</v>
       </c>
@@ -3412,7 +3410,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>383</v>
       </c>
@@ -3420,7 +3418,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>386</v>
       </c>
@@ -3428,7 +3426,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>389</v>
       </c>
@@ -3436,7 +3434,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>390</v>
       </c>
@@ -3444,7 +3442,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>391</v>
       </c>
@@ -3452,7 +3450,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>392</v>
       </c>
@@ -3460,7 +3458,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>393</v>
       </c>
@@ -3468,7 +3466,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>409</v>
       </c>
@@ -3476,7 +3474,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>411</v>
       </c>
@@ -3484,7 +3482,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>413</v>
       </c>
@@ -3492,7 +3490,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>415</v>
       </c>
@@ -3518,12 +3516,12 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="82.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3531,7 +3529,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3539,7 +3537,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3547,7 +3545,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3555,7 +3553,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3563,7 +3561,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3590,22 +3588,22 @@
       <selection pane="bottomRight" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.89453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.89453125" customWidth="1"/>
+    <col min="6" max="6" width="14.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.1015625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.3125" customWidth="1"/>
+    <col min="10" max="10" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>288</v>
       </c>
@@ -3643,7 +3641,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -3668,7 +3666,7 @@
       <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>808</v>
       </c>
       <c r="J2" t="s">
@@ -3678,7 +3676,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>222</v>
       </c>
@@ -3703,7 +3701,7 @@
       <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>809</v>
       </c>
       <c r="J3" t="s">
@@ -3713,7 +3711,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>222</v>
       </c>
@@ -3738,7 +3736,7 @@
       <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>810</v>
       </c>
       <c r="J4" t="s">
@@ -3748,7 +3746,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>222</v>
       </c>
@@ -3773,7 +3771,7 @@
       <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>811</v>
       </c>
       <c r="J5" t="s">
@@ -3783,7 +3781,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -3808,7 +3806,7 @@
       <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>812</v>
       </c>
       <c r="J6" t="s">
@@ -3818,7 +3816,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>222</v>
       </c>
@@ -3843,7 +3841,7 @@
       <c r="H7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>813</v>
       </c>
       <c r="J7" t="s">
@@ -3853,7 +3851,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>222</v>
       </c>
@@ -3878,7 +3876,7 @@
       <c r="H8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>814</v>
       </c>
       <c r="J8" t="s">
@@ -3888,7 +3886,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -3913,7 +3911,7 @@
       <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>815</v>
       </c>
       <c r="J9" t="s">
@@ -3923,7 +3921,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -3948,7 +3946,7 @@
       <c r="H10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>816</v>
       </c>
       <c r="J10" t="s">
@@ -3958,7 +3956,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>222</v>
       </c>
@@ -3983,7 +3981,7 @@
       <c r="H11" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>817</v>
       </c>
       <c r="J11" t="s">
@@ -3993,7 +3991,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>222</v>
       </c>
@@ -4018,7 +4016,7 @@
       <c r="H12" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>818</v>
       </c>
       <c r="J12" t="s">
@@ -4028,7 +4026,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -4053,7 +4051,7 @@
       <c r="H13" t="s">
         <v>805</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>808</v>
       </c>
       <c r="K13" t="s">
@@ -4063,7 +4061,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>222</v>
       </c>
@@ -4088,7 +4086,7 @@
       <c r="H14" t="s">
         <v>805</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>809</v>
       </c>
       <c r="K14" t="s">
@@ -4098,7 +4096,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>222</v>
       </c>
@@ -4123,7 +4121,7 @@
       <c r="H15" t="s">
         <v>805</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="3" t="s">
         <v>810</v>
       </c>
       <c r="K15" t="s">
@@ -4133,7 +4131,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>222</v>
       </c>
@@ -4158,7 +4156,7 @@
       <c r="H16" t="s">
         <v>805</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>811</v>
       </c>
       <c r="K16" t="s">
@@ -4168,7 +4166,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>222</v>
       </c>
@@ -4193,7 +4191,7 @@
       <c r="H17" t="s">
         <v>806</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="3" t="s">
         <v>812</v>
       </c>
       <c r="K17" t="s">
@@ -4203,7 +4201,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>222</v>
       </c>
@@ -4228,7 +4226,7 @@
       <c r="H18" t="s">
         <v>806</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="3" t="s">
         <v>813</v>
       </c>
       <c r="K18" t="s">
@@ -4238,7 +4236,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -4263,7 +4261,7 @@
       <c r="H19" t="s">
         <v>806</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="3" t="s">
         <v>814</v>
       </c>
       <c r="K19" t="s">
@@ -4273,7 +4271,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -4298,7 +4296,7 @@
       <c r="H20" t="s">
         <v>807</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="3" t="s">
         <v>815</v>
       </c>
       <c r="K20" t="s">
@@ -4308,7 +4306,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>222</v>
       </c>
@@ -4333,7 +4331,7 @@
       <c r="H21" t="s">
         <v>807</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="3" t="s">
         <v>816</v>
       </c>
       <c r="K21" t="s">
@@ -4343,7 +4341,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>222</v>
       </c>
@@ -4368,7 +4366,7 @@
       <c r="H22" t="s">
         <v>807</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="3" t="s">
         <v>817</v>
       </c>
       <c r="K22" t="s">
@@ -4378,7 +4376,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>222</v>
       </c>
@@ -4403,7 +4401,7 @@
       <c r="H23" t="s">
         <v>807</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="3" t="s">
         <v>818</v>
       </c>
       <c r="K23" t="s">
@@ -4413,7 +4411,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>222</v>
       </c>
@@ -4432,20 +4430,20 @@
       <c r="F24" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="3" t="s">
         <v>808</v>
       </c>
       <c r="J24" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>222</v>
       </c>
@@ -4464,20 +4462,20 @@
       <c r="F25" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="3" t="s">
         <v>809</v>
       </c>
       <c r="J25" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>222</v>
       </c>
@@ -4496,20 +4494,20 @@
       <c r="F26" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="3" t="s">
         <v>810</v>
       </c>
       <c r="J26" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>222</v>
       </c>
@@ -4528,20 +4526,20 @@
       <c r="F27" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="3" t="s">
         <v>811</v>
       </c>
       <c r="J27" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>222</v>
       </c>
@@ -4560,20 +4558,20 @@
       <c r="F28" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="3" t="s">
         <v>812</v>
       </c>
       <c r="J28" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>222</v>
       </c>
@@ -4592,20 +4590,20 @@
       <c r="F29" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="3" t="s">
         <v>813</v>
       </c>
       <c r="J29" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>222</v>
       </c>
@@ -4624,20 +4622,20 @@
       <c r="F30" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="3" t="s">
         <v>814</v>
       </c>
       <c r="J30" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>222</v>
       </c>
@@ -4656,20 +4654,20 @@
       <c r="F31" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="3" t="s">
         <v>815</v>
       </c>
       <c r="J31" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>222</v>
       </c>
@@ -4688,20 +4686,20 @@
       <c r="F32" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="3" t="s">
         <v>816</v>
       </c>
       <c r="J32" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>222</v>
       </c>
@@ -4720,20 +4718,20 @@
       <c r="F33" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="3" t="s">
         <v>817</v>
       </c>
       <c r="J33" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>222</v>
       </c>
@@ -4752,20 +4750,20 @@
       <c r="F34" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="3" t="s">
         <v>818</v>
       </c>
       <c r="J34" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>222</v>
       </c>
@@ -4784,26 +4782,26 @@
       <c r="F35" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="3" t="s">
         <v>808</v>
       </c>
       <c r="J35" t="s">
         <v>321</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" t="s">
         <v>434</v>
       </c>
-      <c r="L35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>222</v>
       </c>
@@ -4822,26 +4820,26 @@
       <c r="F36" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="3" t="s">
         <v>809</v>
       </c>
       <c r="J36" t="s">
         <v>321</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" t="s">
         <v>434</v>
       </c>
-      <c r="L36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>222</v>
       </c>
@@ -4860,26 +4858,26 @@
       <c r="F37" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="3" t="s">
         <v>810</v>
       </c>
       <c r="J37" t="s">
         <v>321</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" t="s">
         <v>434</v>
       </c>
-      <c r="L37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>222</v>
       </c>
@@ -4898,26 +4896,26 @@
       <c r="F38" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="3" t="s">
         <v>811</v>
       </c>
       <c r="J38" t="s">
         <v>321</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" t="s">
         <v>434</v>
       </c>
-      <c r="L38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>222</v>
       </c>
@@ -4936,26 +4934,26 @@
       <c r="F39" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="3" t="s">
         <v>812</v>
       </c>
       <c r="J39" t="s">
         <v>321</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" t="s">
         <v>434</v>
       </c>
-      <c r="L39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>222</v>
       </c>
@@ -4974,26 +4972,26 @@
       <c r="F40" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="3" t="s">
         <v>813</v>
       </c>
       <c r="J40" t="s">
         <v>321</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" t="s">
         <v>434</v>
       </c>
-      <c r="L40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>222</v>
       </c>
@@ -5012,26 +5010,26 @@
       <c r="F41" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="3" t="s">
         <v>814</v>
       </c>
       <c r="J41" t="s">
         <v>321</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" t="s">
         <v>434</v>
       </c>
-      <c r="L41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>222</v>
       </c>
@@ -5050,26 +5048,26 @@
       <c r="F42" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="3" t="s">
         <v>815</v>
       </c>
       <c r="J42" t="s">
         <v>321</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" t="s">
         <v>434</v>
       </c>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>222</v>
       </c>
@@ -5088,26 +5086,26 @@
       <c r="F43" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="3" t="s">
         <v>816</v>
       </c>
       <c r="J43" t="s">
         <v>321</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" t="s">
         <v>434</v>
       </c>
-      <c r="L43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>222</v>
       </c>
@@ -5126,26 +5124,26 @@
       <c r="F44" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="3" t="s">
         <v>817</v>
       </c>
       <c r="J44" t="s">
         <v>321</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" t="s">
         <v>434</v>
       </c>
-      <c r="L44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>222</v>
       </c>
@@ -5164,26 +5162,26 @@
       <c r="F45" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="3" t="s">
         <v>818</v>
       </c>
       <c r="J45" t="s">
         <v>321</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" t="s">
         <v>434</v>
       </c>
-      <c r="L45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>322</v>
       </c>
@@ -5218,7 +5216,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>322</v>
       </c>
@@ -5253,7 +5251,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>322</v>
       </c>
@@ -5288,7 +5286,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>422</v>
       </c>
@@ -5323,7 +5321,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>328</v>
       </c>
@@ -5358,7 +5356,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>328</v>
       </c>
@@ -5393,7 +5391,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>328</v>
       </c>
@@ -5428,7 +5426,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>222</v>
       </c>
@@ -5453,14 +5451,14 @@
       <c r="H53" t="s">
         <v>18</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" s="3" t="s">
         <v>808</v>
       </c>
       <c r="J53" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>222</v>
       </c>
@@ -5485,14 +5483,14 @@
       <c r="H54" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="3" t="s">
         <v>809</v>
       </c>
       <c r="J54" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>222</v>
       </c>
@@ -5517,14 +5515,14 @@
       <c r="H55" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I55" s="3" t="s">
         <v>810</v>
       </c>
       <c r="J55" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>222</v>
       </c>
@@ -5549,14 +5547,14 @@
       <c r="H56" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="3" t="s">
         <v>811</v>
       </c>
       <c r="J56" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -5581,14 +5579,14 @@
       <c r="H57" t="s">
         <v>27</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I57" s="3" t="s">
         <v>812</v>
       </c>
       <c r="J57" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>222</v>
       </c>
@@ -5613,14 +5611,14 @@
       <c r="H58" t="s">
         <v>27</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" s="3" t="s">
         <v>813</v>
       </c>
       <c r="J58" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>222</v>
       </c>
@@ -5645,14 +5643,14 @@
       <c r="H59" t="s">
         <v>27</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" s="3" t="s">
         <v>814</v>
       </c>
       <c r="J59" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>222</v>
       </c>
@@ -5677,14 +5675,14 @@
       <c r="H60" t="s">
         <v>34</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" s="3" t="s">
         <v>815</v>
       </c>
       <c r="J60" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>222</v>
       </c>
@@ -5709,14 +5707,14 @@
       <c r="H61" t="s">
         <v>34</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="I61" s="3" t="s">
         <v>816</v>
       </c>
       <c r="J61" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>222</v>
       </c>
@@ -5741,14 +5739,14 @@
       <c r="H62" t="s">
         <v>34</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" s="3" t="s">
         <v>817</v>
       </c>
       <c r="J62" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>222</v>
       </c>
@@ -5773,14 +5771,14 @@
       <c r="H63" t="s">
         <v>34</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="3" t="s">
         <v>818</v>
       </c>
       <c r="J63" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>222</v>
       </c>
@@ -5799,26 +5797,26 @@
       <c r="F64" t="s">
         <v>75</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="4" t="s">
         <v>826</v>
       </c>
       <c r="H64" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="I64" s="3" t="s">
         <v>808</v>
       </c>
       <c r="J64" t="s">
         <v>321</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K64" t="s">
         <v>434</v>
       </c>
-      <c r="L64" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>222</v>
       </c>
@@ -5837,26 +5835,26 @@
       <c r="F65" t="s">
         <v>75</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="4" t="s">
         <v>826</v>
       </c>
       <c r="H65" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="I65" s="3" t="s">
         <v>809</v>
       </c>
       <c r="J65" t="s">
         <v>321</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K65" t="s">
         <v>434</v>
       </c>
-      <c r="L65" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>222</v>
       </c>
@@ -5875,26 +5873,26 @@
       <c r="F66" t="s">
         <v>75</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="4" t="s">
         <v>826</v>
       </c>
       <c r="H66" t="s">
         <v>18</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I66" s="3" t="s">
         <v>810</v>
       </c>
       <c r="J66" t="s">
         <v>321</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K66" t="s">
         <v>434</v>
       </c>
-      <c r="L66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>222</v>
       </c>
@@ -5913,26 +5911,26 @@
       <c r="F67" t="s">
         <v>75</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="4" t="s">
         <v>826</v>
       </c>
       <c r="H67" t="s">
         <v>18</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I67" s="3" t="s">
         <v>811</v>
       </c>
       <c r="J67" t="s">
         <v>321</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K67" t="s">
         <v>434</v>
       </c>
-      <c r="L67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>222</v>
       </c>
@@ -5951,26 +5949,26 @@
       <c r="F68" t="s">
         <v>75</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="4" t="s">
         <v>826</v>
       </c>
       <c r="H68" t="s">
         <v>27</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="3" t="s">
         <v>812</v>
       </c>
       <c r="J68" t="s">
         <v>321</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K68" t="s">
         <v>434</v>
       </c>
-      <c r="L68" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>222</v>
       </c>
@@ -5989,26 +5987,26 @@
       <c r="F69" t="s">
         <v>75</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G69" s="4" t="s">
         <v>826</v>
       </c>
       <c r="H69" t="s">
         <v>27</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="3" t="s">
         <v>813</v>
       </c>
       <c r="J69" t="s">
         <v>321</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="K69" t="s">
         <v>434</v>
       </c>
-      <c r="L69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>222</v>
       </c>
@@ -6027,26 +6025,26 @@
       <c r="F70" t="s">
         <v>75</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="4" t="s">
         <v>826</v>
       </c>
       <c r="H70" t="s">
         <v>27</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="3" t="s">
         <v>814</v>
       </c>
       <c r="J70" t="s">
         <v>321</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="K70" t="s">
         <v>434</v>
       </c>
-      <c r="L70" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>222</v>
       </c>
@@ -6065,26 +6063,26 @@
       <c r="F71" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G71" s="4" t="s">
         <v>826</v>
       </c>
       <c r="H71" t="s">
         <v>34</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I71" s="3" t="s">
         <v>815</v>
       </c>
       <c r="J71" t="s">
         <v>321</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="K71" t="s">
         <v>434</v>
       </c>
-      <c r="L71" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>222</v>
       </c>
@@ -6103,26 +6101,26 @@
       <c r="F72" t="s">
         <v>75</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" s="4" t="s">
         <v>826</v>
       </c>
       <c r="H72" t="s">
         <v>34</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I72" s="3" t="s">
         <v>816</v>
       </c>
       <c r="J72" t="s">
         <v>321</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K72" t="s">
         <v>434</v>
       </c>
-      <c r="L72" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>222</v>
       </c>
@@ -6141,26 +6139,26 @@
       <c r="F73" t="s">
         <v>75</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G73" s="4" t="s">
         <v>826</v>
       </c>
       <c r="H73" t="s">
         <v>34</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I73" s="3" t="s">
         <v>817</v>
       </c>
       <c r="J73" t="s">
         <v>321</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K73" t="s">
         <v>434</v>
       </c>
-      <c r="L73" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>222</v>
       </c>
@@ -6179,26 +6177,26 @@
       <c r="F74" t="s">
         <v>75</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="4" t="s">
         <v>826</v>
       </c>
       <c r="H74" t="s">
         <v>34</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="I74" s="3" t="s">
         <v>818</v>
       </c>
       <c r="J74" t="s">
         <v>321</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K74" t="s">
         <v>434</v>
       </c>
-      <c r="L74" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>347</v>
       </c>
@@ -6217,13 +6215,13 @@
       <c r="F75" t="s">
         <v>88</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H75" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="I75" s="6" t="s">
+      <c r="I75" s="4" t="s">
         <v>827</v>
       </c>
       <c r="J75" t="s">
@@ -6233,7 +6231,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>347</v>
       </c>
@@ -6252,13 +6250,13 @@
       <c r="F76" t="s">
         <v>88</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="H76" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="I76" s="4" t="s">
         <v>828</v>
       </c>
       <c r="J76" t="s">
@@ -6271,7 +6269,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>347</v>
       </c>
@@ -6290,20 +6288,20 @@
       <c r="F77" t="s">
         <v>88</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="H77" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="I77" s="6" t="s">
+      <c r="I77" s="4" t="s">
         <v>829</v>
       </c>
       <c r="J77" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>343</v>
       </c>
@@ -6322,13 +6320,13 @@
       <c r="F78" t="s">
         <v>88</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="H78" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I78" s="6" t="s">
+      <c r="I78" s="4" t="s">
         <v>312</v>
       </c>
       <c r="J78" t="s">
@@ -6338,7 +6336,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>343</v>
       </c>
@@ -6357,13 +6355,13 @@
       <c r="F79" t="s">
         <v>88</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H79" s="6" t="s">
+      <c r="H79" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="I79" s="4" t="s">
         <v>313</v>
       </c>
       <c r="J79" t="s">
@@ -6373,7 +6371,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>401</v>
       </c>
@@ -6392,10 +6390,10 @@
       <c r="F80" t="s">
         <v>88</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G80" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="H80" s="4" t="s">
         <v>98</v>
       </c>
       <c r="I80" t="s">
@@ -6408,7 +6406,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>354</v>
       </c>
@@ -6427,10 +6425,10 @@
       <c r="F81" t="s">
         <v>88</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G81" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="H81" s="6" t="s">
+      <c r="H81" s="4" t="s">
         <v>832</v>
       </c>
       <c r="I81" t="s">
@@ -6443,7 +6441,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>356</v>
       </c>
@@ -6462,13 +6460,13 @@
       <c r="F82" t="s">
         <v>104</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G82" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H82" s="6" t="s">
+      <c r="H82" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I82" s="6" t="s">
+      <c r="I82" s="4" t="s">
         <v>833</v>
       </c>
       <c r="J82" t="s">
@@ -6478,340 +6476,340 @@
         <v>417</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
         <v>356</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" t="s">
         <v>329</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" t="s">
         <v>848</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" t="s">
         <v>109</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" t="s">
         <v>104</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="G83" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="H83" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I83" s="6" t="s">
+      <c r="I83" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" t="s">
         <v>321</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="K83" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
         <v>335</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" t="s">
         <v>298</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" t="s">
         <v>336</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" t="s">
         <v>852</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" t="s">
         <v>104</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G84" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="H84" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I84" s="6" t="s">
+      <c r="I84" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J84" t="s">
         <v>321</v>
       </c>
-      <c r="K84" s="3" t="s">
+      <c r="K84" t="s">
         <v>431</v>
       </c>
-      <c r="L84" s="3" t="s">
+      <c r="L84" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
         <v>335</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" t="s">
         <v>298</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" t="s">
         <v>336</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" t="s">
         <v>853</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" t="s">
         <v>104</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G85" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="H85" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I85" s="6" t="s">
+      <c r="I85" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" t="s">
         <v>321</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="K85" t="s">
         <v>431</v>
       </c>
-      <c r="L85" s="3" t="s">
+      <c r="L85" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
         <v>339</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" t="s">
         <v>298</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" t="s">
         <v>340</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" t="s">
         <v>341</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" t="s">
         <v>104</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="H86" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I86" s="6" t="s">
+      <c r="I86" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J86" t="s">
         <v>321</v>
       </c>
-      <c r="K86" s="3" t="s">
+      <c r="K86" t="s">
         <v>431</v>
       </c>
-      <c r="L86" s="3" t="s">
+      <c r="L86" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
         <v>339</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" t="s">
         <v>298</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" t="s">
         <v>340</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" t="s">
         <v>342</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" t="s">
         <v>104</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G87" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="H87" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I87" s="6" t="s">
+      <c r="I87" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="J87" t="s">
         <v>321</v>
       </c>
-      <c r="K87" s="3" t="s">
+      <c r="K87" t="s">
         <v>431</v>
       </c>
-      <c r="L87" s="3" t="s">
+      <c r="L87" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
         <v>376</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" t="s">
         <v>329</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" t="s">
         <v>375</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" t="s">
         <v>127</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" t="s">
         <v>104</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G88" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="H88" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I88" s="6" t="s">
+      <c r="I88" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J88" t="s">
         <v>321</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="K88" t="s">
         <v>434</v>
       </c>
-      <c r="L88" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
+      <c r="L88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
         <v>376</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" t="s">
         <v>329</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" t="s">
         <v>375</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" t="s">
         <v>128</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" t="s">
         <v>104</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="G89" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="H89" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I89" s="6" t="s">
+      <c r="I89" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="J89" t="s">
         <v>321</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="K89" t="s">
         <v>434</v>
       </c>
-      <c r="L89" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
         <v>405</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" t="s">
         <v>298</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" t="s">
         <v>406</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" t="s">
         <v>407</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" t="s">
         <v>104</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="H90" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I90" s="6" t="s">
+      <c r="I90" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="J90" t="s">
         <v>321</v>
       </c>
-      <c r="K90" s="3" t="s">
+      <c r="K90" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
         <v>405</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" t="s">
         <v>298</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" t="s">
         <v>406</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" t="s">
         <v>408</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" t="s">
         <v>104</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G91" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="H91" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I91" s="6" t="s">
+      <c r="I91" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="J91" t="s">
         <v>321</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>358</v>
       </c>
@@ -6830,13 +6828,13 @@
       <c r="F92" t="s">
         <v>104</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="H92" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="I92" s="5" t="s">
         <v>843</v>
       </c>
       <c r="J92" t="s">
@@ -6846,7 +6844,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>358</v>
       </c>
@@ -6865,13 +6863,13 @@
       <c r="F93" t="s">
         <v>104</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H93" s="6" t="s">
+      <c r="H93" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="I93" s="7" t="s">
+      <c r="I93" s="5" t="s">
         <v>844</v>
       </c>
       <c r="J93" t="s">
@@ -6881,7 +6879,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>422</v>
       </c>
@@ -6900,13 +6898,13 @@
       <c r="F94" t="s">
         <v>104</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="G94" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H94" s="6" t="s">
+      <c r="H94" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I94" s="6" t="s">
+      <c r="I94" s="4" t="s">
         <v>314</v>
       </c>
       <c r="J94" t="s">
@@ -6916,7 +6914,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>422</v>
       </c>
@@ -6935,13 +6933,13 @@
       <c r="F95" t="s">
         <v>104</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H95" s="6" t="s">
+      <c r="H95" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I95" s="6" t="s">
+      <c r="I95" s="4" t="s">
         <v>315</v>
       </c>
       <c r="J95" t="s">
@@ -6951,7 +6949,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>422</v>
       </c>
@@ -6970,13 +6968,13 @@
       <c r="F96" t="s">
         <v>104</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G96" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H96" s="6" t="s">
+      <c r="H96" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I96" s="6" t="s">
+      <c r="I96" s="4" t="s">
         <v>316</v>
       </c>
       <c r="J96" t="s">
@@ -6986,7 +6984,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>422</v>
       </c>
@@ -7005,13 +7003,13 @@
       <c r="F97" t="s">
         <v>104</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="G97" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H97" s="6" t="s">
+      <c r="H97" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I97" s="6" t="s">
+      <c r="I97" s="4" t="s">
         <v>317</v>
       </c>
       <c r="J97" t="s">
@@ -7021,7 +7019,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>371</v>
       </c>
@@ -7040,26 +7038,26 @@
       <c r="F98" t="s">
         <v>130</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="G98" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="H98" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I98" s="6" t="s">
+      <c r="I98" s="4" t="s">
         <v>845</v>
       </c>
       <c r="J98" t="s">
         <v>321</v>
       </c>
-      <c r="K98" s="3" t="s">
+      <c r="K98" t="s">
         <v>431</v>
       </c>
-      <c r="L98" s="3" t="s">
+      <c r="L98" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>371</v>
       </c>
@@ -7078,22 +7076,22 @@
       <c r="F99" t="s">
         <v>130</v>
       </c>
-      <c r="G99" s="6" t="s">
+      <c r="G99" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="H99" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I99" s="6" t="s">
+      <c r="I99" s="4" t="s">
         <v>846</v>
       </c>
       <c r="J99" t="s">
         <v>321</v>
       </c>
-      <c r="K99" s="3" t="s">
+      <c r="K99" t="s">
         <v>431</v>
       </c>
-      <c r="L99" s="3" t="s">
+      <c r="L99" t="s">
         <v>851</v>
       </c>
     </row>
@@ -7107,17 +7105,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE54FE0-6187-407D-93A1-F9E77A707525}">
   <dimension ref="A1:B371"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>804</v>
       </c>
@@ -7125,7 +7123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -7133,7 +7131,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>437</v>
       </c>
@@ -7141,7 +7139,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>439</v>
       </c>
@@ -7149,7 +7147,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>441</v>
       </c>
@@ -7157,7 +7155,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>442</v>
       </c>
@@ -7165,7 +7163,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>444</v>
       </c>
@@ -7173,7 +7171,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>446</v>
       </c>
@@ -7181,7 +7179,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>448</v>
       </c>
@@ -7189,7 +7187,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>450</v>
       </c>
@@ -7197,7 +7195,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>450</v>
       </c>
@@ -7205,7 +7203,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>452</v>
       </c>
@@ -7213,7 +7211,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>453</v>
       </c>
@@ -7221,15 +7219,15 @@
         <v>447</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>454</v>
       </c>
       <c r="B14" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>455</v>
       </c>
@@ -7237,7 +7235,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>456</v>
       </c>
@@ -7245,7 +7243,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>457</v>
       </c>
@@ -7253,7 +7251,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>459</v>
       </c>
@@ -7261,7 +7259,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>461</v>
       </c>
@@ -7269,7 +7267,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>462</v>
       </c>
@@ -7277,7 +7275,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>463</v>
       </c>
@@ -7285,7 +7283,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>464</v>
       </c>
@@ -7293,7 +7291,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>465</v>
       </c>
@@ -7301,7 +7299,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>466</v>
       </c>
@@ -7309,7 +7307,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>467</v>
       </c>
@@ -7317,7 +7315,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>468</v>
       </c>
@@ -7325,7 +7323,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>469</v>
       </c>
@@ -7333,7 +7331,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>470</v>
       </c>
@@ -7341,7 +7339,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>471</v>
       </c>
@@ -7349,7 +7347,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>472</v>
       </c>
@@ -7357,7 +7355,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>473</v>
       </c>
@@ -7365,7 +7363,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>474</v>
       </c>
@@ -7373,7 +7371,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>475</v>
       </c>
@@ -7381,7 +7379,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>476</v>
       </c>
@@ -7389,7 +7387,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>477</v>
       </c>
@@ -7397,7 +7395,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>478</v>
       </c>
@@ -7405,7 +7403,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>479</v>
       </c>
@@ -7413,7 +7411,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>480</v>
       </c>
@@ -7421,7 +7419,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>481</v>
       </c>
@@ -7429,7 +7427,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>482</v>
       </c>
@@ -7437,7 +7435,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>483</v>
       </c>
@@ -7445,7 +7443,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>484</v>
       </c>
@@ -7453,7 +7451,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>485</v>
       </c>
@@ -7461,7 +7459,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>485</v>
       </c>
@@ -7469,7 +7467,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>486</v>
       </c>
@@ -7477,7 +7475,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>487</v>
       </c>
@@ -7485,7 +7483,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>488</v>
       </c>
@@ -7493,7 +7491,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>490</v>
       </c>
@@ -7501,7 +7499,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>491</v>
       </c>
@@ -7509,7 +7507,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>492</v>
       </c>
@@ -7517,7 +7515,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>493</v>
       </c>
@@ -7525,7 +7523,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>494</v>
       </c>
@@ -7533,7 +7531,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>495</v>
       </c>
@@ -7541,7 +7539,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>496</v>
       </c>
@@ -7549,7 +7547,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>497</v>
       </c>
@@ -7557,7 +7555,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>498</v>
       </c>
@@ -7565,7 +7563,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>499</v>
       </c>
@@ -7573,7 +7571,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>500</v>
       </c>
@@ -7581,7 +7579,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>501</v>
       </c>
@@ -7589,7 +7587,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>502</v>
       </c>
@@ -7597,7 +7595,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>503</v>
       </c>
@@ -7605,7 +7603,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>504</v>
       </c>
@@ -7613,7 +7611,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>505</v>
       </c>
@@ -7621,7 +7619,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>506</v>
       </c>
@@ -7629,7 +7627,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>507</v>
       </c>
@@ -7637,7 +7635,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>508</v>
       </c>
@@ -7645,7 +7643,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>509</v>
       </c>
@@ -7653,7 +7651,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>510</v>
       </c>
@@ -7661,7 +7659,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>511</v>
       </c>
@@ -7669,7 +7667,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>512</v>
       </c>
@@ -7677,7 +7675,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>513</v>
       </c>
@@ -7685,7 +7683,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>514</v>
       </c>
@@ -7693,7 +7691,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>515</v>
       </c>
@@ -7701,7 +7699,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>516</v>
       </c>
@@ -7709,7 +7707,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>517</v>
       </c>
@@ -7717,7 +7715,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>518</v>
       </c>
@@ -7725,7 +7723,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>519</v>
       </c>
@@ -7733,7 +7731,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>520</v>
       </c>
@@ -7741,7 +7739,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>521</v>
       </c>
@@ -7749,7 +7747,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>522</v>
       </c>
@@ -7757,7 +7755,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>523</v>
       </c>
@@ -7765,7 +7763,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>525</v>
       </c>
@@ -7773,7 +7771,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>526</v>
       </c>
@@ -7781,7 +7779,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>527</v>
       </c>
@@ -7789,7 +7787,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>528</v>
       </c>
@@ -7797,7 +7795,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>529</v>
       </c>
@@ -7805,7 +7803,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>530</v>
       </c>
@@ -7813,7 +7811,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>531</v>
       </c>
@@ -7821,7 +7819,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>532</v>
       </c>
@@ -7829,7 +7827,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>533</v>
       </c>
@@ -7837,7 +7835,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>534</v>
       </c>
@@ -7845,7 +7843,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>535</v>
       </c>
@@ -7853,7 +7851,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>536</v>
       </c>
@@ -7861,7 +7859,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>536</v>
       </c>
@@ -7869,7 +7867,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>537</v>
       </c>
@@ -7877,7 +7875,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>538</v>
       </c>
@@ -7885,7 +7883,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>538</v>
       </c>
@@ -7893,7 +7891,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>539</v>
       </c>
@@ -7901,7 +7899,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>540</v>
       </c>
@@ -7909,7 +7907,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>541</v>
       </c>
@@ -7917,7 +7915,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>542</v>
       </c>
@@ -7925,7 +7923,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>543</v>
       </c>
@@ -7933,7 +7931,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>544</v>
       </c>
@@ -7941,7 +7939,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>545</v>
       </c>
@@ -7949,7 +7947,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>545</v>
       </c>
@@ -7957,7 +7955,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>547</v>
       </c>
@@ -7965,7 +7963,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>548</v>
       </c>
@@ -7973,7 +7971,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>549</v>
       </c>
@@ -7981,7 +7979,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>549</v>
       </c>
@@ -7989,7 +7987,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>550</v>
       </c>
@@ -7997,7 +7995,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>551</v>
       </c>
@@ -8005,7 +8003,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>552</v>
       </c>
@@ -8013,7 +8011,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>552</v>
       </c>
@@ -8021,7 +8019,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>553</v>
       </c>
@@ -8029,7 +8027,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>554</v>
       </c>
@@ -8037,7 +8035,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>555</v>
       </c>
@@ -8045,7 +8043,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>556</v>
       </c>
@@ -8053,7 +8051,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>557</v>
       </c>
@@ -8061,7 +8059,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>558</v>
       </c>
@@ -8069,7 +8067,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>559</v>
       </c>
@@ -8077,7 +8075,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>560</v>
       </c>
@@ -8085,7 +8083,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>561</v>
       </c>
@@ -8093,7 +8091,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>562</v>
       </c>
@@ -8101,7 +8099,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>563</v>
       </c>
@@ -8109,7 +8107,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>564</v>
       </c>
@@ -8117,7 +8115,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>565</v>
       </c>
@@ -8125,7 +8123,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>566</v>
       </c>
@@ -8133,7 +8131,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>567</v>
       </c>
@@ -8141,7 +8139,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>568</v>
       </c>
@@ -8149,7 +8147,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>569</v>
       </c>
@@ -8157,7 +8155,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>570</v>
       </c>
@@ -8165,7 +8163,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>571</v>
       </c>
@@ -8173,7 +8171,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>572</v>
       </c>
@@ -8181,7 +8179,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>573</v>
       </c>
@@ -8189,7 +8187,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>574</v>
       </c>
@@ -8197,7 +8195,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>575</v>
       </c>
@@ -8205,7 +8203,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>576</v>
       </c>
@@ -8213,7 +8211,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>577</v>
       </c>
@@ -8221,7 +8219,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>578</v>
       </c>
@@ -8229,7 +8227,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>579</v>
       </c>
@@ -8237,7 +8235,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>580</v>
       </c>
@@ -8245,7 +8243,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>581</v>
       </c>
@@ -8253,7 +8251,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>581</v>
       </c>
@@ -8261,7 +8259,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>582</v>
       </c>
@@ -8269,7 +8267,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>583</v>
       </c>
@@ -8277,7 +8275,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>584</v>
       </c>
@@ -8285,7 +8283,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>585</v>
       </c>
@@ -8293,7 +8291,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>586</v>
       </c>
@@ -8301,7 +8299,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>587</v>
       </c>
@@ -8309,7 +8307,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>588</v>
       </c>
@@ -8317,7 +8315,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>589</v>
       </c>
@@ -8325,7 +8323,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>590</v>
       </c>
@@ -8333,7 +8331,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>590</v>
       </c>
@@ -8341,7 +8339,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>591</v>
       </c>
@@ -8349,7 +8347,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>592</v>
       </c>
@@ -8357,7 +8355,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>592</v>
       </c>
@@ -8365,7 +8363,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>593</v>
       </c>
@@ -8373,7 +8371,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>594</v>
       </c>
@@ -8381,7 +8379,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>595</v>
       </c>
@@ -8389,7 +8387,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>596</v>
       </c>
@@ -8397,7 +8395,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>597</v>
       </c>
@@ -8405,7 +8403,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>598</v>
       </c>
@@ -8413,7 +8411,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>598</v>
       </c>
@@ -8421,7 +8419,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>599</v>
       </c>
@@ -8429,7 +8427,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>600</v>
       </c>
@@ -8437,7 +8435,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>601</v>
       </c>
@@ -8445,7 +8443,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>602</v>
       </c>
@@ -8453,7 +8451,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>603</v>
       </c>
@@ -8461,7 +8459,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>604</v>
       </c>
@@ -8469,7 +8467,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>605</v>
       </c>
@@ -8477,7 +8475,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>606</v>
       </c>
@@ -8485,7 +8483,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>607</v>
       </c>
@@ -8493,7 +8491,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>608</v>
       </c>
@@ -8501,7 +8499,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>609</v>
       </c>
@@ -8509,7 +8507,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>610</v>
       </c>
@@ -8517,7 +8515,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>611</v>
       </c>
@@ -8525,7 +8523,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>612</v>
       </c>
@@ -8533,7 +8531,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>613</v>
       </c>
@@ -8541,7 +8539,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>614</v>
       </c>
@@ -8549,7 +8547,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>615</v>
       </c>
@@ -8557,7 +8555,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>616</v>
       </c>
@@ -8565,7 +8563,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>617</v>
       </c>
@@ -8573,7 +8571,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>618</v>
       </c>
@@ -8581,7 +8579,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>619</v>
       </c>
@@ -8589,7 +8587,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>620</v>
       </c>
@@ -8597,7 +8595,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>621</v>
       </c>
@@ -8605,7 +8603,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>622</v>
       </c>
@@ -8613,7 +8611,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>623</v>
       </c>
@@ -8621,7 +8619,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>624</v>
       </c>
@@ -8629,7 +8627,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>625</v>
       </c>
@@ -8637,7 +8635,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>626</v>
       </c>
@@ -8645,7 +8643,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>627</v>
       </c>
@@ -8653,7 +8651,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>628</v>
       </c>
@@ -8661,7 +8659,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>629</v>
       </c>
@@ -8669,7 +8667,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>630</v>
       </c>
@@ -8677,7 +8675,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>631</v>
       </c>
@@ -8685,7 +8683,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>632</v>
       </c>
@@ -8693,7 +8691,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>633</v>
       </c>
@@ -8701,7 +8699,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>634</v>
       </c>
@@ -8709,7 +8707,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>635</v>
       </c>
@@ -8717,7 +8715,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>636</v>
       </c>
@@ -8725,7 +8723,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>637</v>
       </c>
@@ -8733,7 +8731,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>638</v>
       </c>
@@ -8741,7 +8739,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>639</v>
       </c>
@@ -8749,7 +8747,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>640</v>
       </c>
@@ -8757,7 +8755,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>641</v>
       </c>
@@ -8765,7 +8763,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>642</v>
       </c>
@@ -8773,7 +8771,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>643</v>
       </c>
@@ -8781,7 +8779,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>643</v>
       </c>
@@ -8789,7 +8787,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>643</v>
       </c>
@@ -8797,7 +8795,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>645</v>
       </c>
@@ -8805,7 +8803,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>646</v>
       </c>
@@ -8813,7 +8811,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>647</v>
       </c>
@@ -8821,7 +8819,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>648</v>
       </c>
@@ -8829,7 +8827,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>649</v>
       </c>
@@ -8837,7 +8835,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>650</v>
       </c>
@@ -8845,7 +8843,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>651</v>
       </c>
@@ -8853,7 +8851,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>652</v>
       </c>
@@ -8861,7 +8859,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>653</v>
       </c>
@@ -8869,7 +8867,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>654</v>
       </c>
@@ -8877,7 +8875,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>655</v>
       </c>
@@ -8885,7 +8883,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>656</v>
       </c>
@@ -8893,7 +8891,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>657</v>
       </c>
@@ -8901,7 +8899,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>658</v>
       </c>
@@ -8909,7 +8907,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>659</v>
       </c>
@@ -8917,7 +8915,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>660</v>
       </c>
@@ -8925,7 +8923,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>661</v>
       </c>
@@ -8933,7 +8931,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>662</v>
       </c>
@@ -8941,7 +8939,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>663</v>
       </c>
@@ -8949,7 +8947,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>664</v>
       </c>
@@ -8957,7 +8955,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>665</v>
       </c>
@@ -8965,7 +8963,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>666</v>
       </c>
@@ -8973,7 +8971,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>667</v>
       </c>
@@ -8981,7 +8979,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>668</v>
       </c>
@@ -8989,7 +8987,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>669</v>
       </c>
@@ -8997,7 +8995,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>670</v>
       </c>
@@ -9005,7 +9003,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>671</v>
       </c>
@@ -9013,7 +9011,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>672</v>
       </c>
@@ -9021,7 +9019,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>673</v>
       </c>
@@ -9029,7 +9027,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>674</v>
       </c>
@@ -9037,7 +9035,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>675</v>
       </c>
@@ -9045,7 +9043,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>676</v>
       </c>
@@ -9053,7 +9051,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>677</v>
       </c>
@@ -9061,7 +9059,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>678</v>
       </c>
@@ -9069,7 +9067,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>679</v>
       </c>
@@ -9077,7 +9075,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>680</v>
       </c>
@@ -9085,7 +9083,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>681</v>
       </c>
@@ -9093,7 +9091,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>682</v>
       </c>
@@ -9101,7 +9099,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>683</v>
       </c>
@@ -9109,7 +9107,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>684</v>
       </c>
@@ -9117,7 +9115,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>685</v>
       </c>
@@ -9125,7 +9123,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>686</v>
       </c>
@@ -9133,7 +9131,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>687</v>
       </c>
@@ -9141,7 +9139,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>688</v>
       </c>
@@ -9149,7 +9147,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>689</v>
       </c>
@@ -9157,7 +9155,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>690</v>
       </c>
@@ -9165,7 +9163,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>691</v>
       </c>
@@ -9173,7 +9171,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>692</v>
       </c>
@@ -9181,7 +9179,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>693</v>
       </c>
@@ -9189,7 +9187,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>694</v>
       </c>
@@ -9197,7 +9195,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>695</v>
       </c>
@@ -9205,7 +9203,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>696</v>
       </c>
@@ -9213,7 +9211,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>697</v>
       </c>
@@ -9221,7 +9219,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>698</v>
       </c>
@@ -9229,7 +9227,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>699</v>
       </c>
@@ -9237,7 +9235,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>700</v>
       </c>
@@ -9245,7 +9243,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>701</v>
       </c>
@@ -9253,7 +9251,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>702</v>
       </c>
@@ -9261,7 +9259,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>703</v>
       </c>
@@ -9269,7 +9267,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>704</v>
       </c>
@@ -9277,7 +9275,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>705</v>
       </c>
@@ -9285,7 +9283,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>706</v>
       </c>
@@ -9293,7 +9291,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>707</v>
       </c>
@@ -9301,7 +9299,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>708</v>
       </c>
@@ -9309,7 +9307,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>709</v>
       </c>
@@ -9317,7 +9315,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>710</v>
       </c>
@@ -9325,7 +9323,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>710</v>
       </c>
@@ -9333,7 +9331,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>711</v>
       </c>
@@ -9341,7 +9339,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>712</v>
       </c>
@@ -9349,7 +9347,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>713</v>
       </c>
@@ -9357,7 +9355,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>714</v>
       </c>
@@ -9365,7 +9363,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>715</v>
       </c>
@@ -9373,7 +9371,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>716</v>
       </c>
@@ -9381,7 +9379,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>717</v>
       </c>
@@ -9389,7 +9387,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>718</v>
       </c>
@@ -9397,7 +9395,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>719</v>
       </c>
@@ -9405,7 +9403,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>720</v>
       </c>
@@ -9413,7 +9411,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>721</v>
       </c>
@@ -9421,7 +9419,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>722</v>
       </c>
@@ -9429,7 +9427,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>723</v>
       </c>
@@ -9437,7 +9435,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>724</v>
       </c>
@@ -9445,7 +9443,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>725</v>
       </c>
@@ -9453,7 +9451,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>726</v>
       </c>
@@ -9461,7 +9459,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>727</v>
       </c>
@@ -9469,7 +9467,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>728</v>
       </c>
@@ -9477,7 +9475,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>729</v>
       </c>
@@ -9485,7 +9483,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>730</v>
       </c>
@@ -9493,7 +9491,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>731</v>
       </c>
@@ -9501,7 +9499,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>732</v>
       </c>
@@ -9509,7 +9507,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>733</v>
       </c>
@@ -9517,7 +9515,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>734</v>
       </c>
@@ -9525,7 +9523,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>735</v>
       </c>
@@ -9533,7 +9531,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>736</v>
       </c>
@@ -9541,7 +9539,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>737</v>
       </c>
@@ -9549,7 +9547,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>738</v>
       </c>
@@ -9557,7 +9555,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>739</v>
       </c>
@@ -9565,7 +9563,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>740</v>
       </c>
@@ -9573,7 +9571,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>741</v>
       </c>
@@ -9581,7 +9579,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>742</v>
       </c>
@@ -9589,7 +9587,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>743</v>
       </c>
@@ -9597,7 +9595,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>744</v>
       </c>
@@ -9605,7 +9603,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>745</v>
       </c>
@@ -9613,7 +9611,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>746</v>
       </c>
@@ -9621,7 +9619,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>747</v>
       </c>
@@ -9629,7 +9627,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>748</v>
       </c>
@@ -9637,7 +9635,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>749</v>
       </c>
@@ -9645,7 +9643,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>750</v>
       </c>
@@ -9653,7 +9651,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>751</v>
       </c>
@@ -9661,7 +9659,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>752</v>
       </c>
@@ -9669,7 +9667,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>753</v>
       </c>
@@ -9677,7 +9675,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>754</v>
       </c>
@@ -9685,7 +9683,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>754</v>
       </c>
@@ -9693,7 +9691,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>755</v>
       </c>
@@ -9701,7 +9699,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>756</v>
       </c>
@@ -9709,7 +9707,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>757</v>
       </c>
@@ -9717,7 +9715,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>758</v>
       </c>
@@ -9725,7 +9723,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>759</v>
       </c>
@@ -9733,7 +9731,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>760</v>
       </c>
@@ -9741,7 +9739,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>761</v>
       </c>
@@ -9749,7 +9747,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>762</v>
       </c>
@@ -9757,7 +9755,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>763</v>
       </c>
@@ -9765,7 +9763,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>764</v>
       </c>
@@ -9773,7 +9771,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>765</v>
       </c>
@@ -9781,7 +9779,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>766</v>
       </c>
@@ -9789,7 +9787,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>767</v>
       </c>
@@ -9797,7 +9795,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>768</v>
       </c>
@@ -9805,7 +9803,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>769</v>
       </c>
@@ -9813,7 +9811,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>770</v>
       </c>
@@ -9821,7 +9819,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>771</v>
       </c>
@@ -9829,7 +9827,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>772</v>
       </c>
@@ -9837,7 +9835,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>773</v>
       </c>
@@ -9845,7 +9843,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>774</v>
       </c>
@@ -9853,7 +9851,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>775</v>
       </c>
@@ -9861,7 +9859,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>776</v>
       </c>
@@ -9869,7 +9867,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>777</v>
       </c>
@@ -9877,7 +9875,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>778</v>
       </c>
@@ -9885,7 +9883,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>779</v>
       </c>
@@ -9893,7 +9891,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>780</v>
       </c>
@@ -9901,7 +9899,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>781</v>
       </c>
@@ -9909,7 +9907,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>782</v>
       </c>
@@ -9917,7 +9915,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>783</v>
       </c>
@@ -9925,7 +9923,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>784</v>
       </c>
@@ -9933,7 +9931,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>785</v>
       </c>
@@ -9941,7 +9939,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>786</v>
       </c>
@@ -9949,7 +9947,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>787</v>
       </c>
@@ -9957,7 +9955,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>788</v>
       </c>
@@ -9965,7 +9963,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>789</v>
       </c>
@@ -9973,7 +9971,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>790</v>
       </c>
@@ -9981,7 +9979,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>791</v>
       </c>
@@ -9989,7 +9987,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>792</v>
       </c>
@@ -9997,7 +9995,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>793</v>
       </c>
@@ -10005,7 +10003,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>794</v>
       </c>
@@ -10013,7 +10011,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>795</v>
       </c>
@@ -10021,7 +10019,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>796</v>
       </c>
@@ -10029,7 +10027,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>797</v>
       </c>
@@ -10037,7 +10035,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>798</v>
       </c>
@@ -10045,7 +10043,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>799</v>
       </c>
@@ -10053,7 +10051,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>800</v>
       </c>
@@ -10061,7 +10059,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>801</v>
       </c>
@@ -10069,7 +10067,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>802</v>
       </c>
@@ -10077,7 +10075,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>803</v>
       </c>
@@ -10096,25 +10094,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.20703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="31.7890625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.89453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.20703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.68359375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.89453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>216</v>
       </c>
@@ -10161,7 +10159,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10208,7 +10206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10255,7 +10253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10302,7 +10300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10349,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1</v>
       </c>
@@ -10396,7 +10394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1</v>
       </c>
@@ -10443,7 +10441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>1</v>
       </c>
@@ -10490,7 +10488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>1</v>
       </c>
@@ -10537,7 +10535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>1</v>
       </c>
@@ -10584,7 +10582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>1</v>
       </c>
@@ -10631,7 +10629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>1</v>
       </c>
@@ -10678,7 +10676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>1</v>
       </c>
@@ -10725,7 +10723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>1</v>
       </c>
@@ -10772,7 +10770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1</v>
       </c>
@@ -10819,7 +10817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>1</v>
       </c>
@@ -10866,7 +10864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>1</v>
       </c>
@@ -10913,7 +10911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>1</v>
       </c>
@@ -10960,7 +10958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>1</v>
       </c>
@@ -11007,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>1</v>
       </c>
@@ -11054,7 +11052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>1</v>
       </c>
@@ -11101,7 +11099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>1</v>
       </c>
@@ -11148,7 +11146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>1</v>
       </c>
@@ -11195,7 +11193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>1</v>
       </c>
@@ -11242,7 +11240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>1</v>
       </c>
@@ -11289,7 +11287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>1</v>
       </c>
@@ -11336,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>1</v>
       </c>
@@ -11383,7 +11381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>1</v>
       </c>
@@ -11430,7 +11428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>1</v>
       </c>
@@ -11477,7 +11475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>1</v>
       </c>
@@ -11524,7 +11522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>1</v>
       </c>
@@ -11571,7 +11569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>1</v>
       </c>
@@ -11618,7 +11616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>1</v>
       </c>
@@ -11665,7 +11663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>1</v>
       </c>
@@ -11712,7 +11710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>1</v>
       </c>
@@ -11759,7 +11757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>1</v>
       </c>
@@ -11806,7 +11804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>1</v>
       </c>
@@ -11853,7 +11851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>1</v>
       </c>
@@ -11900,7 +11898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>1</v>
       </c>
@@ -11947,7 +11945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>1</v>
       </c>
@@ -11994,7 +11992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>1</v>
       </c>
@@ -12041,7 +12039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>1</v>
       </c>
@@ -12088,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>1</v>
       </c>
@@ -12135,7 +12133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>1</v>
       </c>
@@ -12182,7 +12180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>1</v>
       </c>
@@ -12229,7 +12227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>1</v>
       </c>
@@ -12276,7 +12274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>1</v>
       </c>
@@ -12323,7 +12321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>1</v>
       </c>
@@ -12370,7 +12368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>1</v>
       </c>
@@ -12417,7 +12415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>1</v>
       </c>
@@ -12464,7 +12462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>1</v>
       </c>
@@ -12511,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>2</v>
       </c>
@@ -12558,7 +12556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>2</v>
       </c>
@@ -12605,7 +12603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>2</v>
       </c>
@@ -12652,7 +12650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>2</v>
       </c>
@@ -12699,7 +12697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>2</v>
       </c>
@@ -12746,7 +12744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>2</v>
       </c>
@@ -12793,7 +12791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>2</v>
       </c>
@@ -12840,7 +12838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>2</v>
       </c>
@@ -12887,7 +12885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>2</v>
       </c>
@@ -12934,7 +12932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>2</v>
       </c>
@@ -12981,7 +12979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>2</v>
       </c>
@@ -13028,7 +13026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>2</v>
       </c>
@@ -13075,7 +13073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>2</v>
       </c>
@@ -13122,7 +13120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>2</v>
       </c>
@@ -13169,7 +13167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>2</v>
       </c>
@@ -13216,7 +13214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>2</v>
       </c>
@@ -13263,7 +13261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>2</v>
       </c>
@@ -13310,7 +13308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>2</v>
       </c>
@@ -13357,7 +13355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>2</v>
       </c>
@@ -13404,7 +13402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>2</v>
       </c>
@@ -13451,7 +13449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>2</v>
       </c>
@@ -13498,7 +13496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>2</v>
       </c>
@@ -13545,7 +13543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>3</v>
       </c>
@@ -13592,7 +13590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>3</v>
       </c>
@@ -13639,7 +13637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>3</v>
       </c>
@@ -13686,7 +13684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>3</v>
       </c>
@@ -13733,7 +13731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>3</v>
       </c>
@@ -13780,7 +13778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>3</v>
       </c>
@@ -13827,7 +13825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>4</v>
       </c>
@@ -13874,7 +13872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>4</v>
       </c>
@@ -13921,7 +13919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>4</v>
       </c>
@@ -13968,7 +13966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>4</v>
       </c>
@@ -14015,7 +14013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>4</v>
       </c>
@@ -14062,7 +14060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>4</v>
       </c>
@@ -14109,7 +14107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>4</v>
       </c>
@@ -14156,7 +14154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>4</v>
       </c>
@@ -14203,7 +14201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>4</v>
       </c>
@@ -14250,7 +14248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>4</v>
       </c>
@@ -14297,7 +14295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>4</v>
       </c>
@@ -14344,7 +14342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>4</v>
       </c>
@@ -14391,7 +14389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>5</v>
       </c>
@@ -14438,7 +14436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>5</v>
       </c>
@@ -14485,7 +14483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>1</v>
       </c>
@@ -14529,7 +14527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>1</v>
       </c>
@@ -14573,7 +14571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>1</v>
       </c>
@@ -14617,7 +14615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>1</v>
       </c>
@@ -14661,7 +14659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>1</v>
       </c>
@@ -14705,7 +14703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>1</v>
       </c>
@@ -14749,7 +14747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>1</v>
       </c>
@@ -14793,7 +14791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>1</v>
       </c>
@@ -14837,7 +14835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>1</v>
       </c>
@@ -14881,7 +14879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>2</v>
       </c>
@@ -14925,7 +14923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>2</v>
       </c>
@@ -14969,7 +14967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>2</v>
       </c>
@@ -15013,7 +15011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>2</v>
       </c>
@@ -15057,7 +15055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>2</v>
       </c>
@@ -15101,7 +15099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>2</v>
       </c>
@@ -15145,7 +15143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>2</v>
       </c>
@@ -15189,7 +15187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>2</v>
       </c>
@@ -15233,7 +15231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>2</v>
       </c>
@@ -15277,7 +15275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>2</v>
       </c>
@@ -15321,7 +15319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>2</v>
       </c>
@@ -15365,7 +15363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>2</v>
       </c>
@@ -15409,7 +15407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>2</v>
       </c>
@@ -15453,7 +15451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>2</v>
       </c>
@@ -15497,7 +15495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>2</v>
       </c>
@@ -15541,7 +15539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>2</v>
       </c>
@@ -15585,7 +15583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>2</v>
       </c>
@@ -15629,7 +15627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>2</v>
       </c>
@@ -15673,7 +15671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>2</v>
       </c>
@@ -15717,7 +15715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>2</v>
       </c>
@@ -15761,7 +15759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>2</v>
       </c>
@@ -15805,7 +15803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>2</v>
       </c>
@@ -15849,7 +15847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>2</v>
       </c>
@@ -15893,7 +15891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>2</v>
       </c>
@@ -15937,7 +15935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>2</v>
       </c>
@@ -15981,7 +15979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>2</v>
       </c>
@@ -16025,7 +16023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>2</v>
       </c>
@@ -16069,7 +16067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>2</v>
       </c>
@@ -16113,7 +16111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>2</v>
       </c>
@@ -16157,7 +16155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>2</v>
       </c>
@@ -16201,7 +16199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>2</v>
       </c>
@@ -16245,7 +16243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>2</v>
       </c>
@@ -16289,7 +16287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>2</v>
       </c>
@@ -16333,7 +16331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>2</v>
       </c>
@@ -16377,7 +16375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>2</v>
       </c>
@@ -16421,7 +16419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>2</v>
       </c>
@@ -16465,7 +16463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>2</v>
       </c>
@@ -16509,7 +16507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>2</v>
       </c>
@@ -16553,7 +16551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>2</v>
       </c>
@@ -16597,7 +16595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>2</v>
       </c>
@@ -16641,7 +16639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>2</v>
       </c>
@@ -16685,7 +16683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>2</v>
       </c>
@@ -16729,7 +16727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>2</v>
       </c>
@@ -16773,7 +16771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>2</v>
       </c>
@@ -16817,7 +16815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>2</v>
       </c>
@@ -16861,7 +16859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>3</v>
       </c>
@@ -16908,7 +16906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>3</v>
       </c>
@@ -16952,7 +16950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>3</v>
       </c>
@@ -16996,7 +16994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>3</v>
       </c>
@@ -17040,7 +17038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>4</v>
       </c>
@@ -17087,7 +17085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>4</v>
       </c>
@@ -17134,7 +17132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>4</v>
       </c>
@@ -17181,7 +17179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>5</v>
       </c>
@@ -17228,7 +17226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>5</v>
       </c>
@@ -17275,7 +17273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>5</v>
       </c>
@@ -17322,7 +17320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>5</v>
       </c>
@@ -17369,7 +17367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>5</v>
       </c>
@@ -17416,7 +17414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>5</v>
       </c>
@@ -17463,7 +17461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>5</v>
       </c>
@@ -17524,22 +17522,22 @@
       <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.89453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.89453125" customWidth="1"/>
+    <col min="6" max="6" width="14.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.1015625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.3125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>288</v>
       </c>
@@ -17577,7 +17575,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -17612,7 +17610,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>222</v>
       </c>
@@ -17647,7 +17645,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>222</v>
       </c>
@@ -17682,7 +17680,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>222</v>
       </c>
@@ -17717,7 +17715,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -17752,7 +17750,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>222</v>
       </c>
@@ -17787,7 +17785,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>222</v>
       </c>
@@ -17822,7 +17820,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -17857,7 +17855,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -17892,7 +17890,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>222</v>
       </c>
@@ -17927,7 +17925,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>222</v>
       </c>
@@ -17962,7 +17960,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -17997,7 +17995,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>222</v>
       </c>
@@ -18032,7 +18030,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>222</v>
       </c>
@@ -18067,7 +18065,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>222</v>
       </c>
@@ -18102,7 +18100,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>222</v>
       </c>
@@ -18137,7 +18135,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>222</v>
       </c>
@@ -18172,7 +18170,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -18207,7 +18205,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -18242,7 +18240,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>222</v>
       </c>
@@ -18277,7 +18275,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>222</v>
       </c>
@@ -18312,7 +18310,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>222</v>
       </c>
@@ -18347,7 +18345,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>222</v>
       </c>
@@ -18379,7 +18377,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>222</v>
       </c>
@@ -18411,7 +18409,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>222</v>
       </c>
@@ -18443,7 +18441,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>222</v>
       </c>
@@ -18475,7 +18473,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>222</v>
       </c>
@@ -18507,7 +18505,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>222</v>
       </c>
@@ -18539,7 +18537,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>222</v>
       </c>
@@ -18571,7 +18569,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>222</v>
       </c>
@@ -18603,7 +18601,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>222</v>
       </c>
@@ -18635,7 +18633,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>222</v>
       </c>
@@ -18667,7 +18665,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>222</v>
       </c>
@@ -18699,7 +18697,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>222</v>
       </c>
@@ -18730,14 +18728,14 @@
       <c r="J35" t="s">
         <v>321</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" t="s">
         <v>434</v>
       </c>
-      <c r="L35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>222</v>
       </c>
@@ -18768,14 +18766,14 @@
       <c r="J36" t="s">
         <v>321</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" t="s">
         <v>434</v>
       </c>
-      <c r="L36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>222</v>
       </c>
@@ -18806,14 +18804,14 @@
       <c r="J37" t="s">
         <v>321</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" t="s">
         <v>434</v>
       </c>
-      <c r="L37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>222</v>
       </c>
@@ -18844,14 +18842,14 @@
       <c r="J38" t="s">
         <v>321</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" t="s">
         <v>434</v>
       </c>
-      <c r="L38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>222</v>
       </c>
@@ -18882,14 +18880,14 @@
       <c r="J39" t="s">
         <v>321</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" t="s">
         <v>434</v>
       </c>
-      <c r="L39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>222</v>
       </c>
@@ -18920,14 +18918,14 @@
       <c r="J40" t="s">
         <v>321</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" t="s">
         <v>434</v>
       </c>
-      <c r="L40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>222</v>
       </c>
@@ -18958,14 +18956,14 @@
       <c r="J41" t="s">
         <v>321</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" t="s">
         <v>434</v>
       </c>
-      <c r="L41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>222</v>
       </c>
@@ -18996,14 +18994,14 @@
       <c r="J42" t="s">
         <v>321</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" t="s">
         <v>434</v>
       </c>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>222</v>
       </c>
@@ -19034,14 +19032,14 @@
       <c r="J43" t="s">
         <v>321</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" t="s">
         <v>434</v>
       </c>
-      <c r="L43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>222</v>
       </c>
@@ -19072,14 +19070,14 @@
       <c r="J44" t="s">
         <v>321</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" t="s">
         <v>434</v>
       </c>
-      <c r="L44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>222</v>
       </c>
@@ -19110,14 +19108,14 @@
       <c r="J45" t="s">
         <v>321</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" t="s">
         <v>434</v>
       </c>
-      <c r="L45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>322</v>
       </c>
@@ -19152,7 +19150,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>322</v>
       </c>
@@ -19187,7 +19185,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>322</v>
       </c>
@@ -19222,7 +19220,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>422</v>
       </c>
@@ -19257,7 +19255,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>328</v>
       </c>
@@ -19292,7 +19290,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>328</v>
       </c>
@@ -19327,7 +19325,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>328</v>
       </c>
@@ -19362,7 +19360,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>222</v>
       </c>
@@ -19394,7 +19392,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>222</v>
       </c>
@@ -19426,7 +19424,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>222</v>
       </c>
@@ -19458,7 +19456,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>222</v>
       </c>
@@ -19490,7 +19488,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -19522,7 +19520,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>222</v>
       </c>
@@ -19554,7 +19552,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>222</v>
       </c>
@@ -19586,7 +19584,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>222</v>
       </c>
@@ -19618,7 +19616,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>222</v>
       </c>
@@ -19650,7 +19648,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>222</v>
       </c>
@@ -19682,7 +19680,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>222</v>
       </c>
@@ -19714,7 +19712,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>222</v>
       </c>
@@ -19745,14 +19743,14 @@
       <c r="J64" t="s">
         <v>321</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K64" t="s">
         <v>434</v>
       </c>
-      <c r="L64" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>222</v>
       </c>
@@ -19783,14 +19781,14 @@
       <c r="J65" t="s">
         <v>321</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K65" t="s">
         <v>434</v>
       </c>
-      <c r="L65" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>222</v>
       </c>
@@ -19821,14 +19819,14 @@
       <c r="J66" t="s">
         <v>321</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K66" t="s">
         <v>434</v>
       </c>
-      <c r="L66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>222</v>
       </c>
@@ -19859,14 +19857,14 @@
       <c r="J67" t="s">
         <v>321</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K67" t="s">
         <v>434</v>
       </c>
-      <c r="L67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>222</v>
       </c>
@@ -19897,14 +19895,14 @@
       <c r="J68" t="s">
         <v>321</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K68" t="s">
         <v>434</v>
       </c>
-      <c r="L68" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>222</v>
       </c>
@@ -19935,14 +19933,14 @@
       <c r="J69" t="s">
         <v>321</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="K69" t="s">
         <v>434</v>
       </c>
-      <c r="L69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>222</v>
       </c>
@@ -19973,14 +19971,14 @@
       <c r="J70" t="s">
         <v>321</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="K70" t="s">
         <v>434</v>
       </c>
-      <c r="L70" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>222</v>
       </c>
@@ -20011,14 +20009,14 @@
       <c r="J71" t="s">
         <v>321</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="K71" t="s">
         <v>434</v>
       </c>
-      <c r="L71" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>222</v>
       </c>
@@ -20049,14 +20047,14 @@
       <c r="J72" t="s">
         <v>321</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K72" t="s">
         <v>434</v>
       </c>
-      <c r="L72" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>222</v>
       </c>
@@ -20087,14 +20085,14 @@
       <c r="J73" t="s">
         <v>321</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K73" t="s">
         <v>434</v>
       </c>
-      <c r="L73" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>222</v>
       </c>
@@ -20125,14 +20123,14 @@
       <c r="J74" t="s">
         <v>321</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K74" t="s">
         <v>434</v>
       </c>
-      <c r="L74" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>347</v>
       </c>
@@ -20167,7 +20165,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>347</v>
       </c>
@@ -20205,7 +20203,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>347</v>
       </c>
@@ -20237,7 +20235,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>343</v>
       </c>
@@ -20272,7 +20270,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>343</v>
       </c>
@@ -20307,7 +20305,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>401</v>
       </c>
@@ -20342,7 +20340,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>401</v>
       </c>
@@ -20377,7 +20375,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>354</v>
       </c>
@@ -20412,7 +20410,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>356</v>
       </c>
@@ -20447,340 +20445,340 @@
         <v>417</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
         <v>356</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" t="s">
         <v>329</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" t="s">
         <v>357</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" t="s">
         <v>109</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" t="s">
         <v>104</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" t="s">
         <v>105</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H84" t="s">
         <v>106</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="I84" t="s">
         <v>109</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J84" t="s">
         <v>321</v>
       </c>
-      <c r="K84" s="3" t="s">
+      <c r="K84" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
         <v>335</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" t="s">
         <v>298</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" t="s">
         <v>336</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" t="s">
         <v>337</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" t="s">
         <v>104</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" t="s">
         <v>111</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" t="s">
         <v>113</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I85" t="s">
         <v>114</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" t="s">
         <v>321</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="K85" t="s">
         <v>431</v>
       </c>
-      <c r="L85" s="3" t="s">
+      <c r="L85" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
         <v>335</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" t="s">
         <v>298</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" t="s">
         <v>336</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" t="s">
         <v>338</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" t="s">
         <v>104</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" t="s">
         <v>111</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" t="s">
         <v>113</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="I86" t="s">
         <v>115</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J86" t="s">
         <v>321</v>
       </c>
-      <c r="K86" s="3" t="s">
+      <c r="K86" t="s">
         <v>431</v>
       </c>
-      <c r="L86" s="3" t="s">
+      <c r="L86" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
         <v>339</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" t="s">
         <v>298</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" t="s">
         <v>340</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" t="s">
         <v>341</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" t="s">
         <v>104</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G87" t="s">
         <v>111</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H87" t="s">
         <v>117</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="I87" t="s">
         <v>118</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="J87" t="s">
         <v>321</v>
       </c>
-      <c r="K87" s="3" t="s">
+      <c r="K87" t="s">
         <v>431</v>
       </c>
-      <c r="L87" s="3" t="s">
+      <c r="L87" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
         <v>339</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" t="s">
         <v>298</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" t="s">
         <v>340</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" t="s">
         <v>342</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" t="s">
         <v>104</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" t="s">
         <v>111</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="H88" t="s">
         <v>117</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="I88" t="s">
         <v>119</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J88" t="s">
         <v>321</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="K88" t="s">
         <v>431</v>
       </c>
-      <c r="L88" s="3" t="s">
+      <c r="L88" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
         <v>376</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" t="s">
         <v>329</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" t="s">
         <v>375</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" t="s">
         <v>127</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" t="s">
         <v>104</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G89" t="s">
         <v>126</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="H89" t="s">
         <v>126</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="I89" t="s">
         <v>127</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="J89" t="s">
         <v>321</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="K89" t="s">
         <v>434</v>
       </c>
-      <c r="L89" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
         <v>376</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" t="s">
         <v>329</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" t="s">
         <v>375</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" t="s">
         <v>128</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" t="s">
         <v>104</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G90" t="s">
         <v>126</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="H90" t="s">
         <v>126</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="I90" t="s">
         <v>128</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="J90" t="s">
         <v>321</v>
       </c>
-      <c r="K90" s="3" t="s">
+      <c r="K90" t="s">
         <v>434</v>
       </c>
-      <c r="L90" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
         <v>405</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" t="s">
         <v>298</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" t="s">
         <v>406</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" t="s">
         <v>407</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" t="s">
         <v>104</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G91" t="s">
         <v>125</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="H91" t="s">
         <v>125</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="I91" t="s">
         <v>397</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="J91" t="s">
         <v>321</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
         <v>405</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" t="s">
         <v>298</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" t="s">
         <v>406</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" t="s">
         <v>408</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" t="s">
         <v>104</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G92" t="s">
         <v>125</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="H92" t="s">
         <v>125</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="I92" t="s">
         <v>398</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="J92" t="s">
         <v>321</v>
       </c>
-      <c r="K92" s="3" t="s">
+      <c r="K92" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>358</v>
       </c>
@@ -20815,7 +20813,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>358</v>
       </c>
@@ -20850,7 +20848,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>422</v>
       </c>
@@ -20885,7 +20883,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>422</v>
       </c>
@@ -20920,7 +20918,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>422</v>
       </c>
@@ -20955,7 +20953,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>422</v>
       </c>
@@ -20990,7 +20988,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>371</v>
       </c>
@@ -21025,7 +21023,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>371</v>
       </c>
